--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4A9645-73F4-924E-B41E-518949C0CF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93C7B95-B0B3-7944-9626-6AD6934F41CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2806" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1968">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -2271,9 +2271,6 @@
   </si>
   <si>
     <t>ばかり2</t>
-  </si>
-  <si>
-    <t>&lt;span class="common"&gt;&lt;/span&gt;about; approximately</t>
   </si>
   <si>
     <t>ばかりだ</t>
@@ -5949,6 +5946,9 @@
   </si>
   <si>
     <t>to do (by someone) (passive 受身形)</t>
+  </si>
+  <si>
+    <t>somewhat done, but should add something to analyze nouns if they have 甲斐in them….</t>
   </si>
 </sst>
 </file>
@@ -6193,7 +6193,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6237,9 +6237,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7464,8 +7461,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A231" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7480,44 +7477,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>1960</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
       <c r="H2" s="1">
         <f>COUNTA(F:F)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1961</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -8238,7 +8235,7 @@
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="30" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -10596,9 +10593,9 @@
     </row>
     <row r="222" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B222" s="13" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B222" s="39" t="s">
         <v>432</v>
       </c>
       <c r="C222" s="4" t="s">
@@ -10610,13 +10607,15 @@
       <c r="E222" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="F222" s="10"/>
+      <c r="F222" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="223" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="B223" s="41" t="s">
         <v>436</v>
       </c>
       <c r="C223" s="6" t="s">
@@ -10634,7 +10633,7 @@
       <c r="A224" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B224" s="39" t="s">
         <v>440</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -10646,9 +10645,11 @@
       <c r="E224" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F224" s="10"/>
-    </row>
-    <row r="225" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F224" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
         <v>423</v>
       </c>
@@ -10666,7 +10667,7 @@
       </c>
       <c r="F225" s="10"/>
     </row>
-    <row r="226" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
         <v>423</v>
       </c>
@@ -10680,7 +10681,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="10"/>
     </row>
-    <row r="227" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
         <v>423</v>
       </c>
@@ -10694,7 +10695,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="10"/>
     </row>
-    <row r="228" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
         <v>423</v>
       </c>
@@ -10708,7 +10709,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="10"/>
     </row>
-    <row r="229" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
         <v>423</v>
       </c>
@@ -10722,11 +10723,11 @@
       <c r="E229" s="8"/>
       <c r="F229" s="10"/>
     </row>
-    <row r="230" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="B230" s="39" t="s">
         <v>456</v>
       </c>
       <c r="C230" s="4" t="s">
@@ -10734,13 +10735,15 @@
       </c>
       <c r="D230" s="5"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="10"/>
-    </row>
-    <row r="231" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F230" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="B231" s="39" t="s">
         <v>458</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -10748,13 +10751,15 @@
       </c>
       <c r="D231" s="5"/>
       <c r="E231" s="8"/>
-      <c r="F231" s="10"/>
-    </row>
-    <row r="232" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F231" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="B232" s="42" t="s">
         <v>460</v>
       </c>
       <c r="C232" s="4" t="s">
@@ -10762,13 +10767,15 @@
       </c>
       <c r="D232" s="5"/>
       <c r="E232" s="8"/>
-      <c r="F232" s="10"/>
-    </row>
-    <row r="233" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F232" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B233" s="13" t="s">
+      <c r="B233" s="39" t="s">
         <v>462</v>
       </c>
       <c r="C233" s="4" t="s">
@@ -10776,9 +10783,11 @@
       </c>
       <c r="D233" s="5"/>
       <c r="E233" s="8"/>
-      <c r="F233" s="10"/>
-    </row>
-    <row r="234" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F233" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
         <v>423</v>
       </c>
@@ -10792,7 +10801,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="10"/>
     </row>
-    <row r="235" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
         <v>423</v>
       </c>
@@ -10806,11 +10815,11 @@
       <c r="E235" s="8"/>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B236" s="13" t="s">
+      <c r="B236" s="38" t="s">
         <v>468</v>
       </c>
       <c r="C236" s="4" t="s">
@@ -10818,9 +10827,14 @@
       </c>
       <c r="D236" s="5"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="10"/>
-    </row>
-    <row r="237" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F236" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G236" s="7" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
         <v>423</v>
       </c>
@@ -10834,7 +10848,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>423</v>
       </c>
@@ -10848,7 +10862,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="10"/>
     </row>
-    <row r="239" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>423</v>
       </c>
@@ -10862,7 +10876,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="10"/>
     </row>
-    <row r="240" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
         <v>423</v>
       </c>
@@ -12238,7 +12252,7 @@
       <c r="A338" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="13" t="s">
         <v>664</v>
       </c>
       <c r="C338" s="4" t="s">
@@ -12815,8 +12829,8 @@
       <c r="B379" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="C379" s="4" t="s">
-        <v>745</v>
+      <c r="C379" s="40" t="s">
+        <v>1788</v>
       </c>
       <c r="D379" s="5"/>
       <c r="E379" s="8"/>
@@ -12827,10 +12841,10 @@
         <v>423</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C380" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="D380" s="5"/>
       <c r="E380" s="8"/>
@@ -12841,10 +12855,10 @@
         <v>423</v>
       </c>
       <c r="B381" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="C381" s="4" t="s">
         <v>748</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>749</v>
       </c>
       <c r="D381" s="5"/>
       <c r="E381" s="8"/>
@@ -12854,11 +12868,11 @@
       <c r="A382" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="B382" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="C382" s="4" t="s">
         <v>750</v>
-      </c>
-      <c r="C382" s="4" t="s">
-        <v>751</v>
       </c>
       <c r="D382" s="5"/>
       <c r="E382" s="8"/>
@@ -12869,7 +12883,7 @@
         <v>423</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>96</v>
@@ -12883,10 +12897,10 @@
         <v>423</v>
       </c>
       <c r="B384" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C384" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>754</v>
       </c>
       <c r="D384" s="5"/>
       <c r="E384" s="8"/>
@@ -12897,10 +12911,10 @@
         <v>423</v>
       </c>
       <c r="B385" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C385" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="D385" s="5"/>
       <c r="E385" s="8"/>
@@ -12911,10 +12925,10 @@
         <v>423</v>
       </c>
       <c r="B386" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C386" s="4" t="s">
         <v>757</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>758</v>
       </c>
       <c r="D386" s="5"/>
       <c r="E386" s="8"/>
@@ -12925,10 +12939,10 @@
         <v>423</v>
       </c>
       <c r="B387" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="C387" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="D387" s="5"/>
       <c r="E387" s="8"/>
@@ -12939,10 +12953,10 @@
         <v>423</v>
       </c>
       <c r="B388" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C388" s="4" t="s">
         <v>761</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>762</v>
       </c>
       <c r="D388" s="5"/>
       <c r="E388" s="8"/>
@@ -12953,10 +12967,10 @@
         <v>423</v>
       </c>
       <c r="B389" s="13" t="s">
+        <v>762</v>
+      </c>
+      <c r="C389" s="4" t="s">
         <v>763</v>
-      </c>
-      <c r="C389" s="4" t="s">
-        <v>764</v>
       </c>
       <c r="D389" s="5"/>
       <c r="E389" s="8"/>
@@ -12967,10 +12981,10 @@
         <v>423</v>
       </c>
       <c r="B390" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C390" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="D390" s="5"/>
       <c r="E390" s="8"/>
@@ -12981,10 +12995,10 @@
         <v>423</v>
       </c>
       <c r="B391" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="D391" s="5"/>
       <c r="E391" s="8"/>
@@ -12994,11 +13008,11 @@
       <c r="A392" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B392" s="3" t="s">
+      <c r="B392" s="13" t="s">
+        <v>768</v>
+      </c>
+      <c r="C392" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>770</v>
       </c>
       <c r="D392" s="5"/>
       <c r="E392" s="8"/>
@@ -13009,10 +13023,10 @@
         <v>423</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C393" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="D393" s="5"/>
       <c r="E393" s="8"/>
@@ -13023,10 +13037,10 @@
         <v>423</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C394" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>774</v>
       </c>
       <c r="D394" s="5"/>
       <c r="E394" s="8"/>
@@ -13036,11 +13050,11 @@
       <c r="A395" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="B395" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="C395" s="4" t="s">
         <v>775</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>776</v>
       </c>
       <c r="D395" s="5"/>
       <c r="E395" s="8"/>
@@ -13051,10 +13065,10 @@
         <v>423</v>
       </c>
       <c r="B396" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C396" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>778</v>
       </c>
       <c r="D396" s="5"/>
       <c r="E396" s="8"/>
@@ -13065,10 +13079,10 @@
         <v>423</v>
       </c>
       <c r="B397" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C397" s="4" t="s">
         <v>779</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>780</v>
       </c>
       <c r="D397" s="5"/>
       <c r="E397" s="8"/>
@@ -13078,11 +13092,11 @@
       <c r="A398" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="B398" s="13" t="s">
+        <v>780</v>
+      </c>
+      <c r="C398" s="4" t="s">
         <v>781</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>782</v>
       </c>
       <c r="D398" s="5"/>
       <c r="E398" s="8"/>
@@ -13092,11 +13106,11 @@
       <c r="A399" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="B399" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="C399" s="4" t="s">
         <v>783</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>784</v>
       </c>
       <c r="D399" s="5"/>
       <c r="E399" s="8"/>
@@ -13107,10 +13121,10 @@
         <v>423</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C400" s="4" t="s">
         <v>785</v>
-      </c>
-      <c r="C400" s="4" t="s">
-        <v>786</v>
       </c>
       <c r="D400" s="5"/>
       <c r="E400" s="8"/>
@@ -13121,10 +13135,10 @@
         <v>423</v>
       </c>
       <c r="B401" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C401" s="4" t="s">
         <v>787</v>
-      </c>
-      <c r="C401" s="4" t="s">
-        <v>788</v>
       </c>
       <c r="D401" s="5"/>
       <c r="E401" s="8"/>
@@ -13135,10 +13149,10 @@
         <v>423</v>
       </c>
       <c r="B402" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="C402" s="4" t="s">
         <v>789</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>790</v>
       </c>
       <c r="D402" s="5"/>
       <c r="E402" s="8"/>
@@ -13149,10 +13163,10 @@
         <v>423</v>
       </c>
       <c r="B403" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C403" s="4" t="s">
         <v>791</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>792</v>
       </c>
       <c r="D403" s="5"/>
       <c r="E403" s="8"/>
@@ -13162,11 +13176,11 @@
       <c r="A404" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="B404" s="13" t="s">
+        <v>792</v>
+      </c>
+      <c r="C404" s="4" t="s">
         <v>793</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>794</v>
       </c>
       <c r="D404" s="5"/>
       <c r="E404" s="8"/>
@@ -13177,10 +13191,10 @@
         <v>423</v>
       </c>
       <c r="B405" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C405" s="4" t="s">
         <v>795</v>
-      </c>
-      <c r="C405" s="4" t="s">
-        <v>796</v>
       </c>
       <c r="D405" s="5"/>
       <c r="E405" s="8"/>
@@ -13191,10 +13205,10 @@
         <v>423</v>
       </c>
       <c r="B406" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C406" s="4" t="s">
         <v>797</v>
-      </c>
-      <c r="C406" s="4" t="s">
-        <v>798</v>
       </c>
       <c r="D406" s="5"/>
       <c r="E406" s="8"/>
@@ -13205,10 +13219,10 @@
         <v>423</v>
       </c>
       <c r="B407" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C407" s="4" t="s">
         <v>799</v>
-      </c>
-      <c r="C407" s="4" t="s">
-        <v>800</v>
       </c>
       <c r="D407" s="5"/>
       <c r="E407" s="8"/>
@@ -13218,11 +13232,11 @@
       <c r="A408" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B408" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="C408" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="C408" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="D408" s="5"/>
       <c r="E408" s="8"/>
@@ -13233,10 +13247,10 @@
         <v>423</v>
       </c>
       <c r="B409" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C409" s="4" t="s">
         <v>803</v>
-      </c>
-      <c r="C409" s="4" t="s">
-        <v>804</v>
       </c>
       <c r="D409" s="5"/>
       <c r="E409" s="8"/>
@@ -13247,10 +13261,10 @@
         <v>423</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="D410" s="5"/>
       <c r="E410" s="8"/>
@@ -13261,10 +13275,10 @@
         <v>423</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C411" s="4" t="s">
         <v>807</v>
-      </c>
-      <c r="C411" s="4" t="s">
-        <v>808</v>
       </c>
       <c r="D411" s="5"/>
       <c r="E411" s="8"/>
@@ -13275,10 +13289,10 @@
         <v>423</v>
       </c>
       <c r="B412" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="C412" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="D412" s="5"/>
       <c r="E412" s="8"/>
@@ -13289,10 +13303,10 @@
         <v>423</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>811</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>812</v>
       </c>
       <c r="D413" s="5"/>
       <c r="E413" s="8"/>
@@ -13303,10 +13317,10 @@
         <v>423</v>
       </c>
       <c r="B414" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C414" s="4" t="s">
         <v>813</v>
-      </c>
-      <c r="C414" s="4" t="s">
-        <v>814</v>
       </c>
       <c r="D414" s="5"/>
       <c r="E414" s="8"/>
@@ -13317,10 +13331,10 @@
         <v>423</v>
       </c>
       <c r="B415" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C415" s="4" t="s">
         <v>815</v>
-      </c>
-      <c r="C415" s="4" t="s">
-        <v>816</v>
       </c>
       <c r="D415" s="5"/>
       <c r="E415" s="8"/>
@@ -13331,7 +13345,7 @@
         <v>423</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>80</v>
@@ -13345,10 +13359,10 @@
         <v>423</v>
       </c>
       <c r="B417" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C417" s="4" t="s">
         <v>818</v>
-      </c>
-      <c r="C417" s="4" t="s">
-        <v>819</v>
       </c>
       <c r="D417" s="5"/>
       <c r="E417" s="8"/>
@@ -13359,10 +13373,10 @@
         <v>423</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="C418" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="C418" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="D418" s="5"/>
       <c r="E418" s="8"/>
@@ -13373,10 +13387,10 @@
         <v>423</v>
       </c>
       <c r="B419" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C419" s="4" t="s">
         <v>822</v>
-      </c>
-      <c r="C419" s="4" t="s">
-        <v>823</v>
       </c>
       <c r="D419" s="5"/>
       <c r="E419" s="8"/>
@@ -13387,2391 +13401,2391 @@
         <v>423</v>
       </c>
       <c r="B420" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C420" s="4" t="s">
         <v>824</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>825</v>
       </c>
       <c r="D420" s="5"/>
       <c r="E420" s="8"/>
       <c r="F420" s="10"/>
     </row>
     <row r="421" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="24" t="s">
+      <c r="A421" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B421" s="32" t="s">
         <v>826</v>
       </c>
-      <c r="B421" s="33" t="s">
+      <c r="C421" s="25" t="s">
         <v>827</v>
       </c>
-      <c r="C421" s="26" t="s">
+      <c r="D421" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="D421" s="11" t="s">
+      <c r="E421" s="25" t="s">
         <v>829</v>
       </c>
-      <c r="E421" s="26" t="s">
-        <v>830</v>
-      </c>
       <c r="F421" s="11" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="H421" s="10">
         <f>COUNTA(F:F)</f>
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A422" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B422" s="25" t="s">
+      <c r="A422" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B422" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="C422" s="25" t="s">
         <v>831</v>
       </c>
-      <c r="C422" s="26" t="s">
+      <c r="D422" s="26" t="s">
         <v>832</v>
       </c>
-      <c r="D422" s="27" t="s">
+      <c r="E422" s="25" t="s">
         <v>833</v>
       </c>
-      <c r="E422" s="26" t="s">
+      <c r="F422" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B423" s="24" t="s">
         <v>834</v>
       </c>
-      <c r="F422" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A423" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B423" s="25" t="s">
+      <c r="C423" s="25" t="s">
         <v>835</v>
       </c>
-      <c r="C423" s="26" t="s">
+      <c r="D423" s="26" t="s">
         <v>836</v>
       </c>
-      <c r="D423" s="27" t="s">
+      <c r="E423" s="25" t="s">
         <v>837</v>
       </c>
-      <c r="E423" s="26" t="s">
+      <c r="F423" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B424" s="27" t="s">
         <v>838</v>
       </c>
-      <c r="F423" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B424" s="28" t="s">
+      <c r="C424" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="C424" s="26" t="s">
+      <c r="D424" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="D424" s="11" t="s">
+      <c r="E424" s="25" t="s">
         <v>841</v>
       </c>
-      <c r="E424" s="26" t="s">
-        <v>842</v>
-      </c>
       <c r="F424" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="425" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="B425" s="15" t="s">
+      <c r="B425" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="C425" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="C425" s="20" t="s">
+      <c r="D425" s="15" t="s">
         <v>844</v>
       </c>
-      <c r="D425" s="16" t="s">
+      <c r="E425" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="E425" s="21" t="s">
+      <c r="F425" s="18"/>
+    </row>
+    <row r="426" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B426" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="F425" s="19"/>
-    </row>
-    <row r="426" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A426" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B426" s="25" t="s">
+      <c r="C426" s="25" t="s">
         <v>847</v>
       </c>
-      <c r="C426" s="26" t="s">
+      <c r="D426" s="26" t="s">
         <v>848</v>
       </c>
-      <c r="D426" s="27" t="s">
+      <c r="E426" s="25" t="s">
         <v>849</v>
       </c>
-      <c r="E426" s="26" t="s">
+      <c r="F426" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B427" s="24" t="s">
         <v>850</v>
       </c>
-      <c r="F426" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A427" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B427" s="25" t="s">
+      <c r="C427" s="25" t="s">
         <v>851</v>
       </c>
-      <c r="C427" s="26" t="s">
+      <c r="D427" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="D427" s="11" t="s">
+      <c r="E427" s="25" t="s">
         <v>853</v>
       </c>
-      <c r="E427" s="26" t="s">
+      <c r="F427" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B428" s="11" t="s">
         <v>854</v>
       </c>
-      <c r="F427" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B428" s="11" t="s">
+      <c r="C428" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="C428" s="26" t="s">
+      <c r="D428" s="11" t="s">
         <v>856</v>
       </c>
-      <c r="D428" s="11" t="s">
+      <c r="E428" s="25" t="s">
         <v>857</v>
       </c>
-      <c r="E428" s="26" t="s">
+    </row>
+    <row r="429" spans="1:8" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B429" s="11" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="429" spans="1:8" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B429" s="11" t="s">
+      <c r="C429" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="C429" s="26" t="s">
+      <c r="D429" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="D429" s="11" t="s">
+      <c r="E429" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E429" s="26" t="s">
+    </row>
+    <row r="430" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B430" s="24" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="430" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B430" s="25" t="s">
+      <c r="C430" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="C430" s="11" t="s">
+      <c r="D430" s="26" t="s">
         <v>864</v>
       </c>
-      <c r="D430" s="27" t="s">
+      <c r="E430" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="E430" s="26" t="s">
+      <c r="F430" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G430" s="11"/>
+    </row>
+    <row r="431" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B431" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="F430" s="12" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G430" s="11"/>
-    </row>
-    <row r="431" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A431" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B431" s="11" t="s">
+      <c r="C431" s="25" t="s">
         <v>867</v>
       </c>
-      <c r="C431" s="26" t="s">
+      <c r="D431" s="11" t="s">
         <v>868</v>
       </c>
-      <c r="D431" s="11" t="s">
+      <c r="E431" s="25" t="s">
         <v>869</v>
       </c>
-      <c r="E431" s="26" t="s">
+    </row>
+    <row r="432" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B432" s="11" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="432" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A432" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B432" s="11" t="s">
+      <c r="C432" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="C432" s="11" t="s">
+      <c r="D432" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="D432" s="11" t="s">
+      <c r="E432" s="25" t="s">
         <v>873</v>
       </c>
-      <c r="E432" s="26" t="s">
+    </row>
+    <row r="433" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B433" s="24" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A433" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B433" s="25" t="s">
+      <c r="C433" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="C433" s="26" t="s">
+      <c r="D433" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="D433" s="11" t="s">
+      <c r="E433" s="25" t="s">
         <v>877</v>
       </c>
-      <c r="E433" s="26" t="s">
+      <c r="F433" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B434" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="F433" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B434" s="11" t="s">
+      <c r="C434" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="C434" s="11" t="s">
+      <c r="D434" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="D434" s="11" t="s">
+      <c r="E434" s="25" t="s">
         <v>881</v>
       </c>
-      <c r="E434" s="26" t="s">
+    </row>
+    <row r="435" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B435" s="24" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A435" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B435" s="25" t="s">
+      <c r="C435" s="25" t="s">
         <v>883</v>
       </c>
-      <c r="C435" s="26" t="s">
+      <c r="D435" s="11" t="s">
         <v>884</v>
       </c>
-      <c r="D435" s="11" t="s">
+      <c r="E435" s="25" t="s">
         <v>885</v>
       </c>
-      <c r="E435" s="26" t="s">
+      <c r="F435" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B436" s="24" t="s">
         <v>886</v>
       </c>
-      <c r="F435" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B436" s="25" t="s">
+      <c r="C436" s="25" t="s">
         <v>887</v>
       </c>
-      <c r="C436" s="26" t="s">
+      <c r="D436" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="D436" s="11" t="s">
+      <c r="E436" s="25" t="s">
         <v>889</v>
       </c>
-      <c r="E436" s="26" t="s">
+      <c r="F436" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B437" s="24" t="s">
         <v>890</v>
       </c>
-      <c r="F436" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B437" s="25" t="s">
+      <c r="C437" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="C437" s="11" t="s">
+      <c r="D437" s="11" t="s">
         <v>892</v>
       </c>
-      <c r="D437" s="11" t="s">
+      <c r="E437" s="25" t="s">
         <v>893</v>
       </c>
-      <c r="E437" s="26" t="s">
+      <c r="F437" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B438" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="F437" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B438" s="11" t="s">
+      <c r="C438" s="11" t="s">
         <v>895</v>
       </c>
-      <c r="C438" s="11" t="s">
+      <c r="D438" s="11" t="s">
         <v>896</v>
       </c>
-      <c r="D438" s="11" t="s">
+      <c r="E438" s="25" t="s">
         <v>897</v>
       </c>
-      <c r="E438" s="26" t="s">
+    </row>
+    <row r="439" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B439" s="24" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A439" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B439" s="25" t="s">
+      <c r="C439" s="25" t="s">
         <v>899</v>
       </c>
-      <c r="C439" s="26" t="s">
+      <c r="D439" s="11" t="s">
         <v>900</v>
       </c>
-      <c r="D439" s="11" t="s">
+      <c r="E439" s="25" t="s">
         <v>901</v>
       </c>
-      <c r="E439" s="26" t="s">
+      <c r="F439" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B440" s="24" t="s">
         <v>902</v>
       </c>
-      <c r="F439" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B440" s="25" t="s">
+      <c r="C440" s="25" t="s">
         <v>903</v>
       </c>
-      <c r="C440" s="26" t="s">
+      <c r="D440" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="D440" s="11" t="s">
+      <c r="E440" s="25" t="s">
         <v>905</v>
       </c>
-      <c r="E440" s="26" t="s">
+      <c r="F440" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G440" s="11"/>
+    </row>
+    <row r="441" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B441" s="11" t="s">
         <v>906</v>
       </c>
-      <c r="F440" s="12" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G440" s="11"/>
-    </row>
-    <row r="441" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B441" s="11" t="s">
+      <c r="C441" s="25" t="s">
         <v>907</v>
       </c>
-      <c r="C441" s="26" t="s">
+      <c r="D441" s="11" t="s">
         <v>908</v>
       </c>
-      <c r="D441" s="11" t="s">
+      <c r="E441" s="25" t="s">
         <v>909</v>
       </c>
-      <c r="E441" s="26" t="s">
+    </row>
+    <row r="442" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B442" s="11" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A442" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B442" s="11" t="s">
+      <c r="C442" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="C442" s="11" t="s">
+      <c r="D442" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="D442" s="11" t="s">
+      <c r="E442" s="25" t="s">
         <v>913</v>
       </c>
-      <c r="E442" s="26" t="s">
+    </row>
+    <row r="443" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B443" s="24" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A443" s="24" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B443" s="25" t="s">
+      <c r="C443" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="C443" s="11" t="s">
+      <c r="D443" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="D443" s="11" t="s">
+      <c r="E443" s="25" t="s">
         <v>917</v>
       </c>
-      <c r="E443" s="26" t="s">
+      <c r="F443" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B444" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="F443" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A444" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B444" s="11" t="s">
+      <c r="C444" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="C444" s="11" t="s">
+      <c r="D444" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="D444" s="11" t="s">
+      <c r="E444" s="25" t="s">
         <v>921</v>
       </c>
-      <c r="E444" s="26" t="s">
+    </row>
+    <row r="445" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B445" s="11" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A445" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B445" s="11" t="s">
+      <c r="C445" s="25" t="s">
         <v>923</v>
       </c>
-      <c r="C445" s="26" t="s">
+      <c r="D445" s="11" t="s">
         <v>924</v>
       </c>
-      <c r="D445" s="11" t="s">
+      <c r="E445" s="25" t="s">
         <v>925</v>
       </c>
-      <c r="E445" s="26" t="s">
+    </row>
+    <row r="446" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B446" s="24" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A446" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B446" s="25" t="s">
+      <c r="C446" s="25" t="s">
         <v>927</v>
       </c>
-      <c r="C446" s="26" t="s">
+      <c r="D446" s="11" t="s">
         <v>928</v>
       </c>
-      <c r="D446" s="11" t="s">
+      <c r="E446" s="25" t="s">
         <v>929</v>
       </c>
-      <c r="E446" s="26" t="s">
+      <c r="F446" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B447" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="F446" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A447" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B447" s="25" t="s">
+      <c r="C447" s="25" t="s">
         <v>931</v>
       </c>
-      <c r="C447" s="26" t="s">
+      <c r="D447" s="11" t="s">
         <v>932</v>
       </c>
-      <c r="D447" s="11" t="s">
+      <c r="E447" s="25" t="s">
         <v>933</v>
       </c>
-      <c r="E447" s="26" t="s">
+      <c r="F447" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B448" s="11" t="s">
         <v>934</v>
       </c>
-      <c r="F447" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B448" s="11" t="s">
+      <c r="C448" s="25" t="s">
         <v>935</v>
       </c>
-      <c r="C448" s="26" t="s">
+      <c r="D448" s="11" t="s">
         <v>936</v>
       </c>
-      <c r="D448" s="11" t="s">
+      <c r="E448" s="25" t="s">
         <v>937</v>
       </c>
-      <c r="E448" s="26" t="s">
+    </row>
+    <row r="449" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B449" s="24" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A449" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B449" s="25" t="s">
+      <c r="C449" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="C449" s="11" t="s">
+      <c r="D449" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="D449" s="11" t="s">
+      <c r="E449" s="25" t="s">
         <v>941</v>
       </c>
-      <c r="E449" s="26" t="s">
+      <c r="F449" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G449" s="26" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B450" s="24" t="s">
         <v>942</v>
       </c>
-      <c r="F449" s="12" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G449" s="27" t="s">
-        <v>1959</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B450" s="25" t="s">
+      <c r="C450" s="25" t="s">
         <v>943</v>
       </c>
-      <c r="C450" s="26" t="s">
+      <c r="D450" s="26" t="s">
         <v>944</v>
       </c>
-      <c r="D450" s="27" t="s">
+      <c r="E450" s="25" t="s">
         <v>945</v>
       </c>
-      <c r="E450" s="26" t="s">
+      <c r="F450" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B451" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="F450" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B451" s="11" t="s">
+      <c r="C451" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="D451" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="C451" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="D451" s="11" t="s">
+      <c r="E451" s="25" t="s">
         <v>948</v>
       </c>
-      <c r="E451" s="26" t="s">
+    </row>
+    <row r="452" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B452" s="24" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A452" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B452" s="25" t="s">
+      <c r="C452" s="25" t="s">
         <v>950</v>
       </c>
-      <c r="C452" s="26" t="s">
+      <c r="D452" s="26" t="s">
         <v>951</v>
       </c>
-      <c r="D452" s="27" t="s">
+      <c r="E452" s="25" t="s">
         <v>952</v>
       </c>
-      <c r="E452" s="26" t="s">
+      <c r="F452" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B453" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="F452" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A453" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B453" s="11" t="s">
+      <c r="C453" s="25" t="s">
         <v>954</v>
       </c>
-      <c r="C453" s="26" t="s">
+      <c r="D453" s="11" t="s">
         <v>955</v>
       </c>
-      <c r="D453" s="11" t="s">
+      <c r="E453" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="E453" s="26" t="s">
+    </row>
+    <row r="454" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B454" s="11" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B454" s="11" t="s">
+      <c r="C454" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="C454" s="11" t="s">
+      <c r="D454" s="11" t="s">
         <v>959</v>
       </c>
-      <c r="D454" s="11" t="s">
+      <c r="E454" s="25" t="s">
         <v>960</v>
       </c>
-      <c r="E454" s="26" t="s">
+    </row>
+    <row r="455" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B455" s="11" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B455" s="11" t="s">
+      <c r="C455" s="25" t="s">
         <v>962</v>
       </c>
-      <c r="C455" s="26" t="s">
+      <c r="D455" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="D455" s="11" t="s">
+      <c r="E455" s="25" t="s">
         <v>964</v>
       </c>
-      <c r="E455" s="26" t="s">
+    </row>
+    <row r="456" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B456" s="11" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B456" s="11" t="s">
+      <c r="C456" s="25" t="s">
         <v>966</v>
       </c>
-      <c r="C456" s="26" t="s">
+      <c r="D456" s="11" t="s">
         <v>967</v>
       </c>
-      <c r="D456" s="11" t="s">
+      <c r="E456" s="25" t="s">
         <v>968</v>
       </c>
-      <c r="E456" s="26" t="s">
+    </row>
+    <row r="457" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B457" s="24" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A457" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B457" s="25" t="s">
+      <c r="C457" s="25" t="s">
         <v>970</v>
       </c>
-      <c r="C457" s="26" t="s">
+      <c r="D457" s="11" t="s">
         <v>971</v>
       </c>
-      <c r="D457" s="11" t="s">
+      <c r="E457" s="25" t="s">
         <v>972</v>
       </c>
-      <c r="E457" s="26" t="s">
+      <c r="F457" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B458" s="24" t="s">
         <v>973</v>
       </c>
-      <c r="F457" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A458" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B458" s="25" t="s">
+      <c r="C458" s="25" t="s">
         <v>974</v>
       </c>
-      <c r="C458" s="26" t="s">
+      <c r="D458" s="11" t="s">
         <v>975</v>
       </c>
-      <c r="D458" s="11" t="s">
+      <c r="E458" s="25" t="s">
         <v>976</v>
       </c>
-      <c r="E458" s="26" t="s">
+      <c r="F458" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B459" s="11" t="s">
         <v>977</v>
       </c>
-      <c r="F458" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A459" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B459" s="11" t="s">
+      <c r="C459" s="25" t="s">
         <v>978</v>
       </c>
-      <c r="C459" s="26" t="s">
+      <c r="D459" s="11" t="s">
         <v>979</v>
       </c>
-      <c r="D459" s="11" t="s">
+      <c r="E459" s="25" t="s">
         <v>980</v>
       </c>
-      <c r="E459" s="26" t="s">
+    </row>
+    <row r="460" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B460" s="11" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B460" s="11" t="s">
+      <c r="C460" s="25" t="s">
         <v>982</v>
       </c>
-      <c r="C460" s="26" t="s">
+      <c r="D460" s="11" t="s">
         <v>983</v>
       </c>
-      <c r="D460" s="11" t="s">
+      <c r="E460" s="25" t="s">
         <v>984</v>
       </c>
-      <c r="E460" s="26" t="s">
+    </row>
+    <row r="461" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B461" s="11" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A461" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B461" s="11" t="s">
+      <c r="C461" s="25" t="s">
         <v>986</v>
       </c>
-      <c r="C461" s="26" t="s">
+      <c r="D461" s="11" t="s">
         <v>987</v>
       </c>
-      <c r="D461" s="11" t="s">
+      <c r="E461" s="25" t="s">
         <v>988</v>
       </c>
-      <c r="E461" s="26" t="s">
+    </row>
+    <row r="462" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B462" s="24" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B462" s="25" t="s">
+      <c r="C462" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="C462" s="11" t="s">
+      <c r="D462" s="11" t="s">
         <v>991</v>
       </c>
-      <c r="D462" s="11" t="s">
+      <c r="E462" s="25" t="s">
         <v>992</v>
       </c>
-      <c r="E462" s="26" t="s">
+      <c r="F462" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B463" s="11" t="s">
         <v>993</v>
       </c>
-      <c r="F462" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A463" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B463" s="11" t="s">
+      <c r="C463" s="25" t="s">
         <v>994</v>
       </c>
-      <c r="C463" s="26" t="s">
+      <c r="D463" s="11" t="s">
         <v>995</v>
       </c>
-      <c r="D463" s="11" t="s">
+      <c r="E463" s="25" t="s">
         <v>996</v>
       </c>
-      <c r="E463" s="26" t="s">
+    </row>
+    <row r="464" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B464" s="11" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A464" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B464" s="11" t="s">
+      <c r="C464" s="25" t="s">
         <v>998</v>
       </c>
-      <c r="C464" s="26" t="s">
+      <c r="D464" s="11" t="s">
         <v>999</v>
       </c>
-      <c r="D464" s="11" t="s">
+      <c r="E464" s="25" t="s">
         <v>1000</v>
       </c>
-      <c r="E464" s="26" t="s">
+    </row>
+    <row r="465" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B465" s="11" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A465" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B465" s="11" t="s">
+      <c r="C465" s="25" t="s">
         <v>1002</v>
       </c>
-      <c r="C465" s="26" t="s">
+      <c r="D465" s="11" t="s">
         <v>1003</v>
       </c>
-      <c r="D465" s="11" t="s">
+      <c r="E465" s="25" t="s">
         <v>1004</v>
       </c>
-      <c r="E465" s="26" t="s">
+    </row>
+    <row r="466" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B466" s="11" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B466" s="11" t="s">
+      <c r="C466" s="25" t="s">
         <v>1006</v>
       </c>
-      <c r="C466" s="26" t="s">
+      <c r="D466" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="D466" s="11" t="s">
+      <c r="E466" s="25" t="s">
         <v>1008</v>
       </c>
-      <c r="E466" s="26" t="s">
+    </row>
+    <row r="467" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B467" s="11" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A467" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B467" s="11" t="s">
+      <c r="C467" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="C467" s="26" t="s">
+      <c r="D467" s="11" t="s">
         <v>1011</v>
       </c>
-      <c r="D467" s="11" t="s">
+      <c r="E467" s="25" t="s">
         <v>1012</v>
       </c>
-      <c r="E467" s="26" t="s">
+    </row>
+    <row r="468" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B468" s="11" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A468" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B468" s="11" t="s">
+      <c r="C468" s="11" t="s">
         <v>1014</v>
       </c>
-      <c r="C468" s="11" t="s">
+      <c r="D468" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="D468" s="11" t="s">
+      <c r="E468" s="25" t="s">
         <v>1016</v>
       </c>
-      <c r="E468" s="26" t="s">
+    </row>
+    <row r="469" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B469" s="11" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A469" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B469" s="11" t="s">
+      <c r="C469" s="11" t="s">
         <v>1018</v>
       </c>
-      <c r="C469" s="11" t="s">
+      <c r="D469" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="D469" s="11" t="s">
+      <c r="E469" s="25" t="s">
         <v>1020</v>
       </c>
-      <c r="E469" s="26" t="s">
+    </row>
+    <row r="470" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B470" s="24" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B470" s="25" t="s">
+      <c r="C470" s="25" t="s">
         <v>1022</v>
       </c>
-      <c r="C470" s="26" t="s">
+      <c r="D470" s="11" t="s">
         <v>1023</v>
       </c>
-      <c r="D470" s="11" t="s">
+      <c r="E470" s="25" t="s">
         <v>1024</v>
       </c>
-      <c r="E470" s="26" t="s">
+      <c r="F470" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G470" s="12" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B471" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="F470" s="12" t="s">
-        <v>1957</v>
-      </c>
-      <c r="G470" s="12" t="s">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B471" s="11" t="s">
+      <c r="C471" s="11" t="s">
         <v>1026</v>
       </c>
-      <c r="C471" s="11" t="s">
+      <c r="D471" s="11" t="s">
         <v>1027</v>
       </c>
-      <c r="D471" s="11" t="s">
+      <c r="E471" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="E471" s="26" t="s">
+    </row>
+    <row r="472" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B472" s="24" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A472" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B472" s="25" t="s">
+      <c r="C472" s="25" t="s">
         <v>1030</v>
       </c>
-      <c r="C472" s="26" t="s">
+      <c r="D472" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="D472" s="11" t="s">
+      <c r="E472" s="25" t="s">
         <v>1032</v>
       </c>
-      <c r="E472" s="26" t="s">
+      <c r="F472" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B473" s="24" t="s">
         <v>1033</v>
       </c>
-      <c r="F472" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A473" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B473" s="25" t="s">
+      <c r="C473" s="25" t="s">
         <v>1034</v>
       </c>
-      <c r="C473" s="26" t="s">
+      <c r="D473" s="11" t="s">
         <v>1035</v>
       </c>
-      <c r="D473" s="11" t="s">
+      <c r="E473" s="25" t="s">
         <v>1036</v>
       </c>
-      <c r="E473" s="26" t="s">
+      <c r="F473" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B474" s="24" t="s">
         <v>1037</v>
       </c>
-      <c r="F473" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B474" s="25" t="s">
+      <c r="C474" s="25" t="s">
         <v>1038</v>
       </c>
-      <c r="C474" s="26" t="s">
+      <c r="D474" s="26" t="s">
         <v>1039</v>
       </c>
-      <c r="D474" s="27" t="s">
+      <c r="E474" s="25" t="s">
         <v>1040</v>
       </c>
-      <c r="E474" s="26" t="s">
+      <c r="F474" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B475" s="11" t="s">
         <v>1041</v>
       </c>
-      <c r="F474" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A475" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B475" s="11" t="s">
+      <c r="C475" s="25" t="s">
         <v>1042</v>
       </c>
-      <c r="C475" s="26" t="s">
+      <c r="D475" s="11" t="s">
         <v>1043</v>
       </c>
-      <c r="D475" s="11" t="s">
+      <c r="E475" s="25" t="s">
         <v>1044</v>
       </c>
-      <c r="E475" s="26" t="s">
+    </row>
+    <row r="476" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B476" s="11" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A476" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B476" s="11" t="s">
+      <c r="C476" s="25" t="s">
         <v>1046</v>
       </c>
-      <c r="C476" s="26" t="s">
+      <c r="D476" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="D476" s="11" t="s">
+      <c r="E476" s="25" t="s">
         <v>1048</v>
       </c>
-      <c r="E476" s="26" t="s">
+    </row>
+    <row r="477" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B477" s="11" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B477" s="11" t="s">
+      <c r="C477" s="25" t="s">
         <v>1050</v>
       </c>
-      <c r="C477" s="26" t="s">
+      <c r="D477" s="11" t="s">
         <v>1051</v>
       </c>
-      <c r="D477" s="11" t="s">
+      <c r="E477" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="E477" s="26" t="s">
+    </row>
+    <row r="478" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="23" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B478" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C478" s="11" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="24" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B478" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="C478" s="11" t="s">
+      <c r="D478" s="26" t="s">
         <v>1054</v>
       </c>
-      <c r="D478" s="27" t="s">
+      <c r="E478" s="25" t="s">
         <v>1055</v>
       </c>
-      <c r="E478" s="26" t="s">
+      <c r="F478" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B479" s="11" t="s">
         <v>1056</v>
       </c>
-      <c r="F478" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B479" s="11" t="s">
+      <c r="C479" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="C479" s="11" t="s">
+      <c r="D479" s="11" t="s">
         <v>1058</v>
       </c>
-      <c r="D479" s="11" t="s">
+      <c r="E479" s="25" t="s">
         <v>1059</v>
       </c>
-      <c r="E479" s="26" t="s">
+    </row>
+    <row r="480" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B480" s="11" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A480" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B480" s="11" t="s">
+      <c r="C480" s="25" t="s">
         <v>1061</v>
       </c>
-      <c r="C480" s="26" t="s">
+      <c r="D480" s="11" t="s">
         <v>1062</v>
       </c>
-      <c r="D480" s="11" t="s">
+      <c r="E480" s="25" t="s">
         <v>1063</v>
       </c>
-      <c r="E480" s="26" t="s">
+    </row>
+    <row r="481" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B481" s="11" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B481" s="11" t="s">
+      <c r="C481" s="25" t="s">
         <v>1065</v>
       </c>
-      <c r="C481" s="26" t="s">
+      <c r="D481" s="11" t="s">
         <v>1066</v>
       </c>
-      <c r="D481" s="11" t="s">
+      <c r="E481" s="25" t="s">
         <v>1067</v>
       </c>
-      <c r="E481" s="26" t="s">
+    </row>
+    <row r="482" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B482" s="11" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B482" s="11" t="s">
+      <c r="C482" s="25" t="s">
         <v>1069</v>
       </c>
-      <c r="C482" s="26" t="s">
+      <c r="D482" s="11" t="s">
         <v>1070</v>
       </c>
-      <c r="D482" s="11" t="s">
+      <c r="E482" s="25" t="s">
         <v>1071</v>
       </c>
-      <c r="E482" s="26" t="s">
+    </row>
+    <row r="483" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B483" s="11" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B483" s="11" t="s">
+      <c r="C483" s="25" t="s">
         <v>1073</v>
       </c>
-      <c r="C483" s="26" t="s">
+      <c r="D483" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="D483" s="11" t="s">
+      <c r="E483" s="25" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B484" s="24" t="s">
         <v>1075</v>
       </c>
-      <c r="E483" s="26" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="484" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B484" s="25" t="s">
+      <c r="C484" s="25" t="s">
         <v>1076</v>
       </c>
-      <c r="C484" s="26" t="s">
+      <c r="D484" s="11" t="s">
         <v>1077</v>
       </c>
-      <c r="D484" s="11" t="s">
+      <c r="E484" s="25" t="s">
         <v>1078</v>
       </c>
-      <c r="E484" s="26" t="s">
+      <c r="F484" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B485" s="11" t="s">
         <v>1079</v>
       </c>
-      <c r="F484" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="485" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B485" s="11" t="s">
+      <c r="C485" s="25" t="s">
         <v>1080</v>
       </c>
-      <c r="C485" s="26" t="s">
+      <c r="D485" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="D485" s="11" t="s">
+      <c r="E485" s="25" t="s">
         <v>1082</v>
       </c>
-      <c r="E485" s="26" t="s">
+    </row>
+    <row r="486" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B486" s="11" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B486" s="11" t="s">
+      <c r="C486" s="25" t="s">
         <v>1084</v>
       </c>
-      <c r="C486" s="26" t="s">
+      <c r="D486" s="11" t="s">
         <v>1085</v>
       </c>
-      <c r="D486" s="11" t="s">
+      <c r="E486" s="25" t="s">
         <v>1086</v>
       </c>
-      <c r="E486" s="26" t="s">
+    </row>
+    <row r="487" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B487" s="11" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B487" s="11" t="s">
+      <c r="C487" s="25" t="s">
         <v>1088</v>
       </c>
-      <c r="C487" s="26" t="s">
+      <c r="D487" s="11" t="s">
         <v>1089</v>
       </c>
-      <c r="D487" s="11" t="s">
+      <c r="E487" s="25" t="s">
         <v>1090</v>
       </c>
-      <c r="E487" s="26" t="s">
+    </row>
+    <row r="488" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B488" s="11" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B488" s="11" t="s">
+      <c r="C488" s="25" t="s">
         <v>1092</v>
       </c>
-      <c r="C488" s="26" t="s">
+      <c r="D488" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="D488" s="11" t="s">
+      <c r="E488" s="25" t="s">
         <v>1094</v>
       </c>
-      <c r="E488" s="26" t="s">
+    </row>
+    <row r="489" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B489" s="11" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B489" s="11" t="s">
+      <c r="C489" s="25" t="s">
         <v>1096</v>
       </c>
-      <c r="C489" s="26" t="s">
+      <c r="D489" s="11" t="s">
         <v>1097</v>
       </c>
-      <c r="D489" s="11" t="s">
+      <c r="E489" s="25" t="s">
         <v>1098</v>
       </c>
-      <c r="E489" s="26" t="s">
+    </row>
+    <row r="490" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B490" s="11" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B490" s="11" t="s">
+      <c r="C490" s="25" t="s">
         <v>1100</v>
       </c>
-      <c r="C490" s="26" t="s">
+      <c r="D490" s="11" t="s">
         <v>1101</v>
       </c>
-      <c r="D490" s="11" t="s">
+      <c r="E490" s="25" t="s">
         <v>1102</v>
       </c>
-      <c r="E490" s="26" t="s">
+    </row>
+    <row r="491" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B491" s="11" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B491" s="11" t="s">
+      <c r="C491" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="C491" s="11" t="s">
+      <c r="D491" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="D491" s="11" t="s">
+      <c r="E491" s="25" t="s">
         <v>1106</v>
       </c>
-      <c r="E491" s="26" t="s">
+    </row>
+    <row r="492" spans="1:6" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B492" s="11" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B492" s="11" t="s">
+      <c r="C492" s="25" t="s">
         <v>1108</v>
       </c>
-      <c r="C492" s="26" t="s">
+      <c r="D492" s="11" t="s">
         <v>1109</v>
       </c>
-      <c r="D492" s="11" t="s">
+      <c r="E492" s="25" t="s">
         <v>1110</v>
       </c>
-      <c r="E492" s="26" t="s">
+    </row>
+    <row r="493" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B493" s="11" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B493" s="11" t="s">
+      <c r="C493" s="25" t="s">
         <v>1112</v>
       </c>
-      <c r="C493" s="26" t="s">
+      <c r="D493" s="11" t="s">
         <v>1113</v>
       </c>
-      <c r="D493" s="11" t="s">
+      <c r="E493" s="25" t="s">
         <v>1114</v>
       </c>
-      <c r="E493" s="26" t="s">
+    </row>
+    <row r="494" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B494" s="11" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B494" s="11" t="s">
+      <c r="C494" s="25" t="s">
         <v>1116</v>
       </c>
-      <c r="C494" s="26" t="s">
+      <c r="D494" s="11" t="s">
         <v>1117</v>
       </c>
-      <c r="D494" s="11" t="s">
+      <c r="E494" s="25" t="s">
         <v>1118</v>
       </c>
-      <c r="E494" s="26" t="s">
+    </row>
+    <row r="495" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B495" s="11" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B495" s="11" t="s">
+      <c r="C495" s="25" t="s">
         <v>1120</v>
       </c>
-      <c r="C495" s="26" t="s">
+      <c r="D495" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="D495" s="11" t="s">
+      <c r="E495" s="25" t="s">
         <v>1122</v>
       </c>
-      <c r="E495" s="26" t="s">
+    </row>
+    <row r="496" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B496" s="24" t="s">
         <v>1123</v>
-      </c>
-    </row>
-    <row r="496" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B496" s="25" t="s">
-        <v>1124</v>
       </c>
       <c r="C496" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D496" s="11" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E496" s="25" t="s">
         <v>1125</v>
       </c>
-      <c r="E496" s="26" t="s">
+      <c r="F496" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B497" s="24" t="s">
         <v>1126</v>
       </c>
-      <c r="F496" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="497" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B497" s="25" t="s">
+      <c r="C497" s="25" t="s">
         <v>1127</v>
       </c>
-      <c r="C497" s="26" t="s">
+      <c r="D497" s="11" t="s">
         <v>1128</v>
       </c>
-      <c r="D497" s="11" t="s">
+      <c r="E497" s="25" t="s">
         <v>1129</v>
       </c>
-      <c r="E497" s="26" t="s">
+      <c r="F497" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B498" s="11" t="s">
         <v>1130</v>
       </c>
-      <c r="F497" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="498" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B498" s="11" t="s">
+      <c r="C498" s="25" t="s">
         <v>1131</v>
       </c>
-      <c r="C498" s="26" t="s">
+      <c r="D498" s="11" t="s">
         <v>1132</v>
       </c>
-      <c r="D498" s="11" t="s">
+      <c r="E498" s="25" t="s">
         <v>1133</v>
       </c>
-      <c r="E498" s="26" t="s">
+    </row>
+    <row r="499" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B499" s="11" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B499" s="11" t="s">
+      <c r="C499" s="25" t="s">
         <v>1135</v>
       </c>
-      <c r="C499" s="26" t="s">
+      <c r="D499" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="D499" s="11" t="s">
+      <c r="E499" s="25" t="s">
         <v>1137</v>
       </c>
-      <c r="E499" s="26" t="s">
+    </row>
+    <row r="500" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B500" s="31" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B500" s="32" t="s">
+      <c r="C500" s="11" t="s">
         <v>1139</v>
       </c>
-      <c r="C500" s="11" t="s">
+      <c r="D500" s="11" t="s">
         <v>1140</v>
       </c>
-      <c r="D500" s="11" t="s">
+      <c r="E500" s="25" t="s">
         <v>1141</v>
       </c>
-      <c r="E500" s="26" t="s">
+    </row>
+    <row r="501" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B501" s="24" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B501" s="25" t="s">
+      <c r="C501" s="25" t="s">
         <v>1143</v>
       </c>
-      <c r="C501" s="26" t="s">
+      <c r="D501" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="D501" s="11" t="s">
+      <c r="E501" s="25" t="s">
         <v>1145</v>
       </c>
-      <c r="E501" s="26" t="s">
+      <c r="F501" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B502" s="24" t="s">
         <v>1146</v>
       </c>
-      <c r="F501" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="502" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B502" s="25" t="s">
+      <c r="C502" s="11" t="s">
+        <v>783</v>
+      </c>
+      <c r="D502" s="11" t="s">
         <v>1147</v>
       </c>
-      <c r="C502" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="D502" s="11" t="s">
+      <c r="E502" s="25" t="s">
         <v>1148</v>
       </c>
-      <c r="E502" s="26" t="s">
+      <c r="F502" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B503" s="24" t="s">
         <v>1149</v>
       </c>
-      <c r="F502" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="503" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B503" s="25" t="s">
+      <c r="C503" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="C503" s="11" t="s">
+      <c r="D503" s="11" t="s">
         <v>1151</v>
       </c>
-      <c r="D503" s="11" t="s">
+      <c r="E503" s="25" t="s">
         <v>1152</v>
       </c>
-      <c r="E503" s="26" t="s">
+      <c r="F503" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B504" s="11" t="s">
         <v>1153</v>
       </c>
-      <c r="F503" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="504" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B504" s="11" t="s">
+      <c r="C504" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="C504" s="11" t="s">
+      <c r="D504" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="D504" s="11" t="s">
+      <c r="E504" s="25" t="s">
         <v>1156</v>
       </c>
-      <c r="E504" s="26" t="s">
+    </row>
+    <row r="505" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B505" s="11" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B505" s="11" t="s">
+      <c r="C505" s="25" t="s">
         <v>1158</v>
       </c>
-      <c r="C505" s="26" t="s">
+      <c r="D505" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="D505" s="11" t="s">
+      <c r="E505" s="25" t="s">
         <v>1160</v>
       </c>
-      <c r="E505" s="26" t="s">
+    </row>
+    <row r="506" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B506" s="11" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B506" s="11" t="s">
+      <c r="C506" s="25" t="s">
         <v>1162</v>
       </c>
-      <c r="C506" s="26" t="s">
+      <c r="D506" s="11" t="s">
         <v>1163</v>
       </c>
-      <c r="D506" s="11" t="s">
+      <c r="E506" s="25" t="s">
         <v>1164</v>
       </c>
-      <c r="E506" s="26" t="s">
+    </row>
+    <row r="507" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B507" s="11" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B507" s="11" t="s">
+      <c r="C507" s="11" t="s">
         <v>1166</v>
       </c>
-      <c r="C507" s="11" t="s">
+      <c r="D507" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="D507" s="11" t="s">
+      <c r="E507" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="E507" s="26" t="s">
+    </row>
+    <row r="508" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B508" s="11" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B508" s="11" t="s">
+      <c r="C508" s="11" t="s">
         <v>1170</v>
       </c>
-      <c r="C508" s="11" t="s">
+      <c r="D508" s="11" t="s">
         <v>1171</v>
       </c>
-      <c r="D508" s="11" t="s">
+      <c r="E508" s="25" t="s">
         <v>1172</v>
       </c>
-      <c r="E508" s="26" t="s">
+    </row>
+    <row r="509" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B509" s="24" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B509" s="25" t="s">
+      <c r="C509" s="11" t="s">
         <v>1174</v>
       </c>
-      <c r="C509" s="11" t="s">
+      <c r="D509" s="11" t="s">
         <v>1175</v>
       </c>
-      <c r="D509" s="11" t="s">
+      <c r="E509" s="25" t="s">
         <v>1176</v>
       </c>
-      <c r="E509" s="26" t="s">
+      <c r="F509" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B510" s="11" t="s">
         <v>1177</v>
       </c>
-      <c r="F509" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="510" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B510" s="11" t="s">
+      <c r="C510" s="25" t="s">
         <v>1178</v>
       </c>
-      <c r="C510" s="26" t="s">
+      <c r="D510" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="D510" s="11" t="s">
+      <c r="E510" s="25" t="s">
         <v>1180</v>
       </c>
-      <c r="E510" s="26" t="s">
+    </row>
+    <row r="511" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B511" s="11" t="s">
         <v>1181</v>
-      </c>
-    </row>
-    <row r="511" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B511" s="11" t="s">
-        <v>1182</v>
       </c>
       <c r="C511" s="11" t="s">
         <v>381</v>
       </c>
       <c r="D511" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E511" s="25" t="s">
         <v>1183</v>
       </c>
-      <c r="E511" s="26" t="s">
+    </row>
+    <row r="512" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B512" s="11" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B512" s="11" t="s">
+      <c r="C512" s="11" t="s">
         <v>1185</v>
       </c>
-      <c r="C512" s="11" t="s">
+      <c r="D512" s="11" t="s">
         <v>1186</v>
       </c>
-      <c r="D512" s="11" t="s">
+      <c r="E512" s="25" t="s">
         <v>1187</v>
       </c>
-      <c r="E512" s="26" t="s">
+    </row>
+    <row r="513" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B513" s="28" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B513" s="29" t="s">
+      <c r="C513" s="11" t="s">
         <v>1189</v>
       </c>
-      <c r="C513" s="11" t="s">
+      <c r="D513" s="11" t="s">
         <v>1190</v>
       </c>
-      <c r="D513" s="11" t="s">
+      <c r="E513" s="25" t="s">
         <v>1191</v>
       </c>
-      <c r="E513" s="26" t="s">
+      <c r="F513" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B514" s="11" t="s">
         <v>1192</v>
       </c>
-      <c r="F513" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="514" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B514" s="11" t="s">
+      <c r="C514" s="11" t="s">
         <v>1193</v>
       </c>
-      <c r="C514" s="11" t="s">
+      <c r="D514" s="11" t="s">
         <v>1194</v>
       </c>
-      <c r="D514" s="11" t="s">
+      <c r="E514" s="25" t="s">
         <v>1195</v>
       </c>
-      <c r="E514" s="26" t="s">
+    </row>
+    <row r="515" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B515" s="11" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B515" s="11" t="s">
+      <c r="C515" s="25" t="s">
         <v>1197</v>
       </c>
-      <c r="C515" s="26" t="s">
+      <c r="D515" s="11" t="s">
         <v>1198</v>
       </c>
-      <c r="D515" s="11" t="s">
+      <c r="E515" s="25" t="s">
         <v>1199</v>
       </c>
-      <c r="E515" s="26" t="s">
+    </row>
+    <row r="516" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B516" s="11" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B516" s="11" t="s">
+      <c r="C516" s="11" t="s">
         <v>1201</v>
       </c>
-      <c r="C516" s="11" t="s">
+      <c r="D516" s="11" t="s">
         <v>1202</v>
       </c>
-      <c r="D516" s="11" t="s">
+      <c r="E516" s="25" t="s">
         <v>1203</v>
       </c>
-      <c r="E516" s="26" t="s">
+    </row>
+    <row r="517" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B517" s="11" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B517" s="11" t="s">
+      <c r="C517" s="11" t="s">
         <v>1205</v>
       </c>
-      <c r="C517" s="11" t="s">
+      <c r="D517" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="D517" s="11" t="s">
+      <c r="E517" s="25" t="s">
         <v>1207</v>
       </c>
-      <c r="E517" s="26" t="s">
+    </row>
+    <row r="518" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B518" s="11" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A518" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B518" s="11" t="s">
+      <c r="C518" s="11" t="s">
         <v>1209</v>
       </c>
-      <c r="C518" s="11" t="s">
+      <c r="D518" s="11" t="s">
         <v>1210</v>
       </c>
-      <c r="D518" s="11" t="s">
+      <c r="E518" s="25" t="s">
         <v>1211</v>
       </c>
-      <c r="E518" s="26" t="s">
+    </row>
+    <row r="519" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B519" s="11" t="s">
         <v>1212</v>
-      </c>
-    </row>
-    <row r="519" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A519" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B519" s="11" t="s">
-        <v>1213</v>
       </c>
       <c r="C519" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D519" s="11" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E519" s="25" t="s">
         <v>1214</v>
       </c>
-      <c r="E519" s="26" t="s">
+    </row>
+    <row r="520" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B520" s="11" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A520" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B520" s="11" t="s">
+      <c r="C520" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="C520" s="11" t="s">
+      <c r="D520" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="D520" s="11" t="s">
+      <c r="E520" s="25" t="s">
         <v>1218</v>
       </c>
-      <c r="E520" s="26" t="s">
+    </row>
+    <row r="521" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B521" s="11" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A521" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B521" s="11" t="s">
+      <c r="C521" s="25" t="s">
         <v>1220</v>
       </c>
-      <c r="C521" s="26" t="s">
+      <c r="D521" s="11" t="s">
         <v>1221</v>
       </c>
-      <c r="D521" s="11" t="s">
+      <c r="E521" s="25" t="s">
         <v>1222</v>
       </c>
-      <c r="E521" s="26" t="s">
+    </row>
+    <row r="522" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B522" s="11" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A522" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B522" s="11" t="s">
+      <c r="C522" s="11" t="s">
         <v>1224</v>
       </c>
-      <c r="C522" s="11" t="s">
+      <c r="D522" s="11" t="s">
         <v>1225</v>
       </c>
-      <c r="D522" s="11" t="s">
+      <c r="E522" s="25" t="s">
         <v>1226</v>
       </c>
-      <c r="E522" s="26" t="s">
+    </row>
+    <row r="523" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B523" s="11" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A523" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B523" s="11" t="s">
+      <c r="C523" s="25" t="s">
         <v>1228</v>
       </c>
-      <c r="C523" s="26" t="s">
+      <c r="D523" s="11" t="s">
         <v>1229</v>
       </c>
-      <c r="D523" s="11" t="s">
+      <c r="E523" s="25" t="s">
         <v>1230</v>
       </c>
-      <c r="E523" s="26" t="s">
+    </row>
+    <row r="524" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B524" s="24" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A524" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B524" s="25" t="s">
+      <c r="C524" s="25" t="s">
         <v>1232</v>
       </c>
-      <c r="C524" s="26" t="s">
+      <c r="D524" s="26" t="s">
         <v>1233</v>
       </c>
-      <c r="D524" s="27" t="s">
+      <c r="E524" s="25" t="s">
         <v>1234</v>
       </c>
-      <c r="E524" s="26" t="s">
+      <c r="F524" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B525" s="11" t="s">
         <v>1235</v>
       </c>
-      <c r="F524" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="525" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B525" s="11" t="s">
+      <c r="C525" s="25" t="s">
         <v>1236</v>
       </c>
-      <c r="C525" s="26" t="s">
+      <c r="D525" s="11" t="s">
         <v>1237</v>
       </c>
-      <c r="D525" s="11" t="s">
+      <c r="E525" s="25" t="s">
         <v>1238</v>
       </c>
-      <c r="E525" s="26" t="s">
+    </row>
+    <row r="526" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B526" s="11" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B526" s="11" t="s">
+      <c r="C526" s="25" t="s">
         <v>1240</v>
       </c>
-      <c r="C526" s="26" t="s">
+      <c r="D526" s="11" t="s">
         <v>1241</v>
       </c>
-      <c r="D526" s="11" t="s">
+      <c r="E526" s="25" t="s">
         <v>1242</v>
       </c>
-      <c r="E526" s="26" t="s">
+    </row>
+    <row r="527" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B527" s="11" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B527" s="11" t="s">
+      <c r="C527" s="11" t="s">
         <v>1244</v>
       </c>
-      <c r="C527" s="11" t="s">
+      <c r="D527" s="11" t="s">
         <v>1245</v>
       </c>
-      <c r="D527" s="11" t="s">
+      <c r="E527" s="25" t="s">
         <v>1246</v>
       </c>
-      <c r="E527" s="26" t="s">
+    </row>
+    <row r="528" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B528" s="24" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B528" s="25" t="s">
+      <c r="C528" s="11" t="s">
         <v>1248</v>
       </c>
-      <c r="C528" s="11" t="s">
+      <c r="D528" s="11" t="s">
         <v>1249</v>
       </c>
-      <c r="D528" s="11" t="s">
+      <c r="E528" s="25" t="s">
         <v>1250</v>
       </c>
-      <c r="E528" s="26" t="s">
+      <c r="F528" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B529" s="11" t="s">
         <v>1251</v>
       </c>
-      <c r="F528" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="529" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B529" s="11" t="s">
+      <c r="C529" s="25" t="s">
         <v>1252</v>
       </c>
-      <c r="C529" s="26" t="s">
+      <c r="D529" s="11" t="s">
         <v>1253</v>
       </c>
-      <c r="D529" s="11" t="s">
+      <c r="E529" s="25" t="s">
         <v>1254</v>
       </c>
-      <c r="E529" s="26" t="s">
+    </row>
+    <row r="530" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B530" s="11" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B530" s="11" t="s">
+      <c r="C530" s="11" t="s">
         <v>1256</v>
       </c>
-      <c r="C530" s="11" t="s">
+      <c r="D530" s="11" t="s">
         <v>1257</v>
       </c>
-      <c r="D530" s="11" t="s">
+      <c r="E530" s="25" t="s">
         <v>1258</v>
       </c>
-      <c r="E530" s="26" t="s">
+    </row>
+    <row r="531" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B531" s="24" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A531" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B531" s="25" t="s">
+      <c r="C531" s="25" t="s">
         <v>1260</v>
       </c>
-      <c r="C531" s="26" t="s">
+      <c r="D531" s="26" t="s">
         <v>1261</v>
       </c>
-      <c r="D531" s="27" t="s">
+      <c r="E531" s="25" t="s">
         <v>1262</v>
       </c>
-      <c r="E531" s="26" t="s">
+      <c r="F531" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B532" s="32" t="s">
         <v>1263</v>
       </c>
-      <c r="F531" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="532" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A532" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B532" s="33" t="s">
+      <c r="C532" s="25" t="s">
         <v>1264</v>
       </c>
-      <c r="C532" s="26" t="s">
+      <c r="D532" s="11" t="s">
         <v>1265</v>
       </c>
-      <c r="D532" s="11" t="s">
+      <c r="E532" s="25" t="s">
         <v>1266</v>
       </c>
-      <c r="E532" s="26" t="s">
+    </row>
+    <row r="533" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B533" s="11" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A533" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B533" s="11" t="s">
+      <c r="C533" s="25" t="s">
         <v>1268</v>
       </c>
-      <c r="C533" s="26" t="s">
+      <c r="D533" s="11" t="s">
         <v>1269</v>
       </c>
-      <c r="D533" s="11" t="s">
+      <c r="E533" s="25" t="s">
         <v>1270</v>
       </c>
-      <c r="E533" s="26" t="s">
+    </row>
+    <row r="534" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B534" s="11" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B534" s="11" t="s">
+      <c r="C534" s="11" t="s">
         <v>1272</v>
       </c>
-      <c r="C534" s="11" t="s">
+      <c r="D534" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="D534" s="11" t="s">
+      <c r="E534" s="25" t="s">
         <v>1274</v>
       </c>
-      <c r="E534" s="26" t="s">
+    </row>
+    <row r="535" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B535" s="24" t="s">
         <v>1275</v>
-      </c>
-    </row>
-    <row r="535" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B535" s="25" t="s">
-        <v>1276</v>
       </c>
       <c r="C535" s="11" t="s">
         <v>240</v>
       </c>
       <c r="D535" s="11" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E535" s="25" t="s">
         <v>1277</v>
       </c>
-      <c r="E535" s="26" t="s">
+    </row>
+    <row r="536" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B536" s="11" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B536" s="11" t="s">
+      <c r="C536" s="11" t="s">
         <v>1279</v>
       </c>
-      <c r="C536" s="11" t="s">
+      <c r="D536" s="11" t="s">
         <v>1280</v>
       </c>
-      <c r="D536" s="11" t="s">
+      <c r="E536" s="25" t="s">
         <v>1281</v>
       </c>
-      <c r="E536" s="26" t="s">
+    </row>
+    <row r="537" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B537" s="11" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B537" s="11" t="s">
+      <c r="C537" s="11" t="s">
         <v>1283</v>
       </c>
-      <c r="C537" s="11" t="s">
+      <c r="D537" s="11" t="s">
         <v>1284</v>
       </c>
-      <c r="D537" s="11" t="s">
+      <c r="E537" s="25" t="s">
         <v>1285</v>
       </c>
-      <c r="E537" s="26" t="s">
+    </row>
+    <row r="538" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B538" s="11" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A538" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B538" s="11" t="s">
+      <c r="C538" s="11" t="s">
         <v>1287</v>
       </c>
-      <c r="C538" s="11" t="s">
+      <c r="D538" s="11" t="s">
         <v>1288</v>
       </c>
-      <c r="D538" s="11" t="s">
+      <c r="E538" s="25" t="s">
         <v>1289</v>
       </c>
-      <c r="E538" s="26" t="s">
+    </row>
+    <row r="539" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B539" s="11" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A539" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B539" s="11" t="s">
+      <c r="C539" s="25" t="s">
         <v>1291</v>
       </c>
-      <c r="C539" s="26" t="s">
+      <c r="D539" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="D539" s="11" t="s">
+      <c r="E539" s="25" t="s">
         <v>1293</v>
       </c>
-      <c r="E539" s="26" t="s">
+    </row>
+    <row r="540" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B540" s="24" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A540" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B540" s="25" t="s">
+      <c r="C540" s="11" t="s">
         <v>1295</v>
       </c>
-      <c r="C540" s="11" t="s">
+      <c r="D540" s="11" t="s">
         <v>1296</v>
       </c>
-      <c r="D540" s="11" t="s">
+      <c r="E540" s="25" t="s">
         <v>1297</v>
       </c>
-      <c r="E540" s="26" t="s">
+      <c r="F540" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B541" s="11" t="s">
         <v>1298</v>
       </c>
-      <c r="F540" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A541" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B541" s="11" t="s">
+      <c r="C541" s="25" t="s">
         <v>1299</v>
       </c>
-      <c r="C541" s="26" t="s">
+      <c r="D541" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="D541" s="11" t="s">
+      <c r="E541" s="25" t="s">
         <v>1301</v>
       </c>
-      <c r="E541" s="26" t="s">
+    </row>
+    <row r="542" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B542" s="11" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B542" s="11" t="s">
+      <c r="C542" s="25" t="s">
         <v>1303</v>
       </c>
-      <c r="C542" s="26" t="s">
+      <c r="D542" s="11" t="s">
         <v>1304</v>
       </c>
-      <c r="D542" s="11" t="s">
+      <c r="E542" s="25" t="s">
         <v>1305</v>
       </c>
-      <c r="E542" s="26" t="s">
+    </row>
+    <row r="543" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B543" s="24" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="543" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A543" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B543" s="25" t="s">
+      <c r="C543" s="25" t="s">
         <v>1307</v>
       </c>
-      <c r="C543" s="26" t="s">
+      <c r="D543" s="11" t="s">
         <v>1308</v>
       </c>
-      <c r="D543" s="11" t="s">
+      <c r="E543" s="25" t="s">
         <v>1309</v>
       </c>
-      <c r="E543" s="26" t="s">
+      <c r="F543" s="12" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B544" s="11" t="s">
         <v>1310</v>
       </c>
-      <c r="F543" s="12" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B544" s="11" t="s">
+      <c r="C544" s="11" t="s">
         <v>1311</v>
       </c>
-      <c r="C544" s="11" t="s">
+      <c r="D544" s="11" t="s">
         <v>1312</v>
       </c>
-      <c r="D544" s="11" t="s">
+      <c r="E544" s="25" t="s">
         <v>1313</v>
       </c>
-      <c r="E544" s="26" t="s">
+    </row>
+    <row r="545" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B545" s="11" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="545" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A545" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B545" s="11" t="s">
+      <c r="C545" s="25" t="s">
         <v>1315</v>
       </c>
-      <c r="C545" s="26" t="s">
+      <c r="D545" s="11" t="s">
         <v>1316</v>
       </c>
-      <c r="D545" s="11" t="s">
+      <c r="E545" s="25" t="s">
         <v>1317</v>
       </c>
-      <c r="E545" s="26" t="s">
+    </row>
+    <row r="546" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B546" s="11" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="546" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A546" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B546" s="11" t="s">
+      <c r="C546" s="25" t="s">
         <v>1319</v>
       </c>
-      <c r="C546" s="26" t="s">
+      <c r="D546" s="11" t="s">
         <v>1320</v>
       </c>
-      <c r="D546" s="11" t="s">
+      <c r="E546" s="25" t="s">
         <v>1321</v>
       </c>
-      <c r="E546" s="26" t="s">
+    </row>
+    <row r="547" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B547" s="11" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="547" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B547" s="11" t="s">
+      <c r="C547" s="25" t="s">
         <v>1323</v>
       </c>
-      <c r="C547" s="26" t="s">
+      <c r="D547" s="11" t="s">
         <v>1324</v>
       </c>
-      <c r="D547" s="11" t="s">
+      <c r="E547" s="25" t="s">
         <v>1325</v>
       </c>
-      <c r="E547" s="26" t="s">
+    </row>
+    <row r="548" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B548" s="11" t="s">
         <v>1326</v>
       </c>
-    </row>
-    <row r="548" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B548" s="11" t="s">
+      <c r="C548" s="25" t="s">
         <v>1327</v>
       </c>
-      <c r="C548" s="26" t="s">
+      <c r="D548" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="D548" s="11" t="s">
+      <c r="E548" s="25" t="s">
         <v>1329</v>
       </c>
-      <c r="E548" s="26" t="s">
+    </row>
+    <row r="549" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B549" s="11" t="s">
         <v>1330</v>
       </c>
-    </row>
-    <row r="549" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B549" s="11" t="s">
+      <c r="C549" s="25" t="s">
         <v>1331</v>
       </c>
-      <c r="C549" s="26" t="s">
+      <c r="D549" s="11" t="s">
         <v>1332</v>
       </c>
-      <c r="D549" s="11" t="s">
+      <c r="E549" s="25" t="s">
         <v>1333</v>
       </c>
-      <c r="E549" s="26" t="s">
+    </row>
+    <row r="550" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B550" s="11" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="550" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B550" s="11" t="s">
+      <c r="C550" s="25" t="s">
         <v>1335</v>
       </c>
-      <c r="C550" s="26" t="s">
+      <c r="D550" s="11" t="s">
         <v>1336</v>
       </c>
-      <c r="D550" s="11" t="s">
+      <c r="E550" s="25" t="s">
         <v>1337</v>
       </c>
-      <c r="E550" s="26" t="s">
+    </row>
+    <row r="551" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="B551" s="11" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="551" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A551" s="24" t="s">
-        <v>826</v>
-      </c>
-      <c r="B551" s="11" t="s">
+      <c r="C551" s="25" t="s">
         <v>1339</v>
       </c>
-      <c r="C551" s="26" t="s">
+      <c r="D551" s="11" t="s">
         <v>1340</v>
       </c>
-      <c r="D551" s="11" t="s">
+      <c r="E551" s="25" t="s">
         <v>1341</v>
-      </c>
-      <c r="E551" s="26" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="552" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A552" s="14" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B552" s="36" t="s">
         <v>1343</v>
       </c>
-      <c r="B552" s="37" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C552" s="35" t="s">
-        <v>1964</v>
-      </c>
-      <c r="D552" s="34" t="s">
+      <c r="C552" s="34" t="s">
         <v>1963</v>
       </c>
-      <c r="E552" s="18"/>
-      <c r="F552" s="36" t="s">
-        <v>1957</v>
+      <c r="D552" s="33" t="s">
+        <v>1962</v>
+      </c>
+      <c r="E552" s="17"/>
+      <c r="F552" s="35" t="s">
+        <v>1956</v>
       </c>
       <c r="G552" s="10"/>
       <c r="H552" s="10"/>
@@ -15803,16 +15817,16 @@
     </row>
     <row r="553" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A553" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B553" s="39" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C553" s="38" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B553" s="38" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C553" s="37" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D553" s="6" t="s">
         <v>1965</v>
-      </c>
-      <c r="D553" s="6" t="s">
-        <v>1966</v>
       </c>
       <c r="E553" s="8"/>
       <c r="F553" s="10"/>
@@ -15846,19 +15860,19 @@
     </row>
     <row r="554" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A554" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B554" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C554" s="4" t="s">
         <v>1346</v>
       </c>
-      <c r="C554" s="4" t="s">
+      <c r="D554" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="D554" s="4" t="s">
+      <c r="E554" s="9" t="s">
         <v>1348</v>
-      </c>
-      <c r="E554" s="9" t="s">
-        <v>1349</v>
       </c>
       <c r="F554" s="10"/>
       <c r="G554" s="10"/>
@@ -15891,22 +15905,22 @@
     </row>
     <row r="555" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B555" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B555" s="39" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C555" s="4" t="s">
         <v>1350</v>
       </c>
-      <c r="C555" s="4" t="s">
-        <v>1351</v>
-      </c>
       <c r="D555" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="E555" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="E555" s="9" t="s">
-        <v>830</v>
-      </c>
       <c r="F555" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G555" s="10"/>
       <c r="H555" s="10"/>
@@ -15938,19 +15952,19 @@
     </row>
     <row r="556" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A556" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B556" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C556" s="6" t="s">
         <v>1352</v>
       </c>
-      <c r="C556" s="6" t="s">
+      <c r="D556" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="D556" s="4" t="s">
+      <c r="E556" s="9" t="s">
         <v>1354</v>
-      </c>
-      <c r="E556" s="9" t="s">
-        <v>1355</v>
       </c>
       <c r="F556" s="10"/>
       <c r="G556" s="10"/>
@@ -15983,19 +15997,19 @@
     </row>
     <row r="557" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A557" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B557" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C557" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="C557" s="6" t="s">
+      <c r="D557" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="D557" s="4" t="s">
+      <c r="E557" s="9" t="s">
         <v>1358</v>
-      </c>
-      <c r="E557" s="9" t="s">
-        <v>1359</v>
       </c>
       <c r="F557" s="10"/>
       <c r="G557" s="10"/>
@@ -16028,19 +16042,19 @@
     </row>
     <row r="558" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A558" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B558" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C558" s="4" t="s">
         <v>1360</v>
       </c>
-      <c r="C558" s="4" t="s">
+      <c r="D558" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="D558" s="4" t="s">
+      <c r="E558" s="9" t="s">
         <v>1362</v>
-      </c>
-      <c r="E558" s="9" t="s">
-        <v>1363</v>
       </c>
       <c r="F558" s="10"/>
       <c r="G558" s="10"/>
@@ -16073,19 +16087,19 @@
     </row>
     <row r="559" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A559" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B559" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C559" s="6" t="s">
         <v>1364</v>
       </c>
-      <c r="C559" s="6" t="s">
+      <c r="D559" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="D559" s="4" t="s">
+      <c r="E559" s="9" t="s">
         <v>1366</v>
-      </c>
-      <c r="E559" s="9" t="s">
-        <v>1367</v>
       </c>
       <c r="F559" s="10"/>
       <c r="G559" s="10"/>
@@ -16118,19 +16132,19 @@
     </row>
     <row r="560" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A560" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B560" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C560" s="6" t="s">
         <v>1368</v>
       </c>
-      <c r="C560" s="6" t="s">
+      <c r="D560" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="D560" s="4" t="s">
+      <c r="E560" s="9" t="s">
         <v>1370</v>
-      </c>
-      <c r="E560" s="9" t="s">
-        <v>1371</v>
       </c>
       <c r="F560" s="10"/>
       <c r="G560" s="10"/>
@@ -16163,19 +16177,19 @@
     </row>
     <row r="561" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A561" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B561" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C561" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="C561" s="4" t="s">
+      <c r="D561" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="D561" s="4" t="s">
+      <c r="E561" s="9" t="s">
         <v>1374</v>
-      </c>
-      <c r="E561" s="9" t="s">
-        <v>1375</v>
       </c>
       <c r="F561" s="10"/>
       <c r="G561" s="10"/>
@@ -16208,19 +16222,19 @@
     </row>
     <row r="562" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A562" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B562" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C562" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="C562" s="4" t="s">
+      <c r="D562" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="D562" s="4" t="s">
+      <c r="E562" s="9" t="s">
         <v>1378</v>
-      </c>
-      <c r="E562" s="9" t="s">
-        <v>1379</v>
       </c>
       <c r="F562" s="10"/>
       <c r="G562" s="10"/>
@@ -16253,22 +16267,22 @@
     </row>
     <row r="563" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B563" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B563" s="39" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C563" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="C563" s="4" t="s">
+      <c r="D563" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="D563" s="4" t="s">
+      <c r="E563" s="9" t="s">
         <v>1382</v>
       </c>
-      <c r="E563" s="9" t="s">
-        <v>1383</v>
-      </c>
       <c r="F563" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G563" s="10"/>
       <c r="H563" s="10"/>
@@ -16300,22 +16314,22 @@
     </row>
     <row r="564" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B564" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B564" s="39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C564" s="6" t="s">
         <v>1384</v>
       </c>
-      <c r="C564" s="6" t="s">
+      <c r="D564" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="D564" s="4" t="s">
+      <c r="E564" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="E564" s="9" t="s">
-        <v>1387</v>
-      </c>
       <c r="F564" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G564" s="10"/>
       <c r="H564" s="10"/>
@@ -16347,19 +16361,19 @@
     </row>
     <row r="565" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A565" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B565" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C565" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="C565" s="6" t="s">
+      <c r="D565" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="D565" s="4" t="s">
+      <c r="E565" s="9" t="s">
         <v>1390</v>
-      </c>
-      <c r="E565" s="9" t="s">
-        <v>1391</v>
       </c>
       <c r="F565" s="10"/>
       <c r="G565" s="10"/>
@@ -16392,19 +16406,19 @@
     </row>
     <row r="566" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A566" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B566" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C566" s="6" t="s">
         <v>1392</v>
       </c>
-      <c r="C566" s="6" t="s">
+      <c r="D566" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="D566" s="4" t="s">
+      <c r="E566" s="9" t="s">
         <v>1394</v>
-      </c>
-      <c r="E566" s="9" t="s">
-        <v>1395</v>
       </c>
       <c r="F566" s="10"/>
       <c r="G566" s="10"/>
@@ -16437,19 +16451,19 @@
     </row>
     <row r="567" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A567" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B567" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D567" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="C567" s="4" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D567" s="4" t="s">
+      <c r="E567" s="9" t="s">
         <v>1397</v>
-      </c>
-      <c r="E567" s="9" t="s">
-        <v>1398</v>
       </c>
       <c r="F567" s="10"/>
       <c r="G567" s="10"/>
@@ -16482,22 +16496,22 @@
     </row>
     <row r="568" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B568" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B568" s="39" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C568" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="C568" s="4" t="s">
+      <c r="D568" s="40" t="s">
         <v>1400</v>
       </c>
-      <c r="D568" s="41" t="s">
+      <c r="E568" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="E568" s="9" t="s">
-        <v>1402</v>
-      </c>
       <c r="F568" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G568" s="10"/>
       <c r="H568" s="10"/>
@@ -16529,19 +16543,19 @@
     </row>
     <row r="569" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A569" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B569" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C569" s="6" t="s">
         <v>1403</v>
       </c>
-      <c r="C569" s="6" t="s">
+      <c r="D569" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="D569" s="4" t="s">
+      <c r="E569" s="9" t="s">
         <v>1405</v>
-      </c>
-      <c r="E569" s="9" t="s">
-        <v>1406</v>
       </c>
       <c r="F569" s="10"/>
       <c r="G569" s="10"/>
@@ -16574,19 +16588,19 @@
     </row>
     <row r="570" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A570" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B570" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C570" s="4" t="s">
         <v>1407</v>
       </c>
-      <c r="C570" s="4" t="s">
+      <c r="D570" s="4" t="s">
         <v>1408</v>
       </c>
-      <c r="D570" s="4" t="s">
+      <c r="E570" s="9" t="s">
         <v>1409</v>
-      </c>
-      <c r="E570" s="9" t="s">
-        <v>1410</v>
       </c>
       <c r="F570" s="10"/>
       <c r="G570" s="10"/>
@@ -16619,22 +16633,22 @@
     </row>
     <row r="571" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B571" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B571" s="39" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C571" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="C571" s="6" t="s">
+      <c r="D571" s="4" t="s">
         <v>1412</v>
       </c>
-      <c r="D571" s="4" t="s">
+      <c r="E571" s="9" t="s">
         <v>1413</v>
       </c>
-      <c r="E571" s="9" t="s">
-        <v>1414</v>
-      </c>
       <c r="F571" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G571" s="10"/>
       <c r="H571" s="10"/>
@@ -16666,19 +16680,19 @@
     </row>
     <row r="572" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A572" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C572" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D572" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="D572" s="4" t="s">
+      <c r="E572" s="9" t="s">
         <v>1416</v>
-      </c>
-      <c r="E572" s="9" t="s">
-        <v>1417</v>
       </c>
       <c r="F572" s="10"/>
       <c r="G572" s="10"/>
@@ -16711,19 +16725,19 @@
     </row>
     <row r="573" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A573" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B573" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C573" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="C573" s="4" t="s">
+      <c r="D573" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="D573" s="4" t="s">
+      <c r="E573" s="9" t="s">
         <v>1420</v>
-      </c>
-      <c r="E573" s="9" t="s">
-        <v>1421</v>
       </c>
       <c r="F573" s="10"/>
       <c r="G573" s="10"/>
@@ -16756,19 +16770,19 @@
     </row>
     <row r="574" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A574" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B574" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C574" s="6" t="s">
         <v>1422</v>
       </c>
-      <c r="C574" s="6" t="s">
+      <c r="D574" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="D574" s="4" t="s">
+      <c r="E574" s="9" t="s">
         <v>1424</v>
-      </c>
-      <c r="E574" s="9" t="s">
-        <v>1425</v>
       </c>
       <c r="F574" s="10"/>
       <c r="G574" s="10"/>
@@ -16801,19 +16815,19 @@
     </row>
     <row r="575" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A575" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B575" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C575" s="6" t="s">
         <v>1426</v>
       </c>
-      <c r="C575" s="6" t="s">
+      <c r="D575" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="D575" s="4" t="s">
+      <c r="E575" s="9" t="s">
         <v>1428</v>
-      </c>
-      <c r="E575" s="9" t="s">
-        <v>1429</v>
       </c>
       <c r="F575" s="10"/>
       <c r="G575" s="10"/>
@@ -16846,19 +16860,19 @@
     </row>
     <row r="576" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A576" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B576" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C576" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="C576" s="4" t="s">
+      <c r="D576" s="4" t="s">
         <v>1431</v>
       </c>
-      <c r="D576" s="4" t="s">
+      <c r="E576" s="9" t="s">
         <v>1432</v>
-      </c>
-      <c r="E576" s="9" t="s">
-        <v>1433</v>
       </c>
       <c r="F576" s="10"/>
       <c r="G576" s="10"/>
@@ -16891,19 +16905,19 @@
     </row>
     <row r="577" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A577" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B577" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C577" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="C577" s="4" t="s">
+      <c r="D577" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="D577" s="4" t="s">
+      <c r="E577" s="9" t="s">
         <v>1436</v>
-      </c>
-      <c r="E577" s="9" t="s">
-        <v>1437</v>
       </c>
       <c r="F577" s="10"/>
       <c r="G577" s="10"/>
@@ -16936,22 +16950,22 @@
     </row>
     <row r="578" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B578" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B578" s="39" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C578" s="4" t="s">
         <v>1438</v>
       </c>
-      <c r="C578" s="4" t="s">
+      <c r="D578" s="40" t="s">
         <v>1439</v>
       </c>
-      <c r="D578" s="41" t="s">
+      <c r="E578" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="E578" s="9" t="s">
-        <v>1441</v>
-      </c>
       <c r="F578" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G578" s="10"/>
       <c r="H578" s="10"/>
@@ -16983,22 +16997,22 @@
     </row>
     <row r="579" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B579" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B579" s="39" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C579" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="C579" s="4" t="s">
+      <c r="D579" s="4" t="s">
         <v>1443</v>
       </c>
-      <c r="D579" s="4" t="s">
+      <c r="E579" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="E579" s="9" t="s">
-        <v>1445</v>
-      </c>
       <c r="F579" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G579" s="10"/>
       <c r="H579" s="10"/>
@@ -17030,19 +17044,19 @@
     </row>
     <row r="580" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A580" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B580" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C580" s="4" t="s">
         <v>1446</v>
       </c>
-      <c r="C580" s="4" t="s">
+      <c r="D580" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="D580" s="4" t="s">
+      <c r="E580" s="9" t="s">
         <v>1448</v>
-      </c>
-      <c r="E580" s="9" t="s">
-        <v>1449</v>
       </c>
       <c r="F580" s="10"/>
       <c r="G580" s="10"/>
@@ -17075,25 +17089,25 @@
     </row>
     <row r="581" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B581" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B581" s="39" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C581" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="C581" s="4" t="s">
+      <c r="D581" s="40" t="s">
         <v>1451</v>
       </c>
-      <c r="D581" s="41" t="s">
+      <c r="E581" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="E581" s="9" t="s">
-        <v>1453</v>
-      </c>
       <c r="F581" s="12" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G581" s="11" t="s">
         <v>1957</v>
-      </c>
-      <c r="G581" s="11" t="s">
-        <v>1958</v>
       </c>
       <c r="H581" s="10"/>
       <c r="I581" s="10"/>
@@ -17124,19 +17138,19 @@
     </row>
     <row r="582" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A582" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B582" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C582" s="6" t="s">
         <v>1454</v>
       </c>
-      <c r="C582" s="6" t="s">
+      <c r="D582" s="4" t="s">
         <v>1455</v>
       </c>
-      <c r="D582" s="4" t="s">
+      <c r="E582" s="9" t="s">
         <v>1456</v>
-      </c>
-      <c r="E582" s="9" t="s">
-        <v>1457</v>
       </c>
       <c r="F582" s="10"/>
       <c r="G582" s="10"/>
@@ -17169,19 +17183,19 @@
     </row>
     <row r="583" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B583" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C583" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="C583" s="4" t="s">
+      <c r="D583" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="D583" s="4" t="s">
+      <c r="E583" s="9" t="s">
         <v>1460</v>
-      </c>
-      <c r="E583" s="9" t="s">
-        <v>1461</v>
       </c>
       <c r="F583" s="10"/>
       <c r="G583" s="10"/>
@@ -17214,19 +17228,19 @@
     </row>
     <row r="584" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A584" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B584" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C584" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="C584" s="4" t="s">
+      <c r="D584" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="D584" s="4" t="s">
+      <c r="E584" s="9" t="s">
         <v>1464</v>
-      </c>
-      <c r="E584" s="9" t="s">
-        <v>1465</v>
       </c>
       <c r="F584" s="10"/>
       <c r="G584" s="10"/>
@@ -17259,19 +17273,19 @@
     </row>
     <row r="585" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A585" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B585" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C585" s="6" t="s">
         <v>1466</v>
       </c>
-      <c r="C585" s="6" t="s">
+      <c r="D585" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="D585" s="4" t="s">
+      <c r="E585" s="9" t="s">
         <v>1468</v>
-      </c>
-      <c r="E585" s="9" t="s">
-        <v>1469</v>
       </c>
       <c r="F585" s="10"/>
       <c r="G585" s="10"/>
@@ -17304,19 +17318,19 @@
     </row>
     <row r="586" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A586" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B586" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C586" s="6" t="s">
         <v>1470</v>
       </c>
-      <c r="C586" s="6" t="s">
+      <c r="D586" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="D586" s="4" t="s">
+      <c r="E586" s="9" t="s">
         <v>1472</v>
-      </c>
-      <c r="E586" s="9" t="s">
-        <v>1473</v>
       </c>
       <c r="F586" s="10"/>
       <c r="G586" s="10"/>
@@ -17349,19 +17363,19 @@
     </row>
     <row r="587" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A587" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B587" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C587" s="6" t="s">
         <v>1474</v>
       </c>
-      <c r="C587" s="6" t="s">
+      <c r="D587" s="4" t="s">
         <v>1475</v>
       </c>
-      <c r="D587" s="4" t="s">
+      <c r="E587" s="9" t="s">
         <v>1476</v>
-      </c>
-      <c r="E587" s="9" t="s">
-        <v>1477</v>
       </c>
       <c r="F587" s="10"/>
       <c r="G587" s="10"/>
@@ -17394,19 +17408,19 @@
     </row>
     <row r="588" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A588" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B588" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C588" s="6" t="s">
         <v>1478</v>
       </c>
-      <c r="C588" s="6" t="s">
+      <c r="D588" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="D588" s="4" t="s">
+      <c r="E588" s="9" t="s">
         <v>1480</v>
-      </c>
-      <c r="E588" s="9" t="s">
-        <v>1481</v>
       </c>
       <c r="F588" s="10"/>
       <c r="G588" s="10"/>
@@ -17439,19 +17453,19 @@
     </row>
     <row r="589" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A589" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B589" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C589" s="4" t="s">
         <v>1482</v>
       </c>
-      <c r="C589" s="4" t="s">
+      <c r="D589" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="D589" s="4" t="s">
+      <c r="E589" s="9" t="s">
         <v>1484</v>
-      </c>
-      <c r="E589" s="9" t="s">
-        <v>1485</v>
       </c>
       <c r="F589" s="10"/>
       <c r="G589" s="10"/>
@@ -17484,19 +17498,19 @@
     </row>
     <row r="590" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A590" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B590" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C590" s="6" t="s">
         <v>1486</v>
       </c>
-      <c r="C590" s="6" t="s">
+      <c r="D590" s="4" t="s">
         <v>1487</v>
       </c>
-      <c r="D590" s="4" t="s">
+      <c r="E590" s="9" t="s">
         <v>1488</v>
-      </c>
-      <c r="E590" s="9" t="s">
-        <v>1489</v>
       </c>
       <c r="F590" s="10"/>
       <c r="G590" s="10"/>
@@ -17529,19 +17543,19 @@
     </row>
     <row r="591" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A591" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B591" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C591" s="4" t="s">
         <v>1490</v>
       </c>
-      <c r="C591" s="4" t="s">
+      <c r="D591" s="4" t="s">
         <v>1491</v>
       </c>
-      <c r="D591" s="4" t="s">
+      <c r="E591" s="9" t="s">
         <v>1492</v>
-      </c>
-      <c r="E591" s="9" t="s">
-        <v>1493</v>
       </c>
       <c r="F591" s="10"/>
       <c r="G591" s="10"/>
@@ -17574,19 +17588,19 @@
     </row>
     <row r="592" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A592" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B592" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C592" s="6" t="s">
         <v>1494</v>
       </c>
-      <c r="C592" s="6" t="s">
+      <c r="D592" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="D592" s="4" t="s">
+      <c r="E592" s="9" t="s">
         <v>1496</v>
-      </c>
-      <c r="E592" s="9" t="s">
-        <v>1497</v>
       </c>
       <c r="F592" s="10"/>
       <c r="G592" s="10"/>
@@ -17619,22 +17633,22 @@
     </row>
     <row r="593" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B593" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B593" s="39" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C593" s="6" t="s">
         <v>1498</v>
       </c>
-      <c r="C593" s="6" t="s">
+      <c r="D593" s="40" t="s">
         <v>1499</v>
       </c>
-      <c r="D593" s="41" t="s">
+      <c r="E593" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="E593" s="9" t="s">
-        <v>1501</v>
-      </c>
       <c r="F593" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G593" s="10"/>
       <c r="H593" s="10"/>
@@ -17666,22 +17680,22 @@
     </row>
     <row r="594" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B594" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B594" s="39" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C594" s="4" t="s">
         <v>1502</v>
       </c>
-      <c r="C594" s="4" t="s">
+      <c r="D594" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="D594" s="4" t="s">
+      <c r="E594" s="9" t="s">
         <v>1504</v>
       </c>
-      <c r="E594" s="9" t="s">
-        <v>1505</v>
-      </c>
       <c r="F594" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G594" s="10"/>
       <c r="H594" s="10"/>
@@ -17713,19 +17727,19 @@
     </row>
     <row r="595" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B595" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C595" s="4" t="s">
         <v>1506</v>
       </c>
-      <c r="C595" s="4" t="s">
+      <c r="D595" s="4" t="s">
         <v>1507</v>
       </c>
-      <c r="D595" s="4" t="s">
+      <c r="E595" s="9" t="s">
         <v>1508</v>
-      </c>
-      <c r="E595" s="9" t="s">
-        <v>1509</v>
       </c>
       <c r="F595" s="10"/>
       <c r="G595" s="10"/>
@@ -17758,22 +17772,22 @@
     </row>
     <row r="596" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B596" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B596" s="39" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C596" s="6" t="s">
         <v>1510</v>
       </c>
-      <c r="C596" s="6" t="s">
+      <c r="D596" s="4" t="s">
         <v>1511</v>
       </c>
-      <c r="D596" s="4" t="s">
+      <c r="E596" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="E596" s="9" t="s">
-        <v>1513</v>
-      </c>
       <c r="F596" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G596" s="10"/>
       <c r="H596" s="10"/>
@@ -17805,19 +17819,19 @@
     </row>
     <row r="597" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B597" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C597" s="4" t="s">
         <v>1514</v>
       </c>
-      <c r="C597" s="4" t="s">
+      <c r="D597" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="D597" s="4" t="s">
+      <c r="E597" s="9" t="s">
         <v>1516</v>
-      </c>
-      <c r="E597" s="9" t="s">
-        <v>1517</v>
       </c>
       <c r="F597" s="10"/>
       <c r="G597" s="10"/>
@@ -17850,19 +17864,19 @@
     </row>
     <row r="598" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A598" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B598" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C598" s="4" t="s">
         <v>1518</v>
       </c>
-      <c r="C598" s="4" t="s">
+      <c r="D598" s="4" t="s">
         <v>1519</v>
       </c>
-      <c r="D598" s="4" t="s">
+      <c r="E598" s="9" t="s">
         <v>1520</v>
-      </c>
-      <c r="E598" s="9" t="s">
-        <v>1521</v>
       </c>
       <c r="F598" s="10"/>
       <c r="G598" s="10"/>
@@ -17895,19 +17909,19 @@
     </row>
     <row r="599" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A599" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B599" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C599" s="4" t="s">
         <v>1522</v>
       </c>
-      <c r="C599" s="4" t="s">
+      <c r="D599" s="4" t="s">
         <v>1523</v>
       </c>
-      <c r="D599" s="4" t="s">
+      <c r="E599" s="9" t="s">
         <v>1524</v>
-      </c>
-      <c r="E599" s="9" t="s">
-        <v>1525</v>
       </c>
       <c r="F599" s="10"/>
       <c r="G599" s="10"/>
@@ -17940,19 +17954,19 @@
     </row>
     <row r="600" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A600" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B600" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C600" s="6" t="s">
         <v>1526</v>
       </c>
-      <c r="C600" s="6" t="s">
+      <c r="D600" s="4" t="s">
         <v>1527</v>
       </c>
-      <c r="D600" s="4" t="s">
+      <c r="E600" s="9" t="s">
         <v>1528</v>
-      </c>
-      <c r="E600" s="9" t="s">
-        <v>1529</v>
       </c>
       <c r="F600" s="10"/>
       <c r="G600" s="10"/>
@@ -17985,19 +17999,19 @@
     </row>
     <row r="601" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A601" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B601" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C601" s="4" t="s">
         <v>1530</v>
       </c>
-      <c r="C601" s="4" t="s">
+      <c r="D601" s="4" t="s">
         <v>1531</v>
       </c>
-      <c r="D601" s="4" t="s">
+      <c r="E601" s="9" t="s">
         <v>1532</v>
-      </c>
-      <c r="E601" s="9" t="s">
-        <v>1533</v>
       </c>
       <c r="F601" s="10"/>
       <c r="G601" s="10"/>
@@ -18030,22 +18044,22 @@
     </row>
     <row r="602" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B602" s="40" t="s">
-        <v>1534</v>
+        <v>1342</v>
+      </c>
+      <c r="B602" s="39" t="s">
+        <v>1533</v>
       </c>
       <c r="C602" s="6" t="s">
         <v>461</v>
       </c>
       <c r="D602" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E602" s="9" t="s">
         <v>1535</v>
       </c>
-      <c r="E602" s="9" t="s">
-        <v>1536</v>
-      </c>
       <c r="F602" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G602" s="10"/>
       <c r="H602" s="10"/>
@@ -18077,22 +18091,22 @@
     </row>
     <row r="603" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B603" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B603" s="39" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C603" s="6" t="s">
         <v>1537</v>
       </c>
-      <c r="C603" s="6" t="s">
+      <c r="D603" s="4" t="s">
         <v>1538</v>
       </c>
-      <c r="D603" s="4" t="s">
+      <c r="E603" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="E603" s="9" t="s">
-        <v>1540</v>
-      </c>
       <c r="F603" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G603" s="10"/>
       <c r="H603" s="10"/>
@@ -18124,19 +18138,19 @@
     </row>
     <row r="604" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A604" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B604" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C604" s="6" t="s">
         <v>1541</v>
       </c>
-      <c r="C604" s="6" t="s">
+      <c r="D604" s="4" t="s">
         <v>1542</v>
       </c>
-      <c r="D604" s="4" t="s">
+      <c r="E604" s="9" t="s">
         <v>1543</v>
-      </c>
-      <c r="E604" s="9" t="s">
-        <v>1544</v>
       </c>
       <c r="F604" s="10"/>
       <c r="G604" s="10"/>
@@ -18169,19 +18183,19 @@
     </row>
     <row r="605" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A605" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B605" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B605" s="39" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C605" s="6" t="s">
         <v>1545</v>
       </c>
-      <c r="C605" s="6" t="s">
+      <c r="D605" s="4" t="s">
         <v>1546</v>
       </c>
-      <c r="D605" s="4" t="s">
+      <c r="E605" s="9" t="s">
         <v>1547</v>
-      </c>
-      <c r="E605" s="9" t="s">
-        <v>1548</v>
       </c>
       <c r="F605" s="10"/>
       <c r="G605" s="10"/>
@@ -18214,22 +18228,22 @@
     </row>
     <row r="606" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B606" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B606" s="39" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C606" s="6" t="s">
         <v>1549</v>
       </c>
-      <c r="C606" s="6" t="s">
+      <c r="D606" s="4" t="s">
         <v>1550</v>
       </c>
-      <c r="D606" s="4" t="s">
+      <c r="E606" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="E606" s="9" t="s">
-        <v>1552</v>
-      </c>
       <c r="F606" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G606" s="10"/>
       <c r="H606" s="10"/>
@@ -18261,19 +18275,19 @@
     </row>
     <row r="607" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A607" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B607" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C607" s="6" t="s">
         <v>1553</v>
       </c>
-      <c r="C607" s="6" t="s">
+      <c r="D607" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="D607" s="4" t="s">
+      <c r="E607" s="9" t="s">
         <v>1555</v>
-      </c>
-      <c r="E607" s="9" t="s">
-        <v>1556</v>
       </c>
       <c r="F607" s="10"/>
       <c r="G607" s="10"/>
@@ -18306,22 +18320,22 @@
     </row>
     <row r="608" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B608" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B608" s="39" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C608" s="6" t="s">
         <v>1557</v>
       </c>
-      <c r="C608" s="6" t="s">
+      <c r="D608" s="4" t="s">
         <v>1558</v>
       </c>
-      <c r="D608" s="4" t="s">
+      <c r="E608" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="E608" s="9" t="s">
-        <v>1560</v>
-      </c>
       <c r="F608" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G608" s="10"/>
       <c r="H608" s="10"/>
@@ -18353,22 +18367,22 @@
     </row>
     <row r="609" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B609" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B609" s="39" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C609" s="6" t="s">
         <v>1561</v>
       </c>
-      <c r="C609" s="6" t="s">
+      <c r="D609" s="4" t="s">
         <v>1562</v>
       </c>
-      <c r="D609" s="4" t="s">
+      <c r="E609" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="E609" s="9" t="s">
-        <v>1564</v>
-      </c>
       <c r="F609" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G609" s="10"/>
       <c r="H609" s="10"/>
@@ -18400,19 +18414,19 @@
     </row>
     <row r="610" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A610" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B610" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C610" s="4" t="s">
         <v>1565</v>
       </c>
-      <c r="C610" s="4" t="s">
+      <c r="D610" s="4" t="s">
         <v>1566</v>
       </c>
-      <c r="D610" s="4" t="s">
+      <c r="E610" s="9" t="s">
         <v>1567</v>
-      </c>
-      <c r="E610" s="9" t="s">
-        <v>1568</v>
       </c>
       <c r="F610" s="10"/>
       <c r="G610" s="10"/>
@@ -18445,19 +18459,19 @@
     </row>
     <row r="611" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A611" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B611" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B611" s="39" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C611" s="4" t="s">
         <v>1569</v>
       </c>
-      <c r="C611" s="4" t="s">
+      <c r="D611" s="4" t="s">
         <v>1570</v>
       </c>
-      <c r="D611" s="4" t="s">
+      <c r="E611" s="9" t="s">
         <v>1571</v>
-      </c>
-      <c r="E611" s="9" t="s">
-        <v>1572</v>
       </c>
       <c r="F611" s="10"/>
       <c r="G611" s="10"/>
@@ -18490,19 +18504,19 @@
     </row>
     <row r="612" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A612" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B612" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C612" s="6" t="s">
         <v>1573</v>
       </c>
-      <c r="C612" s="6" t="s">
+      <c r="D612" s="4" t="s">
         <v>1574</v>
       </c>
-      <c r="D612" s="4" t="s">
+      <c r="E612" s="9" t="s">
         <v>1575</v>
-      </c>
-      <c r="E612" s="9" t="s">
-        <v>1576</v>
       </c>
       <c r="F612" s="10"/>
       <c r="G612" s="10"/>
@@ -18535,19 +18549,19 @@
     </row>
     <row r="613" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A613" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B613" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C613" s="6" t="s">
         <v>1577</v>
       </c>
-      <c r="C613" s="6" t="s">
+      <c r="D613" s="4" t="s">
         <v>1578</v>
       </c>
-      <c r="D613" s="4" t="s">
+      <c r="E613" s="9" t="s">
         <v>1579</v>
-      </c>
-      <c r="E613" s="9" t="s">
-        <v>1580</v>
       </c>
       <c r="F613" s="10"/>
       <c r="G613" s="10"/>
@@ -18580,22 +18594,22 @@
     </row>
     <row r="614" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B614" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B614" s="39" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C614" s="4" t="s">
         <v>1581</v>
       </c>
-      <c r="C614" s="4" t="s">
+      <c r="D614" s="4" t="s">
         <v>1582</v>
       </c>
-      <c r="D614" s="4" t="s">
+      <c r="E614" s="9" t="s">
         <v>1583</v>
       </c>
-      <c r="E614" s="9" t="s">
-        <v>1584</v>
-      </c>
       <c r="F614" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G614" s="10"/>
       <c r="H614" s="10"/>
@@ -18627,19 +18641,19 @@
     </row>
     <row r="615" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A615" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B615" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C615" s="4" t="s">
         <v>1585</v>
       </c>
-      <c r="C615" s="4" t="s">
+      <c r="D615" s="4" t="s">
         <v>1586</v>
       </c>
-      <c r="D615" s="4" t="s">
+      <c r="E615" s="9" t="s">
         <v>1587</v>
-      </c>
-      <c r="E615" s="9" t="s">
-        <v>1588</v>
       </c>
       <c r="F615" s="10"/>
       <c r="G615" s="10"/>
@@ -18672,19 +18686,19 @@
     </row>
     <row r="616" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A616" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B616" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C616" s="4" t="s">
         <v>1589</v>
       </c>
-      <c r="C616" s="4" t="s">
+      <c r="D616" s="4" t="s">
         <v>1590</v>
       </c>
-      <c r="D616" s="4" t="s">
+      <c r="E616" s="9" t="s">
         <v>1591</v>
-      </c>
-      <c r="E616" s="9" t="s">
-        <v>1592</v>
       </c>
       <c r="F616" s="10"/>
       <c r="G616" s="10"/>
@@ -18717,19 +18731,19 @@
     </row>
     <row r="617" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A617" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C617" s="6" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D617" s="4" t="s">
         <v>1593</v>
       </c>
-      <c r="D617" s="4" t="s">
+      <c r="E617" s="9" t="s">
         <v>1594</v>
-      </c>
-      <c r="E617" s="9" t="s">
-        <v>1595</v>
       </c>
       <c r="F617" s="10"/>
       <c r="G617" s="10"/>
@@ -18762,22 +18776,22 @@
     </row>
     <row r="618" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B618" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B618" s="39" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C618" s="4" t="s">
         <v>1596</v>
       </c>
-      <c r="C618" s="4" t="s">
+      <c r="D618" s="4" t="s">
         <v>1597</v>
       </c>
-      <c r="D618" s="4" t="s">
+      <c r="E618" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="E618" s="9" t="s">
-        <v>1599</v>
-      </c>
       <c r="F618" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G618" s="10"/>
       <c r="H618" s="10"/>
@@ -18809,19 +18823,19 @@
     </row>
     <row r="619" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A619" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B619" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C619" s="4" t="s">
         <v>1600</v>
       </c>
-      <c r="C619" s="4" t="s">
+      <c r="D619" s="4" t="s">
         <v>1601</v>
       </c>
-      <c r="D619" s="4" t="s">
+      <c r="E619" s="9" t="s">
         <v>1602</v>
-      </c>
-      <c r="E619" s="9" t="s">
-        <v>1603</v>
       </c>
       <c r="F619" s="10"/>
       <c r="G619" s="10"/>
@@ -18854,19 +18868,19 @@
     </row>
     <row r="620" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A620" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B620" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C620" s="4" t="s">
         <v>1604</v>
       </c>
-      <c r="C620" s="4" t="s">
+      <c r="D620" s="4" t="s">
         <v>1605</v>
       </c>
-      <c r="D620" s="4" t="s">
+      <c r="E620" s="9" t="s">
         <v>1606</v>
-      </c>
-      <c r="E620" s="9" t="s">
-        <v>1607</v>
       </c>
       <c r="F620" s="10"/>
       <c r="G620" s="10"/>
@@ -18899,22 +18913,22 @@
     </row>
     <row r="621" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B621" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B621" s="39" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C621" s="6" t="s">
         <v>1608</v>
       </c>
-      <c r="C621" s="6" t="s">
+      <c r="D621" s="40" t="s">
         <v>1609</v>
       </c>
-      <c r="D621" s="41" t="s">
+      <c r="E621" s="9" t="s">
         <v>1610</v>
       </c>
-      <c r="E621" s="9" t="s">
-        <v>1611</v>
-      </c>
       <c r="F621" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G621" s="10"/>
       <c r="H621" s="10"/>
@@ -18946,19 +18960,19 @@
     </row>
     <row r="622" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A622" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B622" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C622" s="4" t="s">
         <v>1612</v>
       </c>
-      <c r="C622" s="4" t="s">
+      <c r="D622" s="4" t="s">
         <v>1613</v>
       </c>
-      <c r="D622" s="4" t="s">
+      <c r="E622" s="9" t="s">
         <v>1614</v>
-      </c>
-      <c r="E622" s="9" t="s">
-        <v>1615</v>
       </c>
       <c r="F622" s="10"/>
       <c r="G622" s="10"/>
@@ -18991,19 +19005,19 @@
     </row>
     <row r="623" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A623" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B623" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C623" s="4" t="s">
         <v>1616</v>
       </c>
-      <c r="C623" s="4" t="s">
+      <c r="D623" s="4" t="s">
         <v>1617</v>
       </c>
-      <c r="D623" s="4" t="s">
+      <c r="E623" s="9" t="s">
         <v>1618</v>
-      </c>
-      <c r="E623" s="9" t="s">
-        <v>1619</v>
       </c>
       <c r="F623" s="10"/>
       <c r="G623" s="10"/>
@@ -19036,19 +19050,19 @@
     </row>
     <row r="624" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B624" s="13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C624" s="6" t="s">
         <v>1620</v>
       </c>
-      <c r="C624" s="6" t="s">
+      <c r="D624" s="4" t="s">
         <v>1621</v>
       </c>
-      <c r="D624" s="4" t="s">
+      <c r="E624" s="9" t="s">
         <v>1622</v>
-      </c>
-      <c r="E624" s="9" t="s">
-        <v>1623</v>
       </c>
       <c r="F624" s="10"/>
       <c r="G624" s="10"/>
@@ -19081,19 +19095,19 @@
     </row>
     <row r="625" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A625" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B625" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C625" s="6" t="s">
         <v>1624</v>
       </c>
-      <c r="C625" s="6" t="s">
+      <c r="D625" s="4" t="s">
         <v>1625</v>
       </c>
-      <c r="D625" s="4" t="s">
+      <c r="E625" s="9" t="s">
         <v>1626</v>
-      </c>
-      <c r="E625" s="9" t="s">
-        <v>1627</v>
       </c>
       <c r="F625" s="10"/>
       <c r="G625" s="10"/>
@@ -19126,19 +19140,19 @@
     </row>
     <row r="626" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A626" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B626" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C626" s="6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D626" s="4" t="s">
         <v>1628</v>
       </c>
-      <c r="C626" s="6" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D626" s="4" t="s">
+      <c r="E626" s="9" t="s">
         <v>1629</v>
-      </c>
-      <c r="E626" s="9" t="s">
-        <v>1630</v>
       </c>
       <c r="F626" s="10"/>
       <c r="G626" s="10"/>
@@ -19171,22 +19185,22 @@
     </row>
     <row r="627" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B627" s="40" t="s">
-        <v>1631</v>
+        <v>1342</v>
+      </c>
+      <c r="B627" s="39" t="s">
+        <v>1630</v>
       </c>
       <c r="C627" s="4" t="s">
         <v>581</v>
       </c>
       <c r="D627" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E627" s="9" t="s">
         <v>1632</v>
       </c>
-      <c r="E627" s="9" t="s">
-        <v>1633</v>
-      </c>
       <c r="F627" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G627" s="10"/>
       <c r="H627" s="10"/>
@@ -19218,22 +19232,22 @@
     </row>
     <row r="628" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B628" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B628" s="39" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C628" s="6" t="s">
         <v>1634</v>
       </c>
-      <c r="C628" s="6" t="s">
+      <c r="D628" s="4" t="s">
         <v>1635</v>
       </c>
-      <c r="D628" s="4" t="s">
+      <c r="E628" s="9" t="s">
         <v>1636</v>
       </c>
-      <c r="E628" s="9" t="s">
-        <v>1637</v>
-      </c>
       <c r="F628" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G628" s="10"/>
       <c r="H628" s="10"/>
@@ -19265,19 +19279,19 @@
     </row>
     <row r="629" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A629" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B629" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C629" s="6" t="s">
         <v>1638</v>
       </c>
-      <c r="C629" s="6" t="s">
+      <c r="D629" s="4" t="s">
         <v>1639</v>
       </c>
-      <c r="D629" s="4" t="s">
+      <c r="E629" s="9" t="s">
         <v>1640</v>
-      </c>
-      <c r="E629" s="9" t="s">
-        <v>1641</v>
       </c>
       <c r="F629" s="10"/>
       <c r="G629" s="10"/>
@@ -19310,19 +19324,19 @@
     </row>
     <row r="630" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A630" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B630" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C630" s="4" t="s">
         <v>1642</v>
       </c>
-      <c r="C630" s="4" t="s">
+      <c r="D630" s="4" t="s">
         <v>1643</v>
       </c>
-      <c r="D630" s="4" t="s">
+      <c r="E630" s="9" t="s">
         <v>1644</v>
-      </c>
-      <c r="E630" s="9" t="s">
-        <v>1645</v>
       </c>
       <c r="F630" s="10"/>
       <c r="G630" s="10"/>
@@ -19355,22 +19369,22 @@
     </row>
     <row r="631" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B631" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B631" s="39" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C631" s="4" t="s">
         <v>1646</v>
       </c>
-      <c r="C631" s="4" t="s">
+      <c r="D631" s="40" t="s">
         <v>1647</v>
       </c>
-      <c r="D631" s="41" t="s">
+      <c r="E631" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="E631" s="9" t="s">
-        <v>1649</v>
-      </c>
       <c r="F631" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G631" s="10"/>
       <c r="H631" s="10"/>
@@ -19402,19 +19416,19 @@
     </row>
     <row r="632" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A632" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B632" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C632" s="4" t="s">
         <v>1650</v>
       </c>
-      <c r="C632" s="4" t="s">
+      <c r="D632" s="4" t="s">
         <v>1651</v>
       </c>
-      <c r="D632" s="4" t="s">
+      <c r="E632" s="9" t="s">
         <v>1652</v>
-      </c>
-      <c r="E632" s="9" t="s">
-        <v>1653</v>
       </c>
       <c r="F632" s="10"/>
       <c r="G632" s="10"/>
@@ -19447,19 +19461,19 @@
     </row>
     <row r="633" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A633" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B633" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C633" s="4" t="s">
         <v>1654</v>
       </c>
-      <c r="C633" s="4" t="s">
+      <c r="D633" s="4" t="s">
         <v>1655</v>
       </c>
-      <c r="D633" s="4" t="s">
+      <c r="E633" s="9" t="s">
         <v>1656</v>
-      </c>
-      <c r="E633" s="9" t="s">
-        <v>1657</v>
       </c>
       <c r="F633" s="10"/>
       <c r="G633" s="10"/>
@@ -19492,19 +19506,19 @@
     </row>
     <row r="634" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A634" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C634" s="6" t="s">
         <v>242</v>
       </c>
       <c r="D634" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E634" s="9" t="s">
         <v>1659</v>
-      </c>
-      <c r="E634" s="9" t="s">
-        <v>1660</v>
       </c>
       <c r="F634" s="10"/>
       <c r="G634" s="10"/>
@@ -19537,22 +19551,22 @@
     </row>
     <row r="635" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B635" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B635" s="39" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C635" s="4" t="s">
         <v>1661</v>
       </c>
-      <c r="C635" s="4" t="s">
+      <c r="D635" s="4" t="s">
         <v>1662</v>
       </c>
-      <c r="D635" s="4" t="s">
+      <c r="E635" s="9" t="s">
         <v>1663</v>
       </c>
-      <c r="E635" s="9" t="s">
-        <v>1664</v>
-      </c>
       <c r="F635" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G635" s="10"/>
       <c r="H635" s="10"/>
@@ -19584,19 +19598,19 @@
     </row>
     <row r="636" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A636" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B636" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C636" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="C636" s="4" t="s">
+      <c r="D636" s="4" t="s">
         <v>1666</v>
       </c>
-      <c r="D636" s="4" t="s">
+      <c r="E636" s="9" t="s">
         <v>1667</v>
-      </c>
-      <c r="E636" s="9" t="s">
-        <v>1668</v>
       </c>
       <c r="F636" s="10"/>
       <c r="G636" s="10"/>
@@ -19629,19 +19643,19 @@
     </row>
     <row r="637" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A637" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B637" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C637" s="6" t="s">
         <v>1669</v>
       </c>
-      <c r="C637" s="6" t="s">
+      <c r="D637" s="4" t="s">
         <v>1670</v>
       </c>
-      <c r="D637" s="4" t="s">
+      <c r="E637" s="9" t="s">
         <v>1671</v>
-      </c>
-      <c r="E637" s="9" t="s">
-        <v>1672</v>
       </c>
       <c r="F637" s="10"/>
       <c r="G637" s="10"/>
@@ -19674,19 +19688,19 @@
     </row>
     <row r="638" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A638" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B638" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D638" s="4" t="s">
         <v>1673</v>
       </c>
-      <c r="C638" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="D638" s="4" t="s">
+      <c r="E638" s="9" t="s">
         <v>1674</v>
-      </c>
-      <c r="E638" s="9" t="s">
-        <v>1675</v>
       </c>
       <c r="F638" s="10"/>
       <c r="G638" s="10"/>
@@ -19719,19 +19733,19 @@
     </row>
     <row r="639" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A639" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B639" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C639" s="4" t="s">
         <v>1676</v>
       </c>
-      <c r="C639" s="4" t="s">
+      <c r="D639" s="4" t="s">
         <v>1677</v>
       </c>
-      <c r="D639" s="4" t="s">
+      <c r="E639" s="9" t="s">
         <v>1678</v>
-      </c>
-      <c r="E639" s="9" t="s">
-        <v>1679</v>
       </c>
       <c r="F639" s="10"/>
       <c r="G639" s="10"/>
@@ -19764,19 +19778,19 @@
     </row>
     <row r="640" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A640" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B640" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C640" s="4" t="s">
         <v>1680</v>
       </c>
-      <c r="C640" s="4" t="s">
+      <c r="D640" s="4" t="s">
         <v>1681</v>
       </c>
-      <c r="D640" s="4" t="s">
+      <c r="E640" s="9" t="s">
         <v>1682</v>
-      </c>
-      <c r="E640" s="9" t="s">
-        <v>1683</v>
       </c>
       <c r="F640" s="10"/>
       <c r="G640" s="10"/>
@@ -19809,19 +19823,19 @@
     </row>
     <row r="641" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A641" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B641" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C641" s="4" t="s">
         <v>1684</v>
       </c>
-      <c r="C641" s="4" t="s">
+      <c r="D641" s="4" t="s">
         <v>1685</v>
       </c>
-      <c r="D641" s="4" t="s">
+      <c r="E641" s="9" t="s">
         <v>1686</v>
-      </c>
-      <c r="E641" s="9" t="s">
-        <v>1687</v>
       </c>
       <c r="F641" s="10"/>
       <c r="G641" s="10"/>
@@ -19854,19 +19868,19 @@
     </row>
     <row r="642" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A642" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B642" s="42" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B642" s="41" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C642" s="6" t="s">
         <v>1688</v>
       </c>
-      <c r="C642" s="6" t="s">
+      <c r="D642" s="4" t="s">
         <v>1689</v>
       </c>
-      <c r="D642" s="4" t="s">
+      <c r="E642" s="9" t="s">
         <v>1690</v>
-      </c>
-      <c r="E642" s="9" t="s">
-        <v>1691</v>
       </c>
       <c r="F642" s="10"/>
       <c r="G642" s="10"/>
@@ -19899,19 +19913,19 @@
     </row>
     <row r="643" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A643" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B643" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C643" s="6" t="s">
         <v>1692</v>
       </c>
-      <c r="C643" s="6" t="s">
+      <c r="D643" s="4" t="s">
         <v>1693</v>
       </c>
-      <c r="D643" s="4" t="s">
+      <c r="E643" s="9" t="s">
         <v>1694</v>
-      </c>
-      <c r="E643" s="9" t="s">
-        <v>1695</v>
       </c>
       <c r="F643" s="10"/>
       <c r="G643" s="10"/>
@@ -19944,19 +19958,19 @@
     </row>
     <row r="644" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A644" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B644" s="42" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B644" s="41" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C644" s="4" t="s">
         <v>1696</v>
       </c>
-      <c r="C644" s="4" t="s">
+      <c r="D644" s="4" t="s">
         <v>1697</v>
       </c>
-      <c r="D644" s="4" t="s">
+      <c r="E644" s="9" t="s">
         <v>1698</v>
-      </c>
-      <c r="E644" s="9" t="s">
-        <v>1699</v>
       </c>
       <c r="F644" s="10"/>
       <c r="G644" s="10"/>
@@ -19989,19 +20003,19 @@
     </row>
     <row r="645" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A645" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B645" s="3" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C645" s="4" t="s">
         <v>1700</v>
       </c>
-      <c r="C645" s="4" t="s">
+      <c r="D645" s="4" t="s">
         <v>1701</v>
       </c>
-      <c r="D645" s="4" t="s">
+      <c r="E645" s="9" t="s">
         <v>1702</v>
-      </c>
-      <c r="E645" s="9" t="s">
-        <v>1703</v>
       </c>
       <c r="F645" s="10"/>
       <c r="G645" s="10"/>
@@ -20034,22 +20048,22 @@
     </row>
     <row r="646" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B646" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B646" s="39" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C646" s="4" t="s">
         <v>1704</v>
       </c>
-      <c r="C646" s="4" t="s">
+      <c r="D646" s="4" t="s">
         <v>1705</v>
       </c>
-      <c r="D646" s="4" t="s">
+      <c r="E646" s="9" t="s">
         <v>1706</v>
       </c>
-      <c r="E646" s="9" t="s">
-        <v>1707</v>
-      </c>
       <c r="F646" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G646" s="10"/>
       <c r="H646" s="10"/>
@@ -20081,22 +20095,22 @@
     </row>
     <row r="647" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B647" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B647" s="39" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C647" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D647" s="4" t="s">
         <v>1708</v>
       </c>
-      <c r="C647" s="6" t="s">
-        <v>1662</v>
-      </c>
-      <c r="D647" s="4" t="s">
+      <c r="E647" s="9" t="s">
         <v>1709</v>
       </c>
-      <c r="E647" s="9" t="s">
-        <v>1710</v>
-      </c>
       <c r="F647" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G647" s="10"/>
       <c r="H647" s="10"/>
@@ -20128,22 +20142,22 @@
     </row>
     <row r="648" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B648" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B648" s="39" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C648" s="4" t="s">
         <v>1711</v>
       </c>
-      <c r="C648" s="4" t="s">
+      <c r="D648" s="4" t="s">
         <v>1712</v>
       </c>
-      <c r="D648" s="4" t="s">
+      <c r="E648" s="9" t="s">
         <v>1713</v>
       </c>
-      <c r="E648" s="9" t="s">
-        <v>1714</v>
-      </c>
       <c r="F648" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G648" s="10"/>
       <c r="H648" s="10"/>
@@ -20175,22 +20189,22 @@
     </row>
     <row r="649" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B649" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B649" s="39" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C649" s="6" t="s">
         <v>1715</v>
       </c>
-      <c r="C649" s="6" t="s">
+      <c r="D649" s="4" t="s">
         <v>1716</v>
       </c>
-      <c r="D649" s="4" t="s">
+      <c r="E649" s="9" t="s">
         <v>1717</v>
       </c>
-      <c r="E649" s="9" t="s">
-        <v>1718</v>
-      </c>
       <c r="F649" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G649" s="10"/>
       <c r="H649" s="10"/>
@@ -20222,19 +20236,19 @@
     </row>
     <row r="650" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A650" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B650" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C650" s="6" t="s">
         <v>1719</v>
       </c>
-      <c r="C650" s="6" t="s">
+      <c r="D650" s="4" t="s">
         <v>1720</v>
       </c>
-      <c r="D650" s="4" t="s">
+      <c r="E650" s="9" t="s">
         <v>1721</v>
-      </c>
-      <c r="E650" s="9" t="s">
-        <v>1722</v>
       </c>
       <c r="F650" s="10"/>
       <c r="G650" s="10"/>
@@ -20267,19 +20281,19 @@
     </row>
     <row r="651" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A651" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B651" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C651" s="6" t="s">
         <v>1723</v>
       </c>
-      <c r="C651" s="6" t="s">
-        <v>1724</v>
-      </c>
       <c r="D651" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E651" s="9" t="s">
         <v>1663</v>
-      </c>
-      <c r="E651" s="9" t="s">
-        <v>1664</v>
       </c>
       <c r="F651" s="10"/>
       <c r="G651" s="10"/>
@@ -20312,19 +20326,19 @@
     </row>
     <row r="652" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A652" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B652" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C652" s="6" t="s">
         <v>1725</v>
       </c>
-      <c r="C652" s="6" t="s">
+      <c r="D652" s="4" t="s">
         <v>1726</v>
       </c>
-      <c r="D652" s="4" t="s">
+      <c r="E652" s="9" t="s">
         <v>1727</v>
-      </c>
-      <c r="E652" s="9" t="s">
-        <v>1728</v>
       </c>
       <c r="F652" s="10"/>
       <c r="G652" s="10"/>
@@ -20357,19 +20371,19 @@
     </row>
     <row r="653" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A653" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B653" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C653" s="6" t="s">
         <v>1729</v>
       </c>
-      <c r="C653" s="6" t="s">
+      <c r="D653" s="4" t="s">
         <v>1730</v>
       </c>
-      <c r="D653" s="4" t="s">
+      <c r="E653" s="9" t="s">
         <v>1731</v>
-      </c>
-      <c r="E653" s="9" t="s">
-        <v>1732</v>
       </c>
       <c r="F653" s="10"/>
       <c r="G653" s="10"/>
@@ -20402,19 +20416,19 @@
     </row>
     <row r="654" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A654" s="2" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B654" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C654" s="6" t="s">
         <v>1733</v>
       </c>
-      <c r="C654" s="6" t="s">
+      <c r="D654" s="4" t="s">
         <v>1734</v>
       </c>
-      <c r="D654" s="4" t="s">
+      <c r="E654" s="9" t="s">
         <v>1735</v>
-      </c>
-      <c r="E654" s="9" t="s">
-        <v>1736</v>
       </c>
       <c r="F654" s="10"/>
       <c r="G654" s="10"/>
@@ -20447,22 +20461,22 @@
     </row>
     <row r="655" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B655" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B655" s="39" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C655" s="4" t="s">
         <v>1737</v>
       </c>
-      <c r="C655" s="4" t="s">
+      <c r="D655" s="4" t="s">
         <v>1738</v>
       </c>
-      <c r="D655" s="4" t="s">
+      <c r="E655" s="9" t="s">
         <v>1739</v>
       </c>
-      <c r="E655" s="9" t="s">
-        <v>1740</v>
-      </c>
       <c r="F655" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G655" s="10"/>
       <c r="H655" s="10"/>
@@ -20494,19 +20508,19 @@
     </row>
     <row r="656" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A656" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B656" s="40" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B656" s="39" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C656" s="4" t="s">
         <v>1741</v>
       </c>
-      <c r="C656" s="4" t="s">
+      <c r="D656" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="D656" s="4" t="s">
+      <c r="E656" s="9" t="s">
         <v>1743</v>
-      </c>
-      <c r="E656" s="9" t="s">
-        <v>1744</v>
       </c>
       <c r="F656" s="10"/>
       <c r="G656" s="10"/>
@@ -20539,22 +20553,22 @@
     </row>
     <row r="657" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B657" s="44" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B657" s="43" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C657" s="4" t="s">
         <v>1745</v>
       </c>
-      <c r="C657" s="4" t="s">
+      <c r="D657" s="4" t="s">
         <v>1746</v>
       </c>
-      <c r="D657" s="4" t="s">
+      <c r="E657" s="9" t="s">
         <v>1747</v>
       </c>
-      <c r="E657" s="9" t="s">
-        <v>1748</v>
-      </c>
       <c r="F657" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G657" s="10"/>
       <c r="H657" s="10"/>
@@ -20586,22 +20600,22 @@
     </row>
     <row r="658" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B658" s="43" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B658" s="42" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C658" s="40" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D658" s="4" t="s">
         <v>1749</v>
       </c>
-      <c r="C658" s="41" t="s">
-        <v>1967</v>
-      </c>
-      <c r="D658" s="4" t="s">
+      <c r="E658" s="9" t="s">
         <v>1750</v>
       </c>
-      <c r="E658" s="9" t="s">
-        <v>1751</v>
-      </c>
       <c r="F658" s="12" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="G658" s="10"/>
       <c r="H658" s="10"/>
@@ -20633,969 +20647,969 @@
     </row>
     <row r="659" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A659" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B659" s="3" t="s">
         <v>1752</v>
-      </c>
-      <c r="B659" s="3" t="s">
-        <v>1753</v>
       </c>
       <c r="C659" s="5"/>
       <c r="D659" s="6" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="E659" s="8"/>
       <c r="F659" s="10"/>
     </row>
     <row r="660" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B660" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C660" s="4" t="s">
         <v>1755</v>
       </c>
-      <c r="C660" s="4" t="s">
+      <c r="D660" s="4" t="s">
         <v>1756</v>
       </c>
-      <c r="D660" s="4" t="s">
+      <c r="E660" s="9" t="s">
         <v>1757</v>
-      </c>
-      <c r="E660" s="9" t="s">
-        <v>1758</v>
       </c>
       <c r="F660" s="10"/>
     </row>
     <row r="661" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B661" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C661" s="4" t="s">
         <v>1759</v>
       </c>
-      <c r="C661" s="4" t="s">
+      <c r="D661" s="4" t="s">
         <v>1760</v>
       </c>
-      <c r="D661" s="4" t="s">
+      <c r="E661" s="9" t="s">
         <v>1761</v>
-      </c>
-      <c r="E661" s="9" t="s">
-        <v>1762</v>
       </c>
       <c r="F661" s="10"/>
     </row>
     <row r="662" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A662" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B662" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="D662" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="C662" s="4" t="s">
-        <v>971</v>
-      </c>
-      <c r="D662" s="4" t="s">
+      <c r="E662" s="9" t="s">
         <v>1764</v>
-      </c>
-      <c r="E662" s="9" t="s">
-        <v>1765</v>
       </c>
       <c r="F662" s="10"/>
     </row>
     <row r="663" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A663" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B663" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C663" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="C663" s="4" t="s">
+      <c r="D663" s="4" t="s">
         <v>1767</v>
       </c>
-      <c r="D663" s="4" t="s">
+      <c r="E663" s="9" t="s">
         <v>1768</v>
-      </c>
-      <c r="E663" s="9" t="s">
-        <v>1769</v>
       </c>
       <c r="F663" s="10"/>
     </row>
     <row r="664" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A664" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B664" s="3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C664" s="4" t="s">
         <v>1770</v>
       </c>
-      <c r="C664" s="4" t="s">
+      <c r="D664" s="4" t="s">
         <v>1771</v>
       </c>
-      <c r="D664" s="4" t="s">
+      <c r="E664" s="9" t="s">
         <v>1772</v>
-      </c>
-      <c r="E664" s="9" t="s">
-        <v>1773</v>
       </c>
       <c r="F664" s="10"/>
     </row>
     <row r="665" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A665" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B665" s="3" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C665" s="4" t="s">
         <v>1774</v>
       </c>
-      <c r="C665" s="4" t="s">
+      <c r="D665" s="4" t="s">
         <v>1775</v>
       </c>
-      <c r="D665" s="4" t="s">
+      <c r="E665" s="9" t="s">
         <v>1776</v>
-      </c>
-      <c r="E665" s="9" t="s">
-        <v>1777</v>
       </c>
       <c r="F665" s="10"/>
     </row>
     <row r="666" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A666" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B666" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="C666" s="4" t="s">
         <v>1778</v>
       </c>
-      <c r="C666" s="4" t="s">
+      <c r="D666" s="4" t="s">
         <v>1779</v>
       </c>
-      <c r="D666" s="4" t="s">
+      <c r="E666" s="9" t="s">
         <v>1780</v>
-      </c>
-      <c r="E666" s="9" t="s">
-        <v>1781</v>
       </c>
       <c r="F666" s="10"/>
     </row>
     <row r="667" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A667" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="C667" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D667" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E667" s="9" t="s">
         <v>1783</v>
-      </c>
-      <c r="E667" s="9" t="s">
-        <v>1784</v>
       </c>
       <c r="F667" s="10"/>
     </row>
     <row r="668" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A668" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B668" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C668" s="4" t="s">
         <v>1785</v>
       </c>
-      <c r="C668" s="4" t="s">
+      <c r="D668" s="4" t="s">
         <v>1786</v>
       </c>
-      <c r="D668" s="4" t="s">
+      <c r="E668" s="9" t="s">
         <v>1787</v>
-      </c>
-      <c r="E668" s="9" t="s">
-        <v>1788</v>
       </c>
       <c r="F668" s="10"/>
     </row>
     <row r="669" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C669" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D669" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="D669" s="4" t="s">
+      <c r="E669" s="9" t="s">
         <v>1790</v>
-      </c>
-      <c r="E669" s="9" t="s">
-        <v>1791</v>
       </c>
       <c r="F669" s="10"/>
     </row>
     <row r="670" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B670" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C670" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="D670" s="4" t="s">
         <v>1792</v>
       </c>
-      <c r="C670" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="D670" s="4" t="s">
+      <c r="E670" s="9" t="s">
         <v>1793</v>
-      </c>
-      <c r="E670" s="9" t="s">
-        <v>1794</v>
       </c>
       <c r="F670" s="10"/>
     </row>
     <row r="671" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A671" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B671" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C671" s="4" t="s">
         <v>1795</v>
       </c>
-      <c r="C671" s="4" t="s">
+      <c r="D671" s="4" t="s">
         <v>1796</v>
       </c>
-      <c r="D671" s="4" t="s">
+      <c r="E671" s="9" t="s">
         <v>1797</v>
-      </c>
-      <c r="E671" s="9" t="s">
-        <v>1798</v>
       </c>
       <c r="F671" s="10"/>
     </row>
     <row r="672" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A672" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B672" s="3" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C672" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="C672" s="4" t="s">
+      <c r="D672" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="D672" s="4" t="s">
+      <c r="E672" s="9" t="s">
         <v>1801</v>
-      </c>
-      <c r="E672" s="9" t="s">
-        <v>1802</v>
       </c>
       <c r="F672" s="10"/>
     </row>
     <row r="673" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B673" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C673" s="4" t="s">
         <v>1803</v>
       </c>
-      <c r="C673" s="4" t="s">
+      <c r="D673" s="4" t="s">
         <v>1804</v>
       </c>
-      <c r="D673" s="4" t="s">
+      <c r="E673" s="9" t="s">
         <v>1805</v>
-      </c>
-      <c r="E673" s="9" t="s">
-        <v>1806</v>
       </c>
       <c r="F673" s="10"/>
     </row>
     <row r="674" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B674" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C674" s="4" t="s">
+        <v>879</v>
+      </c>
+      <c r="D674" s="4" t="s">
         <v>1807</v>
       </c>
-      <c r="C674" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="D674" s="4" t="s">
+      <c r="E674" s="9" t="s">
         <v>1808</v>
-      </c>
-      <c r="E674" s="9" t="s">
-        <v>1809</v>
       </c>
       <c r="F674" s="10"/>
     </row>
     <row r="675" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A675" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B675" s="3" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C675" s="4" t="s">
         <v>1810</v>
       </c>
-      <c r="C675" s="4" t="s">
+      <c r="D675" s="4" t="s">
         <v>1811</v>
       </c>
-      <c r="D675" s="4" t="s">
+      <c r="E675" s="9" t="s">
         <v>1812</v>
-      </c>
-      <c r="E675" s="9" t="s">
-        <v>1813</v>
       </c>
       <c r="F675" s="10"/>
     </row>
     <row r="676" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A676" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B676" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C676" s="4" t="s">
         <v>1814</v>
       </c>
-      <c r="C676" s="4" t="s">
+      <c r="D676" s="4" t="s">
         <v>1815</v>
       </c>
-      <c r="D676" s="4" t="s">
+      <c r="E676" s="9" t="s">
         <v>1816</v>
-      </c>
-      <c r="E676" s="9" t="s">
-        <v>1817</v>
       </c>
       <c r="F676" s="10"/>
     </row>
     <row r="677" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A677" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B677" s="3" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C677" s="4" t="s">
         <v>1818</v>
       </c>
-      <c r="C677" s="4" t="s">
+      <c r="D677" s="4" t="s">
         <v>1819</v>
       </c>
-      <c r="D677" s="4" t="s">
+      <c r="E677" s="9" t="s">
         <v>1820</v>
-      </c>
-      <c r="E677" s="9" t="s">
-        <v>1821</v>
       </c>
       <c r="F677" s="10"/>
     </row>
     <row r="678" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B678" s="3" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C678" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="C678" s="4" t="s">
+      <c r="D678" s="4" t="s">
         <v>1823</v>
       </c>
-      <c r="D678" s="4" t="s">
+      <c r="E678" s="9" t="s">
         <v>1824</v>
-      </c>
-      <c r="E678" s="9" t="s">
-        <v>1825</v>
       </c>
       <c r="F678" s="10"/>
     </row>
     <row r="679" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B679" s="3" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C679" s="4" t="s">
         <v>1826</v>
       </c>
-      <c r="C679" s="4" t="s">
+      <c r="D679" s="4" t="s">
         <v>1827</v>
       </c>
-      <c r="D679" s="4" t="s">
+      <c r="E679" s="9" t="s">
         <v>1828</v>
-      </c>
-      <c r="E679" s="9" t="s">
-        <v>1829</v>
       </c>
       <c r="F679" s="10"/>
     </row>
     <row r="680" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A680" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B680" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C680" s="4" t="s">
         <v>1830</v>
       </c>
-      <c r="C680" s="4" t="s">
+      <c r="D680" s="4" t="s">
         <v>1831</v>
       </c>
-      <c r="D680" s="4" t="s">
+      <c r="E680" s="9" t="s">
         <v>1832</v>
-      </c>
-      <c r="E680" s="9" t="s">
-        <v>1833</v>
       </c>
       <c r="F680" s="10"/>
     </row>
     <row r="681" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A681" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B681" s="3" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C681" s="4" t="s">
         <v>1834</v>
       </c>
-      <c r="C681" s="4" t="s">
+      <c r="D681" s="4" t="s">
         <v>1835</v>
       </c>
-      <c r="D681" s="4" t="s">
+      <c r="E681" s="9" t="s">
         <v>1836</v>
-      </c>
-      <c r="E681" s="9" t="s">
-        <v>1837</v>
       </c>
       <c r="F681" s="10"/>
     </row>
     <row r="682" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A682" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B682" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C682" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="C682" s="4" t="s">
+      <c r="D682" s="4" t="s">
         <v>1839</v>
       </c>
-      <c r="D682" s="4" t="s">
+      <c r="E682" s="9" t="s">
         <v>1840</v>
-      </c>
-      <c r="E682" s="9" t="s">
-        <v>1841</v>
       </c>
       <c r="F682" s="10"/>
     </row>
     <row r="683" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B683" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C683" s="4" t="s">
         <v>1842</v>
       </c>
-      <c r="C683" s="4" t="s">
+      <c r="D683" s="4" t="s">
         <v>1843</v>
       </c>
-      <c r="D683" s="4" t="s">
+      <c r="E683" s="9" t="s">
         <v>1844</v>
-      </c>
-      <c r="E683" s="9" t="s">
-        <v>1845</v>
       </c>
       <c r="F683" s="10"/>
     </row>
     <row r="684" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B684" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C684" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D684" s="4" t="s">
         <v>1846</v>
       </c>
-      <c r="C684" s="4" t="s">
-        <v>1815</v>
-      </c>
-      <c r="D684" s="4" t="s">
+      <c r="E684" s="9" t="s">
         <v>1847</v>
-      </c>
-      <c r="E684" s="9" t="s">
-        <v>1848</v>
       </c>
       <c r="F684" s="10"/>
     </row>
     <row r="685" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A685" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B685" s="3" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C685" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D685" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="C685" s="4" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D685" s="4" t="s">
+      <c r="E685" s="9" t="s">
         <v>1850</v>
-      </c>
-      <c r="E685" s="9" t="s">
-        <v>1851</v>
       </c>
       <c r="F685" s="10"/>
     </row>
     <row r="686" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A686" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B686" s="3" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C686" s="4" t="s">
         <v>1852</v>
       </c>
-      <c r="C686" s="4" t="s">
+      <c r="D686" s="4" t="s">
         <v>1853</v>
       </c>
-      <c r="D686" s="4" t="s">
+      <c r="E686" s="9" t="s">
         <v>1854</v>
-      </c>
-      <c r="E686" s="9" t="s">
-        <v>1855</v>
       </c>
       <c r="F686" s="10"/>
     </row>
     <row r="687" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A687" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B687" s="3" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C687" s="4" t="s">
         <v>1856</v>
       </c>
-      <c r="C687" s="4" t="s">
+      <c r="D687" s="4" t="s">
         <v>1857</v>
       </c>
-      <c r="D687" s="4" t="s">
+      <c r="E687" s="9" t="s">
         <v>1858</v>
-      </c>
-      <c r="E687" s="9" t="s">
-        <v>1859</v>
       </c>
       <c r="F687" s="10"/>
     </row>
     <row r="688" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A688" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B688" s="3" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C688" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D688" s="4" t="s">
         <v>1860</v>
       </c>
-      <c r="C688" s="4" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D688" s="4" t="s">
+      <c r="E688" s="9" t="s">
         <v>1861</v>
-      </c>
-      <c r="E688" s="9" t="s">
-        <v>1862</v>
       </c>
       <c r="F688" s="10"/>
     </row>
     <row r="689" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A689" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B689" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C689" s="4" t="s">
         <v>1863</v>
       </c>
-      <c r="C689" s="4" t="s">
+      <c r="D689" s="4" t="s">
         <v>1864</v>
       </c>
-      <c r="D689" s="4" t="s">
+      <c r="E689" s="9" t="s">
         <v>1865</v>
-      </c>
-      <c r="E689" s="9" t="s">
-        <v>1866</v>
       </c>
       <c r="F689" s="10"/>
     </row>
     <row r="690" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A690" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B690" s="3" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C690" s="4" t="s">
         <v>1867</v>
       </c>
-      <c r="C690" s="4" t="s">
+      <c r="D690" s="4" t="s">
         <v>1868</v>
       </c>
-      <c r="D690" s="4" t="s">
-        <v>1869</v>
-      </c>
       <c r="E690" s="9" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="F690" s="10"/>
     </row>
     <row r="691" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A691" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B691" s="3" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C691" s="4" t="s">
         <v>1870</v>
       </c>
-      <c r="C691" s="4" t="s">
+      <c r="D691" s="4" t="s">
         <v>1871</v>
       </c>
-      <c r="D691" s="4" t="s">
+      <c r="E691" s="9" t="s">
         <v>1872</v>
-      </c>
-      <c r="E691" s="9" t="s">
-        <v>1873</v>
       </c>
       <c r="F691" s="10"/>
     </row>
     <row r="692" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A692" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B692" s="3" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C692" s="4" t="s">
         <v>1874</v>
       </c>
-      <c r="C692" s="4" t="s">
+      <c r="D692" s="4" t="s">
         <v>1875</v>
       </c>
-      <c r="D692" s="4" t="s">
+      <c r="E692" s="9" t="s">
         <v>1876</v>
-      </c>
-      <c r="E692" s="9" t="s">
-        <v>1877</v>
       </c>
       <c r="F692" s="10"/>
     </row>
     <row r="693" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A693" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B693" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C693" s="4" t="s">
         <v>1878</v>
       </c>
-      <c r="C693" s="4" t="s">
+      <c r="D693" s="4" t="s">
         <v>1879</v>
       </c>
-      <c r="D693" s="4" t="s">
+      <c r="E693" s="9" t="s">
         <v>1880</v>
-      </c>
-      <c r="E693" s="9" t="s">
-        <v>1881</v>
       </c>
       <c r="F693" s="10"/>
     </row>
     <row r="694" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A694" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B694" s="3" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C694" s="4" t="s">
         <v>1882</v>
       </c>
-      <c r="C694" s="4" t="s">
+      <c r="D694" s="4" t="s">
         <v>1883</v>
       </c>
-      <c r="D694" s="4" t="s">
+      <c r="E694" s="9" t="s">
         <v>1884</v>
-      </c>
-      <c r="E694" s="9" t="s">
-        <v>1885</v>
       </c>
       <c r="F694" s="10"/>
     </row>
     <row r="695" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A695" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B695" s="3" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C695" s="6" t="s">
         <v>1886</v>
       </c>
-      <c r="C695" s="6" t="s">
+      <c r="D695" s="4" t="s">
         <v>1887</v>
       </c>
-      <c r="D695" s="4" t="s">
+      <c r="E695" s="9" t="s">
         <v>1888</v>
-      </c>
-      <c r="E695" s="9" t="s">
-        <v>1889</v>
       </c>
       <c r="F695" s="10"/>
     </row>
     <row r="696" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A696" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B696" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C696" s="4" t="s">
         <v>1890</v>
       </c>
-      <c r="C696" s="4" t="s">
+      <c r="D696" s="4" t="s">
         <v>1891</v>
       </c>
-      <c r="D696" s="4" t="s">
+      <c r="E696" s="9" t="s">
         <v>1892</v>
-      </c>
-      <c r="E696" s="9" t="s">
-        <v>1893</v>
       </c>
       <c r="F696" s="10"/>
     </row>
     <row r="697" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A697" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B697" s="3" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C697" s="4" t="s">
         <v>1894</v>
       </c>
-      <c r="C697" s="4" t="s">
+      <c r="D697" s="4" t="s">
         <v>1895</v>
       </c>
-      <c r="D697" s="4" t="s">
+      <c r="E697" s="9" t="s">
         <v>1896</v>
-      </c>
-      <c r="E697" s="9" t="s">
-        <v>1897</v>
       </c>
       <c r="F697" s="10"/>
     </row>
     <row r="698" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A698" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B698" s="3" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C698" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D698" s="4" t="s">
         <v>1898</v>
       </c>
-      <c r="C698" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="D698" s="4" t="s">
+      <c r="E698" s="9" t="s">
         <v>1899</v>
-      </c>
-      <c r="E698" s="9" t="s">
-        <v>1900</v>
       </c>
       <c r="F698" s="10"/>
     </row>
     <row r="699" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A699" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B699" s="3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C699" s="4" t="s">
         <v>1901</v>
       </c>
-      <c r="C699" s="4" t="s">
+      <c r="D699" s="4" t="s">
         <v>1902</v>
       </c>
-      <c r="D699" s="4" t="s">
+      <c r="E699" s="9" t="s">
         <v>1903</v>
-      </c>
-      <c r="E699" s="9" t="s">
-        <v>1904</v>
       </c>
       <c r="F699" s="10"/>
     </row>
     <row r="700" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A700" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B700" s="3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C700" s="4" t="s">
         <v>1905</v>
       </c>
-      <c r="C700" s="4" t="s">
+      <c r="D700" s="4" t="s">
         <v>1906</v>
       </c>
-      <c r="D700" s="4" t="s">
+      <c r="E700" s="9" t="s">
         <v>1907</v>
-      </c>
-      <c r="E700" s="9" t="s">
-        <v>1908</v>
       </c>
       <c r="F700" s="10"/>
     </row>
     <row r="701" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A701" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B701" s="3" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C701" s="4" t="s">
         <v>1909</v>
       </c>
-      <c r="C701" s="4" t="s">
+      <c r="D701" s="4" t="s">
         <v>1910</v>
       </c>
-      <c r="D701" s="4" t="s">
+      <c r="E701" s="9" t="s">
         <v>1911</v>
-      </c>
-      <c r="E701" s="9" t="s">
-        <v>1912</v>
       </c>
       <c r="F701" s="10"/>
     </row>
     <row r="702" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A702" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B702" s="3" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C702" s="4" t="s">
         <v>1913</v>
       </c>
-      <c r="C702" s="4" t="s">
+      <c r="D702" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="D702" s="4" t="s">
+      <c r="E702" s="9" t="s">
         <v>1915</v>
-      </c>
-      <c r="E702" s="9" t="s">
-        <v>1916</v>
       </c>
       <c r="F702" s="10"/>
     </row>
     <row r="703" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A703" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B703" s="3" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C703" s="4" t="s">
         <v>1917</v>
       </c>
-      <c r="C703" s="4" t="s">
+      <c r="D703" s="4" t="s">
         <v>1918</v>
       </c>
-      <c r="D703" s="4" t="s">
+      <c r="E703" s="9" t="s">
         <v>1919</v>
-      </c>
-      <c r="E703" s="9" t="s">
-        <v>1920</v>
       </c>
       <c r="F703" s="10"/>
     </row>
     <row r="704" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B704" s="3" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C704" s="4" t="s">
         <v>1921</v>
       </c>
-      <c r="C704" s="4" t="s">
+      <c r="D704" s="4" t="s">
         <v>1922</v>
       </c>
-      <c r="D704" s="4" t="s">
+      <c r="E704" s="9" t="s">
         <v>1923</v>
-      </c>
-      <c r="E704" s="9" t="s">
-        <v>1924</v>
       </c>
       <c r="F704" s="10"/>
     </row>
     <row r="705" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B705" s="3" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C705" s="4" t="s">
         <v>1925</v>
       </c>
-      <c r="C705" s="4" t="s">
+      <c r="D705" s="4" t="s">
         <v>1926</v>
       </c>
-      <c r="D705" s="4" t="s">
+      <c r="E705" s="9" t="s">
         <v>1927</v>
-      </c>
-      <c r="E705" s="9" t="s">
-        <v>1928</v>
       </c>
       <c r="F705" s="10"/>
     </row>
     <row r="706" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B706" s="3" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C706" s="4" t="s">
         <v>1929</v>
       </c>
-      <c r="C706" s="4" t="s">
+      <c r="D706" s="4" t="s">
         <v>1930</v>
       </c>
-      <c r="D706" s="4" t="s">
+      <c r="E706" s="9" t="s">
         <v>1931</v>
-      </c>
-      <c r="E706" s="9" t="s">
-        <v>1932</v>
       </c>
       <c r="F706" s="10"/>
     </row>
     <row r="707" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B707" s="3" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C707" s="4" t="s">
         <v>1933</v>
       </c>
-      <c r="C707" s="4" t="s">
+      <c r="D707" s="4" t="s">
         <v>1934</v>
       </c>
-      <c r="D707" s="4" t="s">
+      <c r="E707" s="9" t="s">
         <v>1935</v>
-      </c>
-      <c r="E707" s="9" t="s">
-        <v>1936</v>
       </c>
       <c r="F707" s="10"/>
     </row>
     <row r="708" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A708" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B708" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C708" s="4" t="s">
         <v>1937</v>
       </c>
-      <c r="C708" s="4" t="s">
+      <c r="D708" s="4" t="s">
         <v>1938</v>
       </c>
-      <c r="D708" s="4" t="s">
+      <c r="E708" s="9" t="s">
         <v>1939</v>
-      </c>
-      <c r="E708" s="9" t="s">
-        <v>1940</v>
       </c>
       <c r="F708" s="10"/>
     </row>
     <row r="709" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A709" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B709" s="3" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C709" s="4" t="s">
         <v>1941</v>
       </c>
-      <c r="C709" s="4" t="s">
+      <c r="D709" s="4" t="s">
         <v>1942</v>
       </c>
-      <c r="D709" s="4" t="s">
+      <c r="E709" s="9" t="s">
         <v>1943</v>
-      </c>
-      <c r="E709" s="9" t="s">
-        <v>1944</v>
       </c>
       <c r="F709" s="10"/>
     </row>
     <row r="710" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A710" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B710" s="3" t="s">
+        <v>1944</v>
+      </c>
+      <c r="C710" s="4" t="s">
         <v>1945</v>
       </c>
-      <c r="C710" s="4" t="s">
+      <c r="D710" s="4" t="s">
         <v>1946</v>
       </c>
-      <c r="D710" s="4" t="s">
+      <c r="E710" s="9" t="s">
         <v>1947</v>
-      </c>
-      <c r="E710" s="9" t="s">
-        <v>1948</v>
       </c>
       <c r="F710" s="10"/>
     </row>
     <row r="711" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A711" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B711" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C711" s="4" t="s">
         <v>1949</v>
       </c>
-      <c r="C711" s="4" t="s">
+      <c r="D711" s="4" t="s">
         <v>1950</v>
       </c>
-      <c r="D711" s="4" t="s">
+      <c r="E711" s="9" t="s">
         <v>1951</v>
-      </c>
-      <c r="E711" s="9" t="s">
-        <v>1952</v>
       </c>
       <c r="F711" s="10"/>
     </row>
     <row r="712" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A712" s="2" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B712" s="3" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C712" s="4" t="s">
         <v>1953</v>
       </c>
-      <c r="C712" s="4" t="s">
+      <c r="D712" s="4" t="s">
         <v>1954</v>
       </c>
-      <c r="D712" s="4" t="s">
+      <c r="E712" s="9" t="s">
         <v>1955</v>
-      </c>
-      <c r="E712" s="9" t="s">
-        <v>1956</v>
       </c>
       <c r="F712" s="10"/>
     </row>

--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93C7B95-B0B3-7944-9626-6AD6934F41CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A930A33-4CD4-2044-9362-D21C90B279A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1967">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -5946,9 +5946,6 @@
   </si>
   <si>
     <t>to do (by someone) (passive 受身形)</t>
-  </si>
-  <si>
-    <t>somewhat done, but should add something to analyze nouns if they have 甲斐in them….</t>
   </si>
 </sst>
 </file>
@@ -7461,8 +7458,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A231" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A225" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10819,7 +10816,7 @@
       <c r="A236" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B236" s="38" t="s">
+      <c r="B236" s="39" t="s">
         <v>468</v>
       </c>
       <c r="C236" s="4" t="s">
@@ -10830,9 +10827,7 @@
       <c r="F236" s="12" t="s">
         <v>1956</v>
       </c>
-      <c r="G236" s="7" t="s">
-        <v>1967</v>
-      </c>
+      <c r="G236" s="7"/>
     </row>
     <row r="237" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">

--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A930A33-4CD4-2044-9362-D21C90B279A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E87B56-54DF-0240-B020-3FE60D971C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1967">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -7458,8 +7458,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A225" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A339" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7508,7 +7508,7 @@
       <c r="F2" s="18"/>
       <c r="H2" s="1">
         <f>COUNTA(F:F)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1960</v>
@@ -10847,7 +10847,7 @@
       <c r="A238" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B238" s="13" t="s">
+      <c r="B238" s="39" t="s">
         <v>472</v>
       </c>
       <c r="C238" s="4" t="s">
@@ -10855,7 +10855,9 @@
       </c>
       <c r="D238" s="5"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="10"/>
+      <c r="F238" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="239" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
@@ -12359,7 +12361,7 @@
       <c r="A346" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="13" t="s">
         <v>679</v>
       </c>
       <c r="C346" s="4" t="s">
@@ -13426,7 +13428,7 @@
       </c>
       <c r="H421" s="10">
         <f>COUNTA(F:F)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">

--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E87B56-54DF-0240-B020-3FE60D971C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497497B8-4A1F-FF46-994F-680F3C58ED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="1967">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -7458,8 +7458,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A339" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A336" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F346" sqref="F346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7508,7 +7508,7 @@
       <c r="F2" s="18"/>
       <c r="H2" s="1">
         <f>COUNTA(F:F)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1960</v>
@@ -12333,7 +12333,7 @@
       <c r="A344" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B344" s="13" t="s">
+      <c r="B344" s="39" t="s">
         <v>675</v>
       </c>
       <c r="C344" s="4" t="s">
@@ -12341,13 +12341,15 @@
       </c>
       <c r="D344" s="5"/>
       <c r="E344" s="8"/>
-      <c r="F344" s="10"/>
+      <c r="F344" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="345" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B345" s="13" t="s">
+      <c r="B345" s="39" t="s">
         <v>677</v>
       </c>
       <c r="C345" s="4" t="s">
@@ -12355,13 +12357,15 @@
       </c>
       <c r="D345" s="5"/>
       <c r="E345" s="8"/>
-      <c r="F345" s="10"/>
+      <c r="F345" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="346" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B346" s="13" t="s">
+      <c r="B346" s="39" t="s">
         <v>679</v>
       </c>
       <c r="C346" s="4" t="s">
@@ -12369,7 +12373,9 @@
       </c>
       <c r="D346" s="5"/>
       <c r="E346" s="8"/>
-      <c r="F346" s="10"/>
+      <c r="F346" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="347" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
@@ -13428,7 +13434,7 @@
       </c>
       <c r="H421" s="10">
         <f>COUNTA(F:F)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">

--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497497B8-4A1F-FF46-994F-680F3C58ED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF16127-0A17-6941-A643-4B4C27945C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1967">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -7458,8 +7458,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A336" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F346" sqref="F346"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A259" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B299" sqref="B299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7508,7 +7508,7 @@
       <c r="F2" s="18"/>
       <c r="H2" s="1">
         <f>COUNTA(F:F)</f>
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1960</v>
@@ -10863,7 +10863,7 @@
       <c r="A239" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B239" s="39" t="s">
         <v>474</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -10871,7 +10871,9 @@
       </c>
       <c r="D239" s="5"/>
       <c r="E239" s="8"/>
-      <c r="F239" s="10"/>
+      <c r="F239" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="240" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
@@ -10933,7 +10935,7 @@
       <c r="A244" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B244" s="13" t="s">
+      <c r="B244" s="39" t="s">
         <v>484</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -10941,7 +10943,9 @@
       </c>
       <c r="D244" s="5"/>
       <c r="E244" s="8"/>
-      <c r="F244" s="10"/>
+      <c r="F244" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="245" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
@@ -10961,7 +10965,7 @@
       <c r="A246" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="B246" s="39" t="s">
         <v>488</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -10969,13 +10973,15 @@
       </c>
       <c r="D246" s="5"/>
       <c r="E246" s="8"/>
-      <c r="F246" s="10"/>
+      <c r="F246" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="247" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="B247" s="39" t="s">
         <v>490</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -10983,7 +10989,9 @@
       </c>
       <c r="D247" s="5"/>
       <c r="E247" s="8"/>
-      <c r="F247" s="10"/>
+      <c r="F247" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="248" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
@@ -12759,7 +12767,7 @@
       <c r="A374" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B374" s="13" t="s">
+      <c r="B374" s="39" t="s">
         <v>734</v>
       </c>
       <c r="C374" s="4" t="s">
@@ -12767,7 +12775,9 @@
       </c>
       <c r="D374" s="5"/>
       <c r="E374" s="8"/>
-      <c r="F374" s="10"/>
+      <c r="F374" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="375" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="2" t="s">
@@ -13434,7 +13444,7 @@
       </c>
       <c r="H421" s="10">
         <f>COUNTA(F:F)</f>
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">

--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF16127-0A17-6941-A643-4B4C27945C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BE5B96-127B-4F4A-934A-8FF6312D1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="1967">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -7458,8 +7458,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A259" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B299" sqref="B299"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A260" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7508,7 +7508,7 @@
       <c r="F2" s="18"/>
       <c r="H2" s="1">
         <f>COUNTA(F:F)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1960</v>
@@ -11205,9 +11205,9 @@
     </row>
     <row r="263" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B263" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="B263" s="39" t="s">
         <v>521</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -11215,7 +11215,9 @@
       </c>
       <c r="D263" s="5"/>
       <c r="E263" s="8"/>
-      <c r="F263" s="10"/>
+      <c r="F263" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="264" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
@@ -11235,7 +11237,7 @@
       <c r="A265" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B265" s="13" t="s">
+      <c r="B265" s="39" t="s">
         <v>525</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -11243,7 +11245,9 @@
       </c>
       <c r="D265" s="5"/>
       <c r="E265" s="8"/>
-      <c r="F265" s="10"/>
+      <c r="F265" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="266" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
@@ -13444,7 +13448,7 @@
       </c>
       <c r="H421" s="10">
         <f>COUNTA(F:F)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">

--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BE5B96-127B-4F4A-934A-8FF6312D1EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BA8B38-9A92-564D-A501-B76A2DE212FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2824" uniqueCount="1967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1967">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -7458,8 +7458,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A260" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A303" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F299" sqref="F299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7508,7 +7508,7 @@
       <c r="F2" s="18"/>
       <c r="H2" s="1">
         <f>COUNTA(F:F)</f>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>1960</v>
@@ -11253,7 +11253,7 @@
       <c r="A266" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B266" s="13" t="s">
+      <c r="B266" s="39" t="s">
         <v>527</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -11261,13 +11261,15 @@
       </c>
       <c r="D266" s="5"/>
       <c r="E266" s="8"/>
-      <c r="F266" s="10"/>
+      <c r="F266" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="267" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="39" t="s">
         <v>528</v>
       </c>
       <c r="C267" s="4" t="s">
@@ -11275,7 +11277,9 @@
       </c>
       <c r="D267" s="5"/>
       <c r="E267" s="8"/>
-      <c r="F267" s="10"/>
+      <c r="F267" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="268" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
@@ -11421,7 +11425,7 @@
       <c r="A278" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B278" s="13" t="s">
+      <c r="B278" s="39" t="s">
         <v>550</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -11429,13 +11433,15 @@
       </c>
       <c r="D278" s="5"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="10"/>
+      <c r="F278" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="279" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B279" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="B279" s="39" t="s">
         <v>552</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -11443,7 +11449,9 @@
       </c>
       <c r="D279" s="5"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="10"/>
+      <c r="F279" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="280" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
@@ -11477,7 +11485,7 @@
       <c r="A282" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B282" s="13" t="s">
+      <c r="B282" s="39" t="s">
         <v>558</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -11485,7 +11493,9 @@
       </c>
       <c r="D282" s="5"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="10"/>
+      <c r="F282" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="283" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
@@ -11517,9 +11527,9 @@
     </row>
     <row r="285" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B285" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="B285" s="39" t="s">
         <v>564</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -11527,7 +11537,9 @@
       </c>
       <c r="D285" s="5"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="10"/>
+      <c r="F285" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="286" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
@@ -11687,7 +11699,7 @@
       <c r="A297" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B297" s="13" t="s">
+      <c r="B297" s="39" t="s">
         <v>586</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -11695,13 +11707,15 @@
       </c>
       <c r="D297" s="5"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="10"/>
+      <c r="F297" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="298" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B298" s="3" t="s">
+      <c r="B298" s="39" t="s">
         <v>588</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -11713,9 +11727,9 @@
     </row>
     <row r="299" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B299" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="B299" s="39" t="s">
         <v>590</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -11723,7 +11737,9 @@
       </c>
       <c r="D299" s="5"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="10"/>
+      <c r="F299" s="12" t="s">
+        <v>1956</v>
+      </c>
     </row>
     <row r="300" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
@@ -13448,7 +13464,7 @@
       </c>
       <c r="H421" s="10">
         <f>COUNTA(F:F)</f>
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">

--- a/jlpt_grammar.xlsx
+++ b/jlpt_grammar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megu/Documents/Tübingen Universität/Thesis/FeatureExtractor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797E8B07-7607-4946-ABA7-D432E5178C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417817C7-4FC4-8244-AD68-BB7CC803B358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="24060" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="1966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="1966">
   <si>
     <t>JLPT Level</t>
   </si>
@@ -5981,7 +5981,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6008,12 +6008,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6033,6 +6027,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6187,7 +6193,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6227,9 +6233,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6254,7 +6257,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -6263,10 +6266,10 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -6275,7 +6278,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -6287,16 +6290,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6305,16 +6308,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -7452,8 +7461,8 @@
   </sheetPr>
   <dimension ref="A1:AG712"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7468,19 +7477,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="12" t="s">
@@ -7488,27 +7497,27 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="32" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="31" t="s">
         <v>1953</v>
       </c>
       <c r="H2" s="1">
         <f>COUNTA(F:F)</f>
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -7526,7 +7535,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -7542,7 +7551,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7554,7 +7563,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -7568,7 +7577,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -7586,7 +7595,7 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -7598,7 +7607,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -7612,7 +7621,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -7626,7 +7635,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -7640,7 +7649,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -7654,7 +7663,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -7668,7 +7677,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -7682,7 +7691,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -7696,7 +7705,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -7710,7 +7719,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -7724,7 +7733,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
@@ -7738,7 +7747,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -7752,7 +7761,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -7766,7 +7775,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -7780,7 +7789,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -7794,7 +7803,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -7808,7 +7817,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>5</v>
       </c>
@@ -7822,7 +7831,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -7840,7 +7849,7 @@
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -7852,7 +7861,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -7866,7 +7875,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -7880,7 +7889,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -7894,7 +7903,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -7908,7 +7917,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -7922,7 +7931,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>5</v>
       </c>
@@ -7936,7 +7945,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="10"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -7950,7 +7959,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="10"/>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -7964,11 +7973,11 @@
       <c r="E34" s="8"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -7982,7 +7991,7 @@
       <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -7998,7 +8007,7 @@
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -8010,7 +8019,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>5</v>
       </c>
@@ -8024,7 +8033,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -8038,7 +8047,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>5</v>
       </c>
@@ -8052,7 +8061,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -8066,7 +8075,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
@@ -8080,7 +8089,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="10"/>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -8094,7 +8103,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="10"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>5</v>
       </c>
@@ -8108,7 +8117,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="10"/>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -8122,7 +8131,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="10"/>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -8136,7 +8145,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="10"/>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -8154,7 +8163,7 @@
       <c r="A48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="35" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -8166,7 +8175,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -8180,7 +8189,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="10"/>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -8194,7 +8203,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="10"/>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -8208,7 +8217,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="10"/>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>5</v>
       </c>
@@ -8226,7 +8235,7 @@
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="35" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -8242,7 +8251,7 @@
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="38" t="s">
         <v>109</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -8254,7 +8263,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -8272,7 +8281,7 @@
       <c r="A56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="35" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -8284,7 +8293,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>5</v>
       </c>
@@ -8298,7 +8307,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>5</v>
       </c>
@@ -8312,7 +8321,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>5</v>
       </c>
@@ -8326,7 +8335,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>5</v>
       </c>
@@ -8340,7 +8349,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="10"/>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -8354,7 +8363,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -8368,7 +8377,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -8382,7 +8391,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -8396,7 +8405,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>5</v>
       </c>
@@ -8410,7 +8419,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -8424,7 +8433,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -8438,7 +8447,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -8452,7 +8461,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>5</v>
       </c>
@@ -8466,7 +8475,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>5</v>
       </c>
@@ -8480,7 +8489,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
@@ -8494,7 +8503,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>5</v>
       </c>
@@ -8508,7 +8517,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>5</v>
       </c>
@@ -8522,7 +8531,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>5</v>
       </c>
@@ -8536,7 +8545,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
@@ -8550,7 +8559,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="10"/>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>5</v>
       </c>
@@ -8564,7 +8573,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -8578,7 +8587,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>5</v>
       </c>
@@ -8592,7 +8601,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>5</v>
       </c>
@@ -8606,7 +8615,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>5</v>
       </c>
@@ -8624,7 +8633,7 @@
       <c r="A81" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="35" t="s">
         <v>161</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -8636,7 +8645,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>5</v>
       </c>
@@ -8650,7 +8659,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>5</v>
       </c>
@@ -8664,7 +8673,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>5</v>
       </c>
@@ -8678,7 +8687,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>5</v>
       </c>
@@ -8692,7 +8701,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -8706,7 +8715,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>5</v>
       </c>
@@ -8720,7 +8729,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
@@ -8734,7 +8743,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="10"/>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
@@ -8748,7 +8757,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="10"/>
     </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>5</v>
       </c>
@@ -8762,7 +8771,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>5</v>
       </c>
@@ -8776,7 +8785,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>5</v>
       </c>
@@ -8790,7 +8799,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>5</v>
       </c>
@@ -8804,7 +8813,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>5</v>
       </c>
@@ -8818,7 +8827,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
@@ -8832,7 +8841,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>5</v>
       </c>
@@ -8846,7 +8855,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -8860,7 +8869,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="10"/>
     </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>5</v>
       </c>
@@ -8874,7 +8883,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
@@ -8888,7 +8897,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>5</v>
       </c>
@@ -8902,7 +8911,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="10"/>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -8916,7 +8925,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="10"/>
     </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -8930,7 +8939,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="10"/>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>5</v>
       </c>
@@ -8944,7 +8953,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
@@ -8958,7 +8967,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="10"/>
     </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>5</v>
       </c>
@@ -8972,7 +8981,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="10"/>
     </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>5</v>
       </c>
@@ -8986,7 +8995,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="10"/>
     </row>
-    <row r="107" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>5</v>
       </c>
@@ -9000,7 +9009,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="10"/>
     </row>
-    <row r="108" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
@@ -9014,7 +9023,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>5</v>
       </c>
@@ -9028,7 +9037,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="10"/>
     </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
@@ -9042,7 +9051,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="10"/>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>5</v>
       </c>
@@ -9056,7 +9065,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="10"/>
     </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
@@ -9070,7 +9079,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="10"/>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>5</v>
       </c>
@@ -9084,7 +9093,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="10"/>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>5</v>
       </c>
@@ -9098,7 +9107,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="10"/>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>5</v>
       </c>
@@ -9112,7 +9121,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="10"/>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
@@ -9126,7 +9135,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="10"/>
     </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>5</v>
       </c>
@@ -9140,7 +9149,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="10"/>
     </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>5</v>
       </c>
@@ -9154,7 +9163,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="10"/>
     </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -9168,7 +9177,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="10"/>
     </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>5</v>
       </c>
@@ -9182,7 +9191,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="10"/>
     </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>5</v>
       </c>
@@ -9196,7 +9205,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="10"/>
     </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>5</v>
       </c>
@@ -9210,7 +9219,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="10"/>
     </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>5</v>
       </c>
@@ -9224,7 +9233,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="10"/>
     </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
         <v>5</v>
       </c>
@@ -9238,7 +9247,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="10"/>
     </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
         <v>5</v>
       </c>
@@ -9252,7 +9261,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="10"/>
     </row>
-    <row r="126" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
         <v>5</v>
       </c>
@@ -9266,7 +9275,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="10"/>
     </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
@@ -9280,7 +9289,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="10"/>
     </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
         <v>5</v>
       </c>
@@ -9294,7 +9303,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="10"/>
     </row>
-    <row r="129" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
         <v>5</v>
       </c>
@@ -9308,7 +9317,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="10"/>
     </row>
-    <row r="130" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -9322,7 +9331,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="10"/>
     </row>
-    <row r="131" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
         <v>5</v>
       </c>
@@ -9336,7 +9345,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="10"/>
     </row>
-    <row r="132" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
         <v>5</v>
       </c>
@@ -9350,7 +9359,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="10"/>
     </row>
-    <row r="133" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
         <v>5</v>
       </c>
@@ -9364,7 +9373,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="10"/>
     </row>
-    <row r="134" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
         <v>5</v>
       </c>
@@ -9378,7 +9387,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="10"/>
     </row>
-    <row r="135" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
@@ -9392,7 +9401,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="10"/>
     </row>
-    <row r="136" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
         <v>5</v>
       </c>
@@ -9406,7 +9415,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="10"/>
     </row>
-    <row r="137" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
         <v>5</v>
       </c>
@@ -9420,7 +9429,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="10"/>
     </row>
-    <row r="138" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
         <v>5</v>
       </c>
@@ -9434,7 +9443,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="10"/>
     </row>
-    <row r="139" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
@@ -9448,7 +9457,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="10"/>
     </row>
-    <row r="140" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
         <v>5</v>
       </c>
@@ -9462,7 +9471,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="10"/>
     </row>
-    <row r="141" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
@@ -9476,7 +9485,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="10"/>
     </row>
-    <row r="142" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
         <v>5</v>
       </c>
@@ -9490,7 +9499,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="10"/>
     </row>
-    <row r="143" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
@@ -9504,7 +9513,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
         <v>5</v>
       </c>
@@ -9518,7 +9527,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="10"/>
     </row>
-    <row r="145" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
         <v>5</v>
       </c>
@@ -9532,7 +9541,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="10"/>
     </row>
-    <row r="146" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
         <v>5</v>
       </c>
@@ -9546,7 +9555,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="10"/>
     </row>
-    <row r="147" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
         <v>5</v>
       </c>
@@ -9560,7 +9569,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="10"/>
     </row>
-    <row r="148" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
         <v>5</v>
       </c>
@@ -9574,7 +9583,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="10"/>
     </row>
-    <row r="149" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
         <v>5</v>
       </c>
@@ -9588,11 +9597,11 @@
       <c r="E149" s="8"/>
       <c r="F149" s="10"/>
     </row>
-    <row r="150" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="37" t="s">
         <v>291</v>
       </c>
       <c r="C150" s="4" t="s">
@@ -9602,7 +9611,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="10"/>
     </row>
-    <row r="151" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
         <v>5</v>
       </c>
@@ -9616,7 +9625,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="10"/>
     </row>
-    <row r="152" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
         <v>5</v>
       </c>
@@ -9630,7 +9639,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="10"/>
     </row>
-    <row r="153" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
         <v>5</v>
       </c>
@@ -9644,7 +9653,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="10"/>
     </row>
-    <row r="154" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
         <v>5</v>
       </c>
@@ -9658,7 +9667,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="10"/>
     </row>
-    <row r="155" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
         <v>5</v>
       </c>
@@ -9672,11 +9681,11 @@
       <c r="E155" s="8"/>
       <c r="F155" s="10"/>
     </row>
-    <row r="156" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="42" t="s">
+      <c r="B156" s="41" t="s">
         <v>303</v>
       </c>
       <c r="C156" s="4" t="s">
@@ -9686,11 +9695,11 @@
       <c r="E156" s="8"/>
       <c r="F156" s="10"/>
     </row>
-    <row r="157" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B157" s="40" t="s">
+      <c r="B157" s="39" t="s">
         <v>305</v>
       </c>
       <c r="C157" s="4" t="s">
@@ -9700,7 +9709,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="10"/>
     </row>
-    <row r="158" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
         <v>5</v>
       </c>
@@ -9714,7 +9723,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="10"/>
     </row>
-    <row r="159" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
         <v>5</v>
       </c>
@@ -9728,7 +9737,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="10"/>
     </row>
-    <row r="160" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
         <v>5</v>
       </c>
@@ -9742,7 +9751,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="10"/>
     </row>
-    <row r="161" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
         <v>5</v>
       </c>
@@ -9760,7 +9769,7 @@
       <c r="A162" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B162" s="36" t="s">
+      <c r="B162" s="35" t="s">
         <v>314</v>
       </c>
       <c r="C162" s="4" t="s">
@@ -9772,7 +9781,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
         <v>5</v>
       </c>
@@ -9786,7 +9795,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="10"/>
     </row>
-    <row r="164" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>5</v>
       </c>
@@ -9800,7 +9809,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="10"/>
     </row>
-    <row r="165" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
         <v>5</v>
       </c>
@@ -9818,7 +9827,7 @@
       <c r="A166" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="39" t="s">
+      <c r="B166" s="38" t="s">
         <v>321</v>
       </c>
       <c r="C166" s="4" t="s">
@@ -9830,7 +9839,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
         <v>5</v>
       </c>
@@ -9844,7 +9853,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="10"/>
     </row>
-    <row r="168" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
         <v>5</v>
       </c>
@@ -9858,7 +9867,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="10"/>
     </row>
-    <row r="169" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
         <v>5</v>
       </c>
@@ -9872,7 +9881,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="10"/>
     </row>
-    <row r="170" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
         <v>5</v>
       </c>
@@ -9886,7 +9895,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="10"/>
     </row>
-    <row r="171" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
         <v>5</v>
       </c>
@@ -9900,7 +9909,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="10"/>
     </row>
-    <row r="172" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
         <v>5</v>
       </c>
@@ -9914,7 +9923,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="10"/>
     </row>
-    <row r="173" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
         <v>5</v>
       </c>
@@ -9928,7 +9937,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="10"/>
     </row>
-    <row r="174" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
         <v>5</v>
       </c>
@@ -9942,7 +9951,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="10"/>
     </row>
-    <row r="175" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
         <v>5</v>
       </c>
@@ -9960,7 +9969,7 @@
       <c r="A176" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="35" t="s">
         <v>338</v>
       </c>
       <c r="C176" s="4" t="s">
@@ -9972,7 +9981,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
         <v>5</v>
       </c>
@@ -9986,7 +9995,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="10"/>
     </row>
-    <row r="178" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
         <v>5</v>
       </c>
@@ -10000,7 +10009,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="10"/>
     </row>
-    <row r="179" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
         <v>5</v>
       </c>
@@ -10014,7 +10023,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="10"/>
     </row>
-    <row r="180" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
         <v>5</v>
       </c>
@@ -10028,7 +10037,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="10"/>
     </row>
-    <row r="181" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
         <v>5</v>
       </c>
@@ -10042,7 +10051,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="10"/>
     </row>
-    <row r="182" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
         <v>5</v>
       </c>
@@ -10056,7 +10065,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="10"/>
     </row>
-    <row r="183" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
         <v>5</v>
       </c>
@@ -10070,7 +10079,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="10"/>
     </row>
-    <row r="184" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
         <v>5</v>
       </c>
@@ -10084,7 +10093,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="10"/>
     </row>
-    <row r="185" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
         <v>5</v>
       </c>
@@ -10098,7 +10107,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="10"/>
     </row>
-    <row r="186" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
         <v>5</v>
       </c>
@@ -10112,7 +10121,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="10"/>
     </row>
-    <row r="187" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
         <v>5</v>
       </c>
@@ -10126,7 +10135,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="10"/>
     </row>
-    <row r="188" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
         <v>5</v>
       </c>
@@ -10140,7 +10149,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="10"/>
     </row>
-    <row r="189" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
         <v>5</v>
       </c>
@@ -10154,7 +10163,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="10"/>
     </row>
-    <row r="190" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
         <v>5</v>
       </c>
@@ -10168,7 +10177,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="10"/>
     </row>
-    <row r="191" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
@@ -10182,7 +10191,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="10"/>
     </row>
-    <row r="192" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
         <v>5</v>
       </c>
@@ -10196,7 +10205,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="10"/>
     </row>
-    <row r="193" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
         <v>5</v>
       </c>
@@ -10210,7 +10219,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="10"/>
     </row>
-    <row r="194" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
         <v>5</v>
       </c>
@@ -10224,7 +10233,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="10"/>
     </row>
-    <row r="195" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
         <v>5</v>
       </c>
@@ -10238,7 +10247,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="10"/>
     </row>
-    <row r="196" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
         <v>5</v>
       </c>
@@ -10252,7 +10261,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="10"/>
     </row>
-    <row r="197" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
         <v>5</v>
       </c>
@@ -10266,7 +10275,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="10"/>
     </row>
-    <row r="198" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
         <v>5</v>
       </c>
@@ -10280,7 +10289,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="10"/>
     </row>
-    <row r="199" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
         <v>5</v>
       </c>
@@ -10294,7 +10303,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="10"/>
     </row>
-    <row r="200" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
         <v>5</v>
       </c>
@@ -10312,10 +10321,10 @@
       <c r="A201" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B201" s="36" t="s">
+      <c r="B201" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="C201" s="37" t="s">
+      <c r="C201" s="36" t="s">
         <v>1965</v>
       </c>
       <c r="D201" s="5"/>
@@ -10328,7 +10337,7 @@
       <c r="A202" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B202" s="36" t="s">
+      <c r="B202" s="35" t="s">
         <v>389</v>
       </c>
       <c r="C202" s="4" t="s">
@@ -10340,7 +10349,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
         <v>5</v>
       </c>
@@ -10354,7 +10363,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="10"/>
     </row>
-    <row r="204" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
         <v>5</v>
       </c>
@@ -10368,7 +10377,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="10"/>
     </row>
-    <row r="205" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
         <v>5</v>
       </c>
@@ -10382,7 +10391,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="10"/>
     </row>
-    <row r="206" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
         <v>5</v>
       </c>
@@ -10396,7 +10405,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="10"/>
     </row>
-    <row r="207" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
         <v>5</v>
       </c>
@@ -10410,7 +10419,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="10"/>
     </row>
-    <row r="208" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
         <v>5</v>
       </c>
@@ -10424,7 +10433,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="10"/>
     </row>
-    <row r="209" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
         <v>5</v>
       </c>
@@ -10438,7 +10447,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="10"/>
     </row>
-    <row r="210" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
         <v>5</v>
       </c>
@@ -10452,7 +10461,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="10"/>
     </row>
-    <row r="211" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
         <v>5</v>
       </c>
@@ -10466,7 +10475,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="10"/>
     </row>
-    <row r="212" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
         <v>5</v>
       </c>
@@ -10480,7 +10489,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="10"/>
     </row>
-    <row r="213" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
         <v>5</v>
       </c>
@@ -10494,7 +10503,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="10"/>
     </row>
-    <row r="214" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
         <v>5</v>
       </c>
@@ -10508,7 +10517,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="10"/>
     </row>
-    <row r="215" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
         <v>5</v>
       </c>
@@ -10522,7 +10531,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="10"/>
     </row>
-    <row r="216" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
         <v>5</v>
       </c>
@@ -10536,7 +10545,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="10"/>
     </row>
-    <row r="217" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
         <v>5</v>
       </c>
@@ -10550,7 +10559,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="10"/>
     </row>
-    <row r="218" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
         <v>5</v>
       </c>
@@ -10564,7 +10573,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="10"/>
     </row>
-    <row r="219" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
         <v>5</v>
       </c>
@@ -10614,11 +10623,11 @@
       </c>
       <c r="F221" s="10"/>
     </row>
-    <row r="222" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B222" s="36" t="s">
+      <c r="B222" s="35" t="s">
         <v>431</v>
       </c>
       <c r="C222" s="4" t="s">
@@ -10638,7 +10647,7 @@
       <c r="A223" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B223" s="38" t="s">
+      <c r="B223" s="37" t="s">
         <v>435</v>
       </c>
       <c r="C223" s="6" t="s">
@@ -10652,11 +10661,11 @@
       </c>
       <c r="F223" s="10"/>
     </row>
-    <row r="224" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B224" s="36" t="s">
+      <c r="B224" s="35" t="s">
         <v>439</v>
       </c>
       <c r="C224" s="4" t="s">
@@ -10746,11 +10755,11 @@
       <c r="E229" s="8"/>
       <c r="F229" s="10"/>
     </row>
-    <row r="230" spans="1:7" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B230" s="36" t="s">
+      <c r="B230" s="35" t="s">
         <v>455</v>
       </c>
       <c r="C230" s="4" t="s">
@@ -10762,11 +10771,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B231" s="36" t="s">
+      <c r="B231" s="35" t="s">
         <v>457</v>
       </c>
       <c r="C231" s="4" t="s">
@@ -10778,11 +10787,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B232" s="39" t="s">
+      <c r="B232" s="38" t="s">
         <v>459</v>
       </c>
       <c r="C232" s="4" t="s">
@@ -10794,11 +10803,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B233" s="36" t="s">
+      <c r="B233" s="35" t="s">
         <v>461</v>
       </c>
       <c r="C233" s="4" t="s">
@@ -10838,11 +10847,11 @@
       <c r="E235" s="8"/>
       <c r="F235" s="10"/>
     </row>
-    <row r="236" spans="1:7" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B236" s="36" t="s">
+      <c r="B236" s="35" t="s">
         <v>467</v>
       </c>
       <c r="C236" s="4" t="s">
@@ -10869,11 +10878,11 @@
       <c r="E237" s="8"/>
       <c r="F237" s="10"/>
     </row>
-    <row r="238" spans="1:7" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B238" s="36" t="s">
+      <c r="B238" s="35" t="s">
         <v>471</v>
       </c>
       <c r="C238" s="4" t="s">
@@ -10885,11 +10894,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B239" s="36" t="s">
+      <c r="B239" s="35" t="s">
         <v>473</v>
       </c>
       <c r="C239" s="4" t="s">
@@ -10957,11 +10966,11 @@
       <c r="E243" s="8"/>
       <c r="F243" s="10"/>
     </row>
-    <row r="244" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B244" s="36" t="s">
+      <c r="B244" s="35" t="s">
         <v>483</v>
       </c>
       <c r="C244" s="4" t="s">
@@ -10987,11 +10996,11 @@
       <c r="E245" s="8"/>
       <c r="F245" s="10"/>
     </row>
-    <row r="246" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B246" s="36" t="s">
+      <c r="B246" s="35" t="s">
         <v>487</v>
       </c>
       <c r="C246" s="4" t="s">
@@ -11003,11 +11012,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B247" s="36" t="s">
+      <c r="B247" s="35" t="s">
         <v>489</v>
       </c>
       <c r="C247" s="4" t="s">
@@ -11229,11 +11238,11 @@
       <c r="E262" s="8"/>
       <c r="F262" s="10"/>
     </row>
-    <row r="263" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B263" s="36" t="s">
+      <c r="B263" s="35" t="s">
         <v>520</v>
       </c>
       <c r="C263" s="4" t="s">
@@ -11259,11 +11268,11 @@
       <c r="E264" s="8"/>
       <c r="F264" s="10"/>
     </row>
-    <row r="265" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B265" s="36" t="s">
+      <c r="B265" s="35" t="s">
         <v>524</v>
       </c>
       <c r="C265" s="4" t="s">
@@ -11275,11 +11284,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B266" s="36" t="s">
+      <c r="B266" s="35" t="s">
         <v>526</v>
       </c>
       <c r="C266" s="4" t="s">
@@ -11291,11 +11300,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B267" s="36" t="s">
+      <c r="B267" s="35" t="s">
         <v>527</v>
       </c>
       <c r="C267" s="4" t="s">
@@ -11447,11 +11456,11 @@
       <c r="E277" s="8"/>
       <c r="F277" s="10"/>
     </row>
-    <row r="278" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B278" s="36" t="s">
+      <c r="B278" s="35" t="s">
         <v>549</v>
       </c>
       <c r="C278" s="4" t="s">
@@ -11463,11 +11472,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B279" s="36" t="s">
+      <c r="B279" s="35" t="s">
         <v>551</v>
       </c>
       <c r="C279" s="4" t="s">
@@ -11507,11 +11516,11 @@
       <c r="E281" s="8"/>
       <c r="F281" s="10"/>
     </row>
-    <row r="282" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B282" s="36" t="s">
+      <c r="B282" s="35" t="s">
         <v>557</v>
       </c>
       <c r="C282" s="4" t="s">
@@ -11551,11 +11560,11 @@
       <c r="E284" s="8"/>
       <c r="F284" s="10"/>
     </row>
-    <row r="285" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B285" s="36" t="s">
+      <c r="B285" s="35" t="s">
         <v>563</v>
       </c>
       <c r="C285" s="4" t="s">
@@ -11721,11 +11730,11 @@
       <c r="E296" s="8"/>
       <c r="F296" s="10"/>
     </row>
-    <row r="297" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B297" s="36" t="s">
+      <c r="B297" s="35" t="s">
         <v>585</v>
       </c>
       <c r="C297" s="4" t="s">
@@ -11741,7 +11750,7 @@
       <c r="A298" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B298" s="36" t="s">
+      <c r="B298" s="35" t="s">
         <v>587</v>
       </c>
       <c r="C298" s="4" t="s">
@@ -11751,11 +11760,11 @@
       <c r="E298" s="8"/>
       <c r="F298" s="10"/>
     </row>
-    <row r="299" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B299" s="36" t="s">
+      <c r="B299" s="35" t="s">
         <v>589</v>
       </c>
       <c r="C299" s="4" t="s">
@@ -11823,11 +11832,11 @@
       <c r="E303" s="8"/>
       <c r="F303" s="10"/>
     </row>
-    <row r="304" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B304" s="36" t="s">
+      <c r="B304" s="35" t="s">
         <v>598</v>
       </c>
       <c r="C304" s="4" t="s">
@@ -11839,11 +11848,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B305" s="36" t="s">
+      <c r="B305" s="35" t="s">
         <v>600</v>
       </c>
       <c r="C305" s="4" t="s">
@@ -11855,11 +11864,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B306" s="36" t="s">
+      <c r="B306" s="35" t="s">
         <v>601</v>
       </c>
       <c r="C306" s="4" t="s">
@@ -11885,11 +11894,11 @@
       <c r="E307" s="8"/>
       <c r="F307" s="10"/>
     </row>
-    <row r="308" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B308" s="36" t="s">
+      <c r="B308" s="35" t="s">
         <v>605</v>
       </c>
       <c r="C308" s="4" t="s">
@@ -11929,11 +11938,11 @@
       <c r="E310" s="8"/>
       <c r="F310" s="10"/>
     </row>
-    <row r="311" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B311" s="36" t="s">
+      <c r="B311" s="35" t="s">
         <v>610</v>
       </c>
       <c r="C311" s="4" t="s">
@@ -11949,7 +11958,7 @@
       <c r="A312" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B312" s="38" t="s">
+      <c r="B312" s="37" t="s">
         <v>612</v>
       </c>
       <c r="C312" s="4" t="s">
@@ -12029,11 +12038,11 @@
       <c r="E317" s="8"/>
       <c r="F317" s="10"/>
     </row>
-    <row r="318" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B318" s="36" t="s">
+      <c r="B318" s="35" t="s">
         <v>624</v>
       </c>
       <c r="C318" s="4" t="s">
@@ -12115,11 +12124,11 @@
       <c r="E323" s="8"/>
       <c r="F323" s="10"/>
     </row>
-    <row r="324" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B324" s="36" t="s">
+      <c r="B324" s="35" t="s">
         <v>636</v>
       </c>
       <c r="C324" s="4" t="s">
@@ -12257,11 +12266,11 @@
       <c r="E333" s="8"/>
       <c r="F333" s="10"/>
     </row>
-    <row r="334" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B334" s="39" t="s">
+      <c r="B334" s="38" t="s">
         <v>1964</v>
       </c>
       <c r="C334" s="4" t="s">
@@ -12273,11 +12282,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B335" s="36" t="s">
+      <c r="B335" s="35" t="s">
         <v>655</v>
       </c>
       <c r="C335" s="4" t="s">
@@ -12289,11 +12298,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B336" s="36" t="s">
+      <c r="B336" s="35" t="s">
         <v>657</v>
       </c>
       <c r="C336" s="4" t="s">
@@ -12323,7 +12332,7 @@
       <c r="A338" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B338" s="38" t="s">
+      <c r="B338" s="37" t="s">
         <v>661</v>
       </c>
       <c r="C338" s="4" t="s">
@@ -12375,11 +12384,11 @@
       <c r="E341" s="8"/>
       <c r="F341" s="10"/>
     </row>
-    <row r="342" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B342" s="36" t="s">
+      <c r="B342" s="35" t="s">
         <v>669</v>
       </c>
       <c r="C342" s="4" t="s">
@@ -12405,11 +12414,11 @@
       <c r="E343" s="8"/>
       <c r="F343" s="10"/>
     </row>
-    <row r="344" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B344" s="36" t="s">
+      <c r="B344" s="35" t="s">
         <v>672</v>
       </c>
       <c r="C344" s="4" t="s">
@@ -12421,11 +12430,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B345" s="36" t="s">
+      <c r="B345" s="35" t="s">
         <v>674</v>
       </c>
       <c r="C345" s="4" t="s">
@@ -12437,11 +12446,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B346" s="36" t="s">
+      <c r="B346" s="35" t="s">
         <v>676</v>
       </c>
       <c r="C346" s="4" t="s">
@@ -12453,11 +12462,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B347" s="36" t="s">
+      <c r="B347" s="35" t="s">
         <v>678</v>
       </c>
       <c r="C347" s="4" t="s">
@@ -12497,11 +12506,11 @@
       <c r="E349" s="8"/>
       <c r="F349" s="10"/>
     </row>
-    <row r="350" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B350" s="36" t="s">
+      <c r="B350" s="35" t="s">
         <v>684</v>
       </c>
       <c r="C350" s="4" t="s">
@@ -12513,11 +12522,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B351" s="36" t="s">
+      <c r="B351" s="35" t="s">
         <v>686</v>
       </c>
       <c r="C351" s="4" t="s">
@@ -12627,11 +12636,11 @@
       <c r="E358" s="8"/>
       <c r="F358" s="10"/>
     </row>
-    <row r="359" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B359" s="36" t="s">
+      <c r="B359" s="35" t="s">
         <v>701</v>
       </c>
       <c r="C359" s="4" t="s">
@@ -12783,11 +12792,11 @@
       <c r="E369" s="8"/>
       <c r="F369" s="10"/>
     </row>
-    <row r="370" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B370" s="36" t="s">
+      <c r="B370" s="35" t="s">
         <v>723</v>
       </c>
       <c r="C370" s="4" t="s">
@@ -12841,11 +12850,11 @@
       <c r="E373" s="8"/>
       <c r="F373" s="10"/>
     </row>
-    <row r="374" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B374" s="36" t="s">
+      <c r="B374" s="35" t="s">
         <v>731</v>
       </c>
       <c r="C374" s="4" t="s">
@@ -12920,7 +12929,7 @@
       <c r="B379" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="C379" s="37" t="s">
+      <c r="C379" s="36" t="s">
         <v>1785</v>
       </c>
       <c r="D379" s="5"/>
@@ -12955,11 +12964,11 @@
       <c r="E381" s="8"/>
       <c r="F381" s="10"/>
     </row>
-    <row r="382" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B382" s="36" t="s">
+      <c r="B382" s="35" t="s">
         <v>746</v>
       </c>
       <c r="C382" s="4" t="s">
@@ -13027,11 +13036,11 @@
       <c r="E386" s="8"/>
       <c r="F386" s="10"/>
     </row>
-    <row r="387" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B387" s="36" t="s">
+      <c r="B387" s="35" t="s">
         <v>755</v>
       </c>
       <c r="C387" s="4" t="s">
@@ -13057,11 +13066,11 @@
       <c r="E388" s="8"/>
       <c r="F388" s="10"/>
     </row>
-    <row r="389" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B389" s="36" t="s">
+      <c r="B389" s="35" t="s">
         <v>759</v>
       </c>
       <c r="C389" s="4" t="s">
@@ -13091,7 +13100,7 @@
       <c r="A391" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B391" s="38" t="s">
+      <c r="B391" s="37" t="s">
         <v>763</v>
       </c>
       <c r="C391" s="4" t="s">
@@ -13101,11 +13110,11 @@
       <c r="E391" s="8"/>
       <c r="F391" s="10"/>
     </row>
-    <row r="392" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B392" s="36" t="s">
+      <c r="B392" s="35" t="s">
         <v>765</v>
       </c>
       <c r="C392" s="4" t="s">
@@ -13145,11 +13154,11 @@
       <c r="E394" s="8"/>
       <c r="F394" s="10"/>
     </row>
-    <row r="395" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B395" s="36" t="s">
+      <c r="B395" s="35" t="s">
         <v>771</v>
       </c>
       <c r="C395" s="4" t="s">
@@ -13161,11 +13170,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="396" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B396" s="36" t="s">
+      <c r="B396" s="35" t="s">
         <v>773</v>
       </c>
       <c r="C396" s="4" t="s">
@@ -13191,11 +13200,11 @@
       <c r="E397" s="8"/>
       <c r="F397" s="10"/>
     </row>
-    <row r="398" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B398" s="36" t="s">
+      <c r="B398" s="35" t="s">
         <v>777</v>
       </c>
       <c r="C398" s="4" t="s">
@@ -13207,11 +13216,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="399" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B399" s="36" t="s">
+      <c r="B399" s="35" t="s">
         <v>779</v>
       </c>
       <c r="C399" s="4" t="s">
@@ -13251,11 +13260,11 @@
       <c r="E401" s="8"/>
       <c r="F401" s="10"/>
     </row>
-    <row r="402" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B402" s="36" t="s">
+      <c r="B402" s="35" t="s">
         <v>785</v>
       </c>
       <c r="C402" s="4" t="s">
@@ -13267,11 +13276,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="403" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B403" s="36" t="s">
+      <c r="B403" s="35" t="s">
         <v>787</v>
       </c>
       <c r="C403" s="4" t="s">
@@ -13283,11 +13292,11 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="404" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B404" s="36" t="s">
+      <c r="B404" s="35" t="s">
         <v>789</v>
       </c>
       <c r="C404" s="4" t="s">
@@ -13341,11 +13350,11 @@
       <c r="E407" s="8"/>
       <c r="F407" s="10"/>
     </row>
-    <row r="408" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B408" s="36" t="s">
+      <c r="B408" s="35" t="s">
         <v>797</v>
       </c>
       <c r="C408" s="4" t="s">
@@ -13525,20 +13534,20 @@
       <c r="E420" s="8"/>
       <c r="F420" s="10"/>
     </row>
-    <row r="421" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A421" s="21" t="s">
+    <row r="421" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B421" s="29" t="s">
+      <c r="B421" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="C421" s="23" t="s">
+      <c r="C421" s="22" t="s">
         <v>824</v>
       </c>
       <c r="D421" s="11" t="s">
         <v>825</v>
       </c>
-      <c r="E421" s="23" t="s">
+      <c r="E421" s="22" t="s">
         <v>826</v>
       </c>
       <c r="F421" s="11" t="s">
@@ -13546,123 +13555,123 @@
       </c>
       <c r="H421" s="10">
         <f>COUNTA(F:F)</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A422" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B422" s="22" t="s">
+      <c r="B422" s="21" t="s">
         <v>827</v>
       </c>
-      <c r="C422" s="23" t="s">
+      <c r="C422" s="22" t="s">
         <v>828</v>
       </c>
-      <c r="D422" s="24" t="s">
+      <c r="D422" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="E422" s="23" t="s">
+      <c r="E422" s="22" t="s">
         <v>830</v>
       </c>
       <c r="F422" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A423" s="21" t="s">
+    <row r="423" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B423" s="22" t="s">
+      <c r="B423" s="21" t="s">
         <v>831</v>
       </c>
-      <c r="C423" s="23" t="s">
+      <c r="C423" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="D423" s="24" t="s">
+      <c r="D423" s="23" t="s">
         <v>833</v>
       </c>
-      <c r="E423" s="23" t="s">
+      <c r="E423" s="22" t="s">
         <v>834</v>
       </c>
       <c r="F423" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A424" s="21" t="s">
+    <row r="424" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B424" s="25" t="s">
+      <c r="B424" s="24" t="s">
         <v>835</v>
       </c>
-      <c r="C424" s="23" t="s">
+      <c r="C424" s="22" t="s">
         <v>836</v>
       </c>
       <c r="D424" s="11" t="s">
         <v>837</v>
       </c>
-      <c r="E424" s="23" t="s">
+      <c r="E424" s="22" t="s">
         <v>838</v>
       </c>
       <c r="F424" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="425" spans="1:8" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A425" s="14" t="s">
+    <row r="425" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="B425" s="41" t="s">
+      <c r="B425" s="40" t="s">
         <v>839</v>
       </c>
-      <c r="C425" s="18" t="s">
+      <c r="C425" s="17" t="s">
         <v>840</v>
       </c>
-      <c r="D425" s="15" t="s">
+      <c r="D425" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="E425" s="19" t="s">
+      <c r="E425" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="F425" s="32" t="s">
+      <c r="F425" s="31" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A426" s="21" t="s">
+    <row r="426" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B426" s="22" t="s">
+      <c r="B426" s="21" t="s">
         <v>843</v>
       </c>
-      <c r="C426" s="23" t="s">
+      <c r="C426" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="D426" s="24" t="s">
+      <c r="D426" s="23" t="s">
         <v>845</v>
       </c>
-      <c r="E426" s="23" t="s">
+      <c r="E426" s="22" t="s">
         <v>846</v>
       </c>
       <c r="F426" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A427" s="21" t="s">
+    <row r="427" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B427" s="22" t="s">
+      <c r="B427" s="21" t="s">
         <v>847</v>
       </c>
-      <c r="C427" s="23" t="s">
+      <c r="C427" s="22" t="s">
         <v>848</v>
       </c>
       <c r="D427" s="11" t="s">
         <v>849</v>
       </c>
-      <c r="E427" s="23" t="s">
+      <c r="E427" s="22" t="s">
         <v>850</v>
       </c>
       <c r="F427" s="12" t="s">
@@ -13670,53 +13679,53 @@
       </c>
     </row>
     <row r="428" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A428" s="21" t="s">
+      <c r="A428" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B428" s="11" t="s">
         <v>851</v>
       </c>
-      <c r="C428" s="23" t="s">
+      <c r="C428" s="22" t="s">
         <v>852</v>
       </c>
       <c r="D428" s="11" t="s">
         <v>853</v>
       </c>
-      <c r="E428" s="23" t="s">
+      <c r="E428" s="22" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A429" s="21" t="s">
+      <c r="A429" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B429" s="11" t="s">
         <v>855</v>
       </c>
-      <c r="C429" s="23" t="s">
+      <c r="C429" s="22" t="s">
         <v>856</v>
       </c>
       <c r="D429" s="11" t="s">
         <v>857</v>
       </c>
-      <c r="E429" s="23" t="s">
+      <c r="E429" s="22" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A430" s="21" t="s">
+    <row r="430" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B430" s="22" t="s">
+      <c r="B430" s="21" t="s">
         <v>859</v>
       </c>
       <c r="C430" s="11" t="s">
         <v>860</v>
       </c>
-      <c r="D430" s="24" t="s">
+      <c r="D430" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="E430" s="23" t="s">
+      <c r="E430" s="22" t="s">
         <v>862</v>
       </c>
       <c r="F430" s="12" t="s">
@@ -13725,24 +13734,24 @@
       <c r="G430" s="11"/>
     </row>
     <row r="431" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A431" s="21" t="s">
+      <c r="A431" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B431" s="11" t="s">
         <v>863</v>
       </c>
-      <c r="C431" s="23" t="s">
+      <c r="C431" s="22" t="s">
         <v>864</v>
       </c>
       <c r="D431" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="E431" s="23" t="s">
+      <c r="E431" s="22" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="432" spans="1:8" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A432" s="21" t="s">
+      <c r="A432" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B432" s="11" t="s">
@@ -13754,24 +13763,24 @@
       <c r="D432" s="11" t="s">
         <v>869</v>
       </c>
-      <c r="E432" s="23" t="s">
+      <c r="E432" s="22" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A433" s="21" t="s">
+    <row r="433" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B433" s="22" t="s">
+      <c r="B433" s="21" t="s">
         <v>871</v>
       </c>
-      <c r="C433" s="23" t="s">
+      <c r="C433" s="22" t="s">
         <v>872</v>
       </c>
       <c r="D433" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="E433" s="23" t="s">
+      <c r="E433" s="22" t="s">
         <v>874</v>
       </c>
       <c r="F433" s="12" t="s">
@@ -13779,7 +13788,7 @@
       </c>
     </row>
     <row r="434" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A434" s="21" t="s">
+      <c r="A434" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B434" s="11" t="s">
@@ -13791,55 +13800,55 @@
       <c r="D434" s="11" t="s">
         <v>877</v>
       </c>
-      <c r="E434" s="23" t="s">
+      <c r="E434" s="22" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="435" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A435" s="21" t="s">
+    <row r="435" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B435" s="22" t="s">
+      <c r="B435" s="21" t="s">
         <v>879</v>
       </c>
-      <c r="C435" s="23" t="s">
+      <c r="C435" s="22" t="s">
         <v>880</v>
       </c>
       <c r="D435" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="E435" s="23" t="s">
+      <c r="E435" s="22" t="s">
         <v>882</v>
       </c>
       <c r="F435" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A436" s="21" t="s">
+    <row r="436" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B436" s="22" t="s">
+      <c r="B436" s="21" t="s">
         <v>883</v>
       </c>
-      <c r="C436" s="23" t="s">
+      <c r="C436" s="22" t="s">
         <v>884</v>
       </c>
       <c r="D436" s="11" t="s">
         <v>885</v>
       </c>
-      <c r="E436" s="23" t="s">
+      <c r="E436" s="22" t="s">
         <v>886</v>
       </c>
       <c r="F436" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="437" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A437" s="21" t="s">
+    <row r="437" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B437" s="22" t="s">
+      <c r="B437" s="21" t="s">
         <v>887</v>
       </c>
       <c r="C437" s="11" t="s">
@@ -13848,7 +13857,7 @@
       <c r="D437" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="E437" s="23" t="s">
+      <c r="E437" s="22" t="s">
         <v>890</v>
       </c>
       <c r="F437" s="12" t="s">
@@ -13856,7 +13865,7 @@
       </c>
     </row>
     <row r="438" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A438" s="21" t="s">
+      <c r="A438" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B438" s="11" t="s">
@@ -13868,44 +13877,44 @@
       <c r="D438" s="11" t="s">
         <v>893</v>
       </c>
-      <c r="E438" s="23" t="s">
+      <c r="E438" s="22" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="439" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A439" s="21" t="s">
+    <row r="439" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B439" s="22" t="s">
+      <c r="B439" s="21" t="s">
         <v>895</v>
       </c>
-      <c r="C439" s="23" t="s">
+      <c r="C439" s="22" t="s">
         <v>896</v>
       </c>
       <c r="D439" s="11" t="s">
         <v>897</v>
       </c>
-      <c r="E439" s="23" t="s">
+      <c r="E439" s="22" t="s">
         <v>898</v>
       </c>
       <c r="F439" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="440" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A440" s="21" t="s">
+    <row r="440" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B440" s="22" t="s">
+      <c r="B440" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="C440" s="23" t="s">
+      <c r="C440" s="22" t="s">
         <v>900</v>
       </c>
       <c r="D440" s="11" t="s">
         <v>901</v>
       </c>
-      <c r="E440" s="23" t="s">
+      <c r="E440" s="22" t="s">
         <v>902</v>
       </c>
       <c r="F440" s="12" t="s">
@@ -13914,24 +13923,24 @@
       <c r="G440" s="11"/>
     </row>
     <row r="441" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A441" s="21" t="s">
+      <c r="A441" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B441" s="11" t="s">
         <v>903</v>
       </c>
-      <c r="C441" s="23" t="s">
+      <c r="C441" s="22" t="s">
         <v>904</v>
       </c>
       <c r="D441" s="11" t="s">
         <v>905</v>
       </c>
-      <c r="E441" s="23" t="s">
+      <c r="E441" s="22" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="442" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A442" s="21" t="s">
+      <c r="A442" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B442" s="11" t="s">
@@ -13943,15 +13952,15 @@
       <c r="D442" s="11" t="s">
         <v>909</v>
       </c>
-      <c r="E442" s="23" t="s">
+      <c r="E442" s="22" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="443" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A443" s="21" t="s">
+    <row r="443" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="20" t="s">
         <v>1339</v>
       </c>
-      <c r="B443" s="22" t="s">
+      <c r="B443" s="21" t="s">
         <v>911</v>
       </c>
       <c r="C443" s="11" t="s">
@@ -13960,7 +13969,7 @@
       <c r="D443" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="E443" s="23" t="s">
+      <c r="E443" s="22" t="s">
         <v>914</v>
       </c>
       <c r="F443" s="12" t="s">
@@ -13968,7 +13977,7 @@
       </c>
     </row>
     <row r="444" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A444" s="21" t="s">
+      <c r="A444" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B444" s="11" t="s">
@@ -13980,61 +13989,61 @@
       <c r="D444" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="E444" s="23" t="s">
+      <c r="E444" s="22" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="445" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A445" s="21" t="s">
+      <c r="A445" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B445" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="C445" s="23" t="s">
+      <c r="C445" s="22" t="s">
         <v>920</v>
       </c>
       <c r="D445" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="E445" s="23" t="s">
+      <c r="E445" s="22" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="446" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A446" s="21" t="s">
+    <row r="446" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B446" s="22" t="s">
+      <c r="B446" s="21" t="s">
         <v>923</v>
       </c>
-      <c r="C446" s="23" t="s">
+      <c r="C446" s="22" t="s">
         <v>924</v>
       </c>
       <c r="D446" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="E446" s="23" t="s">
+      <c r="E446" s="22" t="s">
         <v>926</v>
       </c>
       <c r="F446" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="447" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A447" s="21" t="s">
+    <row r="447" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B447" s="22" t="s">
+      <c r="B447" s="21" t="s">
         <v>927</v>
       </c>
-      <c r="C447" s="23" t="s">
+      <c r="C447" s="22" t="s">
         <v>928</v>
       </c>
       <c r="D447" s="11" t="s">
         <v>929</v>
       </c>
-      <c r="E447" s="23" t="s">
+      <c r="E447" s="22" t="s">
         <v>930</v>
       </c>
       <c r="F447" s="12" t="s">
@@ -14042,27 +14051,27 @@
       </c>
     </row>
     <row r="448" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A448" s="21" t="s">
+      <c r="A448" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B448" s="11" t="s">
         <v>931</v>
       </c>
-      <c r="C448" s="23" t="s">
+      <c r="C448" s="22" t="s">
         <v>932</v>
       </c>
       <c r="D448" s="11" t="s">
         <v>933</v>
       </c>
-      <c r="E448" s="23" t="s">
+      <c r="E448" s="22" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="449" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A449" s="21" t="s">
+    <row r="449" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B449" s="22" t="s">
+      <c r="B449" s="21" t="s">
         <v>935</v>
       </c>
       <c r="C449" s="11" t="s">
@@ -14071,30 +14080,30 @@
       <c r="D449" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="E449" s="23" t="s">
+      <c r="E449" s="22" t="s">
         <v>938</v>
       </c>
       <c r="F449" s="12" t="s">
         <v>1953</v>
       </c>
-      <c r="G449" s="24" t="s">
+      <c r="G449" s="23" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A450" s="21" t="s">
+    <row r="450" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B450" s="22" t="s">
+      <c r="B450" s="21" t="s">
         <v>939</v>
       </c>
-      <c r="C450" s="23" t="s">
+      <c r="C450" s="22" t="s">
         <v>940</v>
       </c>
-      <c r="D450" s="24" t="s">
+      <c r="D450" s="23" t="s">
         <v>941</v>
       </c>
-      <c r="E450" s="23" t="s">
+      <c r="E450" s="22" t="s">
         <v>942</v>
       </c>
       <c r="F450" s="12" t="s">
@@ -14102,36 +14111,36 @@
       </c>
     </row>
     <row r="451" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A451" s="21" t="s">
+      <c r="A451" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B451" s="11" t="s">
         <v>943</v>
       </c>
-      <c r="C451" s="23" t="s">
+      <c r="C451" s="22" t="s">
         <v>656</v>
       </c>
       <c r="D451" s="11" t="s">
         <v>944</v>
       </c>
-      <c r="E451" s="23" t="s">
+      <c r="E451" s="22" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A452" s="21" t="s">
+    <row r="452" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B452" s="22" t="s">
+      <c r="B452" s="21" t="s">
         <v>946</v>
       </c>
-      <c r="C452" s="23" t="s">
+      <c r="C452" s="22" t="s">
         <v>947</v>
       </c>
-      <c r="D452" s="24" t="s">
+      <c r="D452" s="23" t="s">
         <v>948</v>
       </c>
-      <c r="E452" s="23" t="s">
+      <c r="E452" s="22" t="s">
         <v>949</v>
       </c>
       <c r="F452" s="12" t="s">
@@ -14139,24 +14148,24 @@
       </c>
     </row>
     <row r="453" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A453" s="21" t="s">
+      <c r="A453" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B453" s="11" t="s">
         <v>950</v>
       </c>
-      <c r="C453" s="23" t="s">
+      <c r="C453" s="22" t="s">
         <v>951</v>
       </c>
       <c r="D453" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="E453" s="23" t="s">
+      <c r="E453" s="22" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="454" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A454" s="21" t="s">
+      <c r="A454" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B454" s="11" t="s">
@@ -14168,78 +14177,78 @@
       <c r="D454" s="11" t="s">
         <v>956</v>
       </c>
-      <c r="E454" s="23" t="s">
+      <c r="E454" s="22" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="455" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A455" s="21" t="s">
+      <c r="A455" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B455" s="11" t="s">
         <v>958</v>
       </c>
-      <c r="C455" s="23" t="s">
+      <c r="C455" s="22" t="s">
         <v>959</v>
       </c>
       <c r="D455" s="11" t="s">
         <v>960</v>
       </c>
-      <c r="E455" s="23" t="s">
+      <c r="E455" s="22" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="456" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A456" s="21" t="s">
+      <c r="A456" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B456" s="11" t="s">
         <v>962</v>
       </c>
-      <c r="C456" s="23" t="s">
+      <c r="C456" s="22" t="s">
         <v>963</v>
       </c>
       <c r="D456" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="E456" s="23" t="s">
+      <c r="E456" s="22" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A457" s="21" t="s">
+    <row r="457" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B457" s="22" t="s">
+      <c r="B457" s="21" t="s">
         <v>966</v>
       </c>
-      <c r="C457" s="23" t="s">
+      <c r="C457" s="22" t="s">
         <v>967</v>
       </c>
       <c r="D457" s="11" t="s">
         <v>968</v>
       </c>
-      <c r="E457" s="23" t="s">
+      <c r="E457" s="22" t="s">
         <v>969</v>
       </c>
       <c r="F457" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A458" s="21" t="s">
+    <row r="458" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B458" s="22" t="s">
+      <c r="B458" s="21" t="s">
         <v>970</v>
       </c>
-      <c r="C458" s="23" t="s">
+      <c r="C458" s="22" t="s">
         <v>971</v>
       </c>
       <c r="D458" s="11" t="s">
         <v>972</v>
       </c>
-      <c r="E458" s="23" t="s">
+      <c r="E458" s="22" t="s">
         <v>973</v>
       </c>
       <c r="F458" s="12" t="s">
@@ -14247,61 +14256,61 @@
       </c>
     </row>
     <row r="459" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A459" s="21" t="s">
+      <c r="A459" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B459" s="11" t="s">
         <v>974</v>
       </c>
-      <c r="C459" s="23" t="s">
+      <c r="C459" s="22" t="s">
         <v>975</v>
       </c>
       <c r="D459" s="11" t="s">
         <v>976</v>
       </c>
-      <c r="E459" s="23" t="s">
+      <c r="E459" s="22" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="460" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A460" s="21" t="s">
+      <c r="A460" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B460" s="11" t="s">
         <v>978</v>
       </c>
-      <c r="C460" s="23" t="s">
+      <c r="C460" s="22" t="s">
         <v>979</v>
       </c>
       <c r="D460" s="11" t="s">
         <v>980</v>
       </c>
-      <c r="E460" s="23" t="s">
+      <c r="E460" s="22" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="461" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A461" s="21" t="s">
+      <c r="A461" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B461" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="C461" s="23" t="s">
+      <c r="C461" s="22" t="s">
         <v>983</v>
       </c>
       <c r="D461" s="11" t="s">
         <v>984</v>
       </c>
-      <c r="E461" s="23" t="s">
+      <c r="E461" s="22" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="462" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A462" s="21" t="s">
+    <row r="462" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B462" s="22" t="s">
+      <c r="B462" s="21" t="s">
         <v>986</v>
       </c>
       <c r="C462" s="11" t="s">
@@ -14310,7 +14319,7 @@
       <c r="D462" s="11" t="s">
         <v>988</v>
       </c>
-      <c r="E462" s="23" t="s">
+      <c r="E462" s="22" t="s">
         <v>989</v>
       </c>
       <c r="F462" s="12" t="s">
@@ -14318,92 +14327,92 @@
       </c>
     </row>
     <row r="463" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A463" s="21" t="s">
+      <c r="A463" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B463" s="11" t="s">
         <v>990</v>
       </c>
-      <c r="C463" s="23" t="s">
+      <c r="C463" s="22" t="s">
         <v>991</v>
       </c>
       <c r="D463" s="11" t="s">
         <v>992</v>
       </c>
-      <c r="E463" s="23" t="s">
+      <c r="E463" s="22" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="464" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A464" s="21" t="s">
+      <c r="A464" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B464" s="11" t="s">
         <v>994</v>
       </c>
-      <c r="C464" s="23" t="s">
+      <c r="C464" s="22" t="s">
         <v>995</v>
       </c>
       <c r="D464" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="E464" s="23" t="s">
+      <c r="E464" s="22" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="465" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A465" s="21" t="s">
+      <c r="A465" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B465" s="11" t="s">
         <v>998</v>
       </c>
-      <c r="C465" s="23" t="s">
+      <c r="C465" s="22" t="s">
         <v>999</v>
       </c>
       <c r="D465" s="11" t="s">
         <v>1000</v>
       </c>
-      <c r="E465" s="23" t="s">
+      <c r="E465" s="22" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="466" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A466" s="21" t="s">
+      <c r="A466" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B466" s="11" t="s">
         <v>1002</v>
       </c>
-      <c r="C466" s="23" t="s">
+      <c r="C466" s="22" t="s">
         <v>1003</v>
       </c>
       <c r="D466" s="11" t="s">
         <v>1004</v>
       </c>
-      <c r="E466" s="23" t="s">
+      <c r="E466" s="22" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="467" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A467" s="21" t="s">
+      <c r="A467" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B467" s="11" t="s">
         <v>1006</v>
       </c>
-      <c r="C467" s="23" t="s">
+      <c r="C467" s="22" t="s">
         <v>1007</v>
       </c>
       <c r="D467" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="E467" s="23" t="s">
+      <c r="E467" s="22" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="468" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A468" s="21" t="s">
+      <c r="A468" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B468" s="11" t="s">
@@ -14415,12 +14424,12 @@
       <c r="D468" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="E468" s="23" t="s">
+      <c r="E468" s="22" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="469" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A469" s="21" t="s">
+      <c r="A469" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B469" s="11" t="s">
@@ -14432,24 +14441,24 @@
       <c r="D469" s="11" t="s">
         <v>1016</v>
       </c>
-      <c r="E469" s="23" t="s">
+      <c r="E469" s="22" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="470" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A470" s="21" t="s">
+    <row r="470" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B470" s="22" t="s">
+      <c r="B470" s="21" t="s">
         <v>1018</v>
       </c>
-      <c r="C470" s="23" t="s">
+      <c r="C470" s="22" t="s">
         <v>1019</v>
       </c>
       <c r="D470" s="11" t="s">
         <v>1020</v>
       </c>
-      <c r="E470" s="23" t="s">
+      <c r="E470" s="22" t="s">
         <v>1021</v>
       </c>
       <c r="F470" s="12" t="s">
@@ -14460,7 +14469,7 @@
       </c>
     </row>
     <row r="471" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A471" s="21" t="s">
+      <c r="A471" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B471" s="11" t="s">
@@ -14472,64 +14481,64 @@
       <c r="D471" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="E471" s="23" t="s">
+      <c r="E471" s="22" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A472" s="21" t="s">
+    <row r="472" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B472" s="22" t="s">
+      <c r="B472" s="21" t="s">
         <v>1026</v>
       </c>
-      <c r="C472" s="23" t="s">
+      <c r="C472" s="22" t="s">
         <v>1027</v>
       </c>
       <c r="D472" s="11" t="s">
         <v>1028</v>
       </c>
-      <c r="E472" s="23" t="s">
+      <c r="E472" s="22" t="s">
         <v>1029</v>
       </c>
       <c r="F472" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A473" s="21" t="s">
+    <row r="473" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B473" s="22" t="s">
+      <c r="B473" s="21" t="s">
         <v>1030</v>
       </c>
-      <c r="C473" s="23" t="s">
+      <c r="C473" s="22" t="s">
         <v>1031</v>
       </c>
       <c r="D473" s="11" t="s">
         <v>1032</v>
       </c>
-      <c r="E473" s="23" t="s">
+      <c r="E473" s="22" t="s">
         <v>1033</v>
       </c>
       <c r="F473" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="474" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A474" s="21" t="s">
+    <row r="474" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B474" s="22" t="s">
+      <c r="B474" s="21" t="s">
         <v>1034</v>
       </c>
-      <c r="C474" s="23" t="s">
+      <c r="C474" s="22" t="s">
         <v>1035</v>
       </c>
-      <c r="D474" s="24" t="s">
+      <c r="D474" s="23" t="s">
         <v>1036</v>
       </c>
-      <c r="E474" s="23" t="s">
+      <c r="E474" s="22" t="s">
         <v>1037</v>
       </c>
       <c r="F474" s="12" t="s">
@@ -14537,70 +14546,70 @@
       </c>
     </row>
     <row r="475" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A475" s="21" t="s">
+      <c r="A475" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B475" s="11" t="s">
         <v>1038</v>
       </c>
-      <c r="C475" s="23" t="s">
+      <c r="C475" s="22" t="s">
         <v>1039</v>
       </c>
       <c r="D475" s="11" t="s">
         <v>1040</v>
       </c>
-      <c r="E475" s="23" t="s">
+      <c r="E475" s="22" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="476" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A476" s="21" t="s">
+      <c r="A476" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B476" s="11" t="s">
         <v>1042</v>
       </c>
-      <c r="C476" s="23" t="s">
+      <c r="C476" s="22" t="s">
         <v>1043</v>
       </c>
       <c r="D476" s="11" t="s">
         <v>1044</v>
       </c>
-      <c r="E476" s="23" t="s">
+      <c r="E476" s="22" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="477" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A477" s="21" t="s">
+      <c r="A477" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B477" s="11" t="s">
         <v>1046</v>
       </c>
-      <c r="C477" s="23" t="s">
+      <c r="C477" s="22" t="s">
         <v>1047</v>
       </c>
       <c r="D477" s="11" t="s">
         <v>1048</v>
       </c>
-      <c r="E477" s="23" t="s">
+      <c r="E477" s="22" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A478" s="21" t="s">
+    <row r="478" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="20" t="s">
         <v>1339</v>
       </c>
-      <c r="B478" s="22" t="s">
+      <c r="B478" s="21" t="s">
         <v>338</v>
       </c>
       <c r="C478" s="11" t="s">
         <v>1050</v>
       </c>
-      <c r="D478" s="24" t="s">
+      <c r="D478" s="23" t="s">
         <v>1051</v>
       </c>
-      <c r="E478" s="23" t="s">
+      <c r="E478" s="22" t="s">
         <v>1052</v>
       </c>
       <c r="F478" s="12" t="s">
@@ -14608,7 +14617,7 @@
       </c>
     </row>
     <row r="479" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A479" s="21" t="s">
+      <c r="A479" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B479" s="11" t="s">
@@ -14620,92 +14629,92 @@
       <c r="D479" s="11" t="s">
         <v>1055</v>
       </c>
-      <c r="E479" s="23" t="s">
+      <c r="E479" s="22" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="480" spans="1:7" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A480" s="21" t="s">
+      <c r="A480" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B480" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="C480" s="23" t="s">
+      <c r="C480" s="22" t="s">
         <v>1058</v>
       </c>
       <c r="D480" s="11" t="s">
         <v>1059</v>
       </c>
-      <c r="E480" s="23" t="s">
+      <c r="E480" s="22" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A481" s="21" t="s">
+      <c r="A481" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B481" s="11" t="s">
         <v>1061</v>
       </c>
-      <c r="C481" s="23" t="s">
+      <c r="C481" s="22" t="s">
         <v>1062</v>
       </c>
       <c r="D481" s="11" t="s">
         <v>1063</v>
       </c>
-      <c r="E481" s="23" t="s">
+      <c r="E481" s="22" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A482" s="21" t="s">
+      <c r="A482" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B482" s="11" t="s">
         <v>1065</v>
       </c>
-      <c r="C482" s="23" t="s">
+      <c r="C482" s="22" t="s">
         <v>1066</v>
       </c>
       <c r="D482" s="11" t="s">
         <v>1067</v>
       </c>
-      <c r="E482" s="23" t="s">
+      <c r="E482" s="22" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A483" s="21" t="s">
+      <c r="A483" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B483" s="11" t="s">
         <v>1069</v>
       </c>
-      <c r="C483" s="23" t="s">
+      <c r="C483" s="22" t="s">
         <v>1070</v>
       </c>
       <c r="D483" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="E483" s="23" t="s">
+      <c r="E483" s="22" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A484" s="21" t="s">
+    <row r="484" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B484" s="22" t="s">
+      <c r="B484" s="21" t="s">
         <v>1072</v>
       </c>
-      <c r="C484" s="23" t="s">
+      <c r="C484" s="22" t="s">
         <v>1073</v>
       </c>
       <c r="D484" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="E484" s="23" t="s">
+      <c r="E484" s="22" t="s">
         <v>1075</v>
       </c>
       <c r="F484" s="12" t="s">
@@ -14713,109 +14722,109 @@
       </c>
     </row>
     <row r="485" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A485" s="21" t="s">
+      <c r="A485" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B485" s="11" t="s">
         <v>1076</v>
       </c>
-      <c r="C485" s="23" t="s">
+      <c r="C485" s="22" t="s">
         <v>1077</v>
       </c>
       <c r="D485" s="11" t="s">
         <v>1078</v>
       </c>
-      <c r="E485" s="23" t="s">
+      <c r="E485" s="22" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A486" s="21" t="s">
+      <c r="A486" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B486" s="11" t="s">
         <v>1080</v>
       </c>
-      <c r="C486" s="23" t="s">
+      <c r="C486" s="22" t="s">
         <v>1081</v>
       </c>
       <c r="D486" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="E486" s="23" t="s">
+      <c r="E486" s="22" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A487" s="21" t="s">
+      <c r="A487" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B487" s="11" t="s">
         <v>1084</v>
       </c>
-      <c r="C487" s="23" t="s">
+      <c r="C487" s="22" t="s">
         <v>1085</v>
       </c>
       <c r="D487" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="E487" s="23" t="s">
+      <c r="E487" s="22" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A488" s="21" t="s">
+      <c r="A488" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B488" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="C488" s="23" t="s">
+      <c r="C488" s="22" t="s">
         <v>1089</v>
       </c>
       <c r="D488" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="E488" s="23" t="s">
+      <c r="E488" s="22" t="s">
         <v>1091</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A489" s="21" t="s">
+      <c r="A489" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B489" s="11" t="s">
         <v>1092</v>
       </c>
-      <c r="C489" s="23" t="s">
+      <c r="C489" s="22" t="s">
         <v>1093</v>
       </c>
       <c r="D489" s="11" t="s">
         <v>1094</v>
       </c>
-      <c r="E489" s="23" t="s">
+      <c r="E489" s="22" t="s">
         <v>1095</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A490" s="21" t="s">
+      <c r="A490" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B490" s="11" t="s">
         <v>1096</v>
       </c>
-      <c r="C490" s="23" t="s">
+      <c r="C490" s="22" t="s">
         <v>1097</v>
       </c>
       <c r="D490" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="E490" s="23" t="s">
+      <c r="E490" s="22" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A491" s="21" t="s">
+      <c r="A491" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B491" s="11" t="s">
@@ -14827,83 +14836,83 @@
       <c r="D491" s="11" t="s">
         <v>1102</v>
       </c>
-      <c r="E491" s="23" t="s">
+      <c r="E491" s="22" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A492" s="21" t="s">
+      <c r="A492" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B492" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="C492" s="23" t="s">
+      <c r="C492" s="22" t="s">
         <v>1105</v>
       </c>
       <c r="D492" s="11" t="s">
         <v>1106</v>
       </c>
-      <c r="E492" s="23" t="s">
+      <c r="E492" s="22" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A493" s="21" t="s">
+      <c r="A493" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B493" s="11" t="s">
         <v>1108</v>
       </c>
-      <c r="C493" s="23" t="s">
+      <c r="C493" s="22" t="s">
         <v>1109</v>
       </c>
       <c r="D493" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="E493" s="23" t="s">
+      <c r="E493" s="22" t="s">
         <v>1111</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A494" s="21" t="s">
+      <c r="A494" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B494" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="C494" s="23" t="s">
+      <c r="C494" s="22" t="s">
         <v>1113</v>
       </c>
       <c r="D494" s="11" t="s">
         <v>1114</v>
       </c>
-      <c r="E494" s="23" t="s">
+      <c r="E494" s="22" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A495" s="21" t="s">
+      <c r="A495" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B495" s="11" t="s">
         <v>1116</v>
       </c>
-      <c r="C495" s="23" t="s">
+      <c r="C495" s="22" t="s">
         <v>1117</v>
       </c>
       <c r="D495" s="11" t="s">
         <v>1118</v>
       </c>
-      <c r="E495" s="23" t="s">
+      <c r="E495" s="22" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A496" s="21" t="s">
+    <row r="496" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B496" s="22" t="s">
+      <c r="B496" s="21" t="s">
         <v>1120</v>
       </c>
       <c r="C496" s="11" t="s">
@@ -14912,27 +14921,27 @@
       <c r="D496" s="11" t="s">
         <v>1121</v>
       </c>
-      <c r="E496" s="23" t="s">
+      <c r="E496" s="22" t="s">
         <v>1122</v>
       </c>
       <c r="F496" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A497" s="21" t="s">
+    <row r="497" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B497" s="22" t="s">
+      <c r="B497" s="21" t="s">
         <v>1123</v>
       </c>
-      <c r="C497" s="23" t="s">
+      <c r="C497" s="22" t="s">
         <v>1124</v>
       </c>
       <c r="D497" s="11" t="s">
         <v>1125</v>
       </c>
-      <c r="E497" s="23" t="s">
+      <c r="E497" s="22" t="s">
         <v>1126</v>
       </c>
       <c r="F497" s="12" t="s">
@@ -14940,44 +14949,44 @@
       </c>
     </row>
     <row r="498" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A498" s="21" t="s">
+      <c r="A498" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B498" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="C498" s="23" t="s">
+      <c r="C498" s="22" t="s">
         <v>1128</v>
       </c>
       <c r="D498" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="E498" s="23" t="s">
+      <c r="E498" s="22" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A499" s="21" t="s">
+      <c r="A499" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B499" s="11" t="s">
         <v>1131</v>
       </c>
-      <c r="C499" s="23" t="s">
+      <c r="C499" s="22" t="s">
         <v>1132</v>
       </c>
       <c r="D499" s="11" t="s">
         <v>1133</v>
       </c>
-      <c r="E499" s="23" t="s">
+      <c r="E499" s="22" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A500" s="21" t="s">
+      <c r="A500" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B500" s="28" t="s">
+      <c r="B500" s="27" t="s">
         <v>1135</v>
       </c>
       <c r="C500" s="11" t="s">
@@ -14986,35 +14995,35 @@
       <c r="D500" s="11" t="s">
         <v>1137</v>
       </c>
-      <c r="E500" s="23" t="s">
+      <c r="E500" s="22" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A501" s="21" t="s">
+    <row r="501" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B501" s="22" t="s">
+      <c r="B501" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="C501" s="23" t="s">
+      <c r="C501" s="22" t="s">
         <v>1140</v>
       </c>
       <c r="D501" s="11" t="s">
         <v>1141</v>
       </c>
-      <c r="E501" s="23" t="s">
+      <c r="E501" s="22" t="s">
         <v>1142</v>
       </c>
       <c r="F501" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A502" s="21" t="s">
+    <row r="502" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B502" s="22" t="s">
+      <c r="B502" s="21" t="s">
         <v>1143</v>
       </c>
       <c r="C502" s="11" t="s">
@@ -15023,18 +15032,18 @@
       <c r="D502" s="11" t="s">
         <v>1144</v>
       </c>
-      <c r="E502" s="23" t="s">
+      <c r="E502" s="22" t="s">
         <v>1145</v>
       </c>
       <c r="F502" s="12" t="s">
         <v>1953</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A503" s="21" t="s">
+    <row r="503" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B503" s="22" t="s">
+      <c r="B503" s="21" t="s">
         <v>1146</v>
       </c>
       <c r="C503" s="11" t="s">
@@ -15043,7 +15052,7 @@
       <c r="D503" s="11" t="s">
         <v>1148</v>
       </c>
-      <c r="E503" s="23" t="s">
+      <c r="E503" s="22" t="s">
         <v>1149</v>
       </c>
       <c r="F503" s="12" t="s">
@@ -15051,7 +15060,7 @@
       </c>
     </row>
     <row r="504" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A504" s="21" t="s">
+      <c r="A504" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B504" s="11" t="s">
@@ -15063,46 +15072,46 @@
       <c r="D504" s="11" t="s">
         <v>1152</v>
       </c>
-      <c r="E504" s="23" t="s">
+      <c r="E504" s="22" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A505" s="21" t="s">
+      <c r="A505" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B505" s="11" t="s">
         <v>1154</v>
       </c>
-      <c r="C505" s="23" t="s">
+      <c r="C505" s="22" t="s">
         <v>1155</v>
       </c>
       <c r="D505" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="E505" s="23" t="s">
+      <c r="E505" s="22" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A506" s="21" t="s">
+      <c r="A506" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B506" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="C506" s="23" t="s">
+      <c r="C506" s="22" t="s">
         <v>1159</v>
       </c>
       <c r="D506" s="11" t="s">
         <v>1160</v>
       </c>
-      <c r="E506" s="23" t="s">
+      <c r="E506" s="22" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A507" s="21" t="s">
+      <c r="A507" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B507" s="11" t="s">
@@ -15114,12 +15123,12 @@
       <c r="D507" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="E507" s="23" t="s">
+      <c r="E507" s="22" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A508" s="21" t="s">
+      <c r="A508" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B508" s="11" t="s">
@@ -15131,15 +15140,15 @@
       <c r="D508" s="11" t="s">
         <v>1168</v>
       </c>
-      <c r="E508" s="23" t="s">
+      <c r="E508" s="22" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A509" s="21" t="s">
+    <row r="509" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B509" s="22" t="s">
+      <c r="B509" s="21" t="s">
         <v>1170</v>
       </c>
       <c r="C509" s="11" t="s">
@@ -15148,7 +15157,7 @@
       <c r="D509" s="11" t="s">
         <v>1172</v>
       </c>
-      <c r="E509" s="23" t="s">
+      <c r="E509" s="22" t="s">
         <v>1173</v>
       </c>
       <c r="F509" s="12" t="s">
@@ -15156,24 +15165,24 @@
       </c>
     </row>
     <row r="510" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A510" s="21" t="s">
+      <c r="A510" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B510" s="11" t="s">
         <v>1174</v>
       </c>
-      <c r="C510" s="23" t="s">
+      <c r="C510" s="22" t="s">
         <v>1175</v>
       </c>
       <c r="D510" s="11" t="s">
         <v>1176</v>
       </c>
-      <c r="E510" s="23" t="s">
+      <c r="E510" s="22" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A511" s="21" t="s">
+      <c r="A511" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B511" s="11" t="s">
@@ -15185,12 +15194,12 @@
       <c r="D511" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="E511" s="23" t="s">
+      <c r="E511" s="22" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="512" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A512" s="21" t="s">
+      <c r="A512" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B512" s="11" t="s">
@@ -15202,15 +15211,15 @@
       <c r="D512" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="E512" s="23" t="s">
+      <c r="E512" s="22" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A513" s="21" t="s">
+    <row r="513" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B513" s="26" t="s">
+      <c r="B513" s="25" t="s">
         <v>1185</v>
       </c>
       <c r="C513" s="11" t="s">
@@ -15219,7 +15228,7 @@
       <c r="D513" s="11" t="s">
         <v>1187</v>
       </c>
-      <c r="E513" s="23" t="s">
+      <c r="E513" s="22" t="s">
         <v>1188</v>
       </c>
       <c r="F513" s="12" t="s">
@@ -15227,7 +15236,7 @@
       </c>
     </row>
     <row r="514" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A514" s="21" t="s">
+      <c r="A514" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B514" s="11" t="s">
@@ -15239,29 +15248,29 @@
       <c r="D514" s="11" t="s">
         <v>1191</v>
       </c>
-      <c r="E514" s="23" t="s">
+      <c r="E514" s="22" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A515" s="21" t="s">
+      <c r="A515" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B515" s="11" t="s">
         <v>1193</v>
       </c>
-      <c r="C515" s="23" t="s">
+      <c r="C515" s="22" t="s">
         <v>1194</v>
       </c>
       <c r="D515" s="11" t="s">
         <v>1195</v>
       </c>
-      <c r="E515" s="23" t="s">
+      <c r="E515" s="22" t="s">
         <v>1196</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A516" s="21" t="s">
+      <c r="A516" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B516" s="11" t="s">
@@ -15273,12 +15282,12 @@
       <c r="D516" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="E516" s="23" t="s">
+      <c r="E516" s="22" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A517" s="21" t="s">
+      <c r="A517" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B517" s="11" t="s">
@@ -15290,12 +15299,12 @@
       <c r="D517" s="11" t="s">
         <v>1203</v>
       </c>
-      <c r="E517" s="23" t="s">
+      <c r="E517" s="22" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A518" s="21" t="s">
+      <c r="A518" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B518" s="11" t="s">
@@ -15307,12 +15316,12 @@
       <c r="D518" s="11" t="s">
         <v>1207</v>
       </c>
-      <c r="E518" s="23" t="s">
+      <c r="E518" s="22" t="s">
         <v>1208</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A519" s="21" t="s">
+      <c r="A519" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B519" s="11" t="s">
@@ -15324,12 +15333,12 @@
       <c r="D519" s="11" t="s">
         <v>1210</v>
       </c>
-      <c r="E519" s="23" t="s">
+      <c r="E519" s="22" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A520" s="21" t="s">
+      <c r="A520" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B520" s="11" t="s">
@@ -15341,29 +15350,29 @@
       <c r="D520" s="11" t="s">
         <v>1214</v>
       </c>
-      <c r="E520" s="23" t="s">
+      <c r="E520" s="22" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A521" s="21" t="s">
+      <c r="A521" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B521" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="C521" s="23" t="s">
+      <c r="C521" s="22" t="s">
         <v>1217</v>
       </c>
       <c r="D521" s="11" t="s">
         <v>1218</v>
       </c>
-      <c r="E521" s="23" t="s">
+      <c r="E521" s="22" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A522" s="21" t="s">
+      <c r="A522" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B522" s="11" t="s">
@@ -15375,41 +15384,41 @@
       <c r="D522" s="11" t="s">
         <v>1222</v>
       </c>
-      <c r="E522" s="23" t="s">
+      <c r="E522" s="22" t="s">
         <v>1223</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A523" s="21" t="s">
+      <c r="A523" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B523" s="11" t="s">
         <v>1224</v>
       </c>
-      <c r="C523" s="23" t="s">
+      <c r="C523" s="22" t="s">
         <v>1225</v>
       </c>
       <c r="D523" s="11" t="s">
         <v>1226</v>
       </c>
-      <c r="E523" s="23" t="s">
+      <c r="E523" s="22" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A524" s="21" t="s">
+    <row r="524" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B524" s="22" t="s">
+      <c r="B524" s="21" t="s">
         <v>1228</v>
       </c>
-      <c r="C524" s="23" t="s">
+      <c r="C524" s="22" t="s">
         <v>1229</v>
       </c>
-      <c r="D524" s="24" t="s">
+      <c r="D524" s="23" t="s">
         <v>1230</v>
       </c>
-      <c r="E524" s="23" t="s">
+      <c r="E524" s="22" t="s">
         <v>1231</v>
       </c>
       <c r="F524" s="12" t="s">
@@ -15417,41 +15426,41 @@
       </c>
     </row>
     <row r="525" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A525" s="21" t="s">
+      <c r="A525" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B525" s="11" t="s">
         <v>1232</v>
       </c>
-      <c r="C525" s="23" t="s">
+      <c r="C525" s="22" t="s">
         <v>1233</v>
       </c>
       <c r="D525" s="11" t="s">
         <v>1234</v>
       </c>
-      <c r="E525" s="23" t="s">
+      <c r="E525" s="22" t="s">
         <v>1235</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A526" s="21" t="s">
+      <c r="A526" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B526" s="11" t="s">
         <v>1236</v>
       </c>
-      <c r="C526" s="23" t="s">
+      <c r="C526" s="22" t="s">
         <v>1237</v>
       </c>
       <c r="D526" s="11" t="s">
         <v>1238</v>
       </c>
-      <c r="E526" s="23" t="s">
+      <c r="E526" s="22" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A527" s="21" t="s">
+      <c r="A527" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B527" s="11" t="s">
@@ -15463,15 +15472,15 @@
       <c r="D527" s="11" t="s">
         <v>1242</v>
       </c>
-      <c r="E527" s="23" t="s">
+      <c r="E527" s="22" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A528" s="21" t="s">
+    <row r="528" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B528" s="22" t="s">
+      <c r="B528" s="21" t="s">
         <v>1244</v>
       </c>
       <c r="C528" s="11" t="s">
@@ -15480,7 +15489,7 @@
       <c r="D528" s="11" t="s">
         <v>1246</v>
       </c>
-      <c r="E528" s="23" t="s">
+      <c r="E528" s="22" t="s">
         <v>1247</v>
       </c>
       <c r="F528" s="12" t="s">
@@ -15488,24 +15497,24 @@
       </c>
     </row>
     <row r="529" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A529" s="21" t="s">
+      <c r="A529" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B529" s="11" t="s">
         <v>1248</v>
       </c>
-      <c r="C529" s="23" t="s">
+      <c r="C529" s="22" t="s">
         <v>1249</v>
       </c>
       <c r="D529" s="11" t="s">
         <v>1250</v>
       </c>
-      <c r="E529" s="23" t="s">
+      <c r="E529" s="22" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A530" s="21" t="s">
+      <c r="A530" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B530" s="11" t="s">
@@ -15517,24 +15526,24 @@
       <c r="D530" s="11" t="s">
         <v>1254</v>
       </c>
-      <c r="E530" s="23" t="s">
+      <c r="E530" s="22" t="s">
         <v>1255</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A531" s="21" t="s">
+    <row r="531" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B531" s="22" t="s">
+      <c r="B531" s="21" t="s">
         <v>1256</v>
       </c>
-      <c r="C531" s="23" t="s">
+      <c r="C531" s="22" t="s">
         <v>1257</v>
       </c>
-      <c r="D531" s="24" t="s">
+      <c r="D531" s="23" t="s">
         <v>1258</v>
       </c>
-      <c r="E531" s="23" t="s">
+      <c r="E531" s="22" t="s">
         <v>1259</v>
       </c>
       <c r="F531" s="12" t="s">
@@ -15542,41 +15551,41 @@
       </c>
     </row>
     <row r="532" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A532" s="21" t="s">
+      <c r="A532" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B532" s="29" t="s">
+      <c r="B532" s="28" t="s">
         <v>1260</v>
       </c>
-      <c r="C532" s="23" t="s">
+      <c r="C532" s="22" t="s">
         <v>1261</v>
       </c>
       <c r="D532" s="11" t="s">
         <v>1262</v>
       </c>
-      <c r="E532" s="23" t="s">
+      <c r="E532" s="22" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A533" s="21" t="s">
+      <c r="A533" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B533" s="11" t="s">
         <v>1264</v>
       </c>
-      <c r="C533" s="23" t="s">
+      <c r="C533" s="22" t="s">
         <v>1265</v>
       </c>
       <c r="D533" s="11" t="s">
         <v>1266</v>
       </c>
-      <c r="E533" s="23" t="s">
+      <c r="E533" s="22" t="s">
         <v>1267</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A534" s="21" t="s">
+      <c r="A534" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B534" s="11" t="s">
@@ -15588,15 +15597,15 @@
       <c r="D534" s="11" t="s">
         <v>1270</v>
       </c>
-      <c r="E534" s="23" t="s">
+      <c r="E534" s="22" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A535" s="21" t="s">
+      <c r="A535" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B535" s="22" t="s">
+      <c r="B535" s="21" t="s">
         <v>1272</v>
       </c>
       <c r="C535" s="11" t="s">
@@ -15605,12 +15614,12 @@
       <c r="D535" s="11" t="s">
         <v>1273</v>
       </c>
-      <c r="E535" s="23" t="s">
+      <c r="E535" s="22" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A536" s="21" t="s">
+      <c r="A536" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B536" s="11" t="s">
@@ -15622,12 +15631,12 @@
       <c r="D536" s="11" t="s">
         <v>1277</v>
       </c>
-      <c r="E536" s="23" t="s">
+      <c r="E536" s="22" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A537" s="21" t="s">
+      <c r="A537" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B537" s="11" t="s">
@@ -15639,12 +15648,12 @@
       <c r="D537" s="11" t="s">
         <v>1281</v>
       </c>
-      <c r="E537" s="23" t="s">
+      <c r="E537" s="22" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A538" s="21" t="s">
+      <c r="A538" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B538" s="11" t="s">
@@ -15656,32 +15665,32 @@
       <c r="D538" s="11" t="s">
         <v>1285</v>
       </c>
-      <c r="E538" s="23" t="s">
+      <c r="E538" s="22" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A539" s="21" t="s">
+      <c r="A539" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B539" s="11" t="s">
         <v>1287</v>
       </c>
-      <c r="C539" s="23" t="s">
+      <c r="C539" s="22" t="s">
         <v>1288</v>
       </c>
       <c r="D539" s="11" t="s">
         <v>1289</v>
       </c>
-      <c r="E539" s="23" t="s">
+      <c r="E539" s="22" t="s">
         <v>1290</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A540" s="21" t="s">
+    <row r="540" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B540" s="22" t="s">
+      <c r="B540" s="21" t="s">
         <v>1291</v>
       </c>
       <c r="C540" s="11" t="s">
@@ -15690,7 +15699,7 @@
       <c r="D540" s="11" t="s">
         <v>1293</v>
       </c>
-      <c r="E540" s="23" t="s">
+      <c r="E540" s="22" t="s">
         <v>1294</v>
       </c>
       <c r="F540" s="12" t="s">
@@ -15698,53 +15707,53 @@
       </c>
     </row>
     <row r="541" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A541" s="21" t="s">
+      <c r="A541" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B541" s="11" t="s">
         <v>1295</v>
       </c>
-      <c r="C541" s="23" t="s">
+      <c r="C541" s="22" t="s">
         <v>1296</v>
       </c>
       <c r="D541" s="11" t="s">
         <v>1297</v>
       </c>
-      <c r="E541" s="23" t="s">
+      <c r="E541" s="22" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A542" s="21" t="s">
+      <c r="A542" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B542" s="11" t="s">
         <v>1299</v>
       </c>
-      <c r="C542" s="23" t="s">
+      <c r="C542" s="22" t="s">
         <v>1300</v>
       </c>
       <c r="D542" s="11" t="s">
         <v>1301</v>
       </c>
-      <c r="E542" s="23" t="s">
+      <c r="E542" s="22" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A543" s="21" t="s">
+    <row r="543" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="20" t="s">
         <v>822</v>
       </c>
-      <c r="B543" s="22" t="s">
+      <c r="B543" s="21" t="s">
         <v>1303</v>
       </c>
-      <c r="C543" s="23" t="s">
+      <c r="C543" s="22" t="s">
         <v>1304</v>
       </c>
       <c r="D543" s="11" t="s">
         <v>1305</v>
       </c>
-      <c r="E543" s="23" t="s">
+      <c r="E543" s="22" t="s">
         <v>1306</v>
       </c>
       <c r="F543" s="12" t="s">
@@ -15752,7 +15761,7 @@
       </c>
     </row>
     <row r="544" spans="1:6" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A544" s="21" t="s">
+      <c r="A544" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B544" s="11" t="s">
@@ -15764,144 +15773,144 @@
       <c r="D544" s="11" t="s">
         <v>1309</v>
       </c>
-      <c r="E544" s="23" t="s">
+      <c r="E544" s="22" t="s">
         <v>1310</v>
       </c>
     </row>
     <row r="545" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A545" s="21" t="s">
+      <c r="A545" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B545" s="11" t="s">
         <v>1311</v>
       </c>
-      <c r="C545" s="23" t="s">
+      <c r="C545" s="22" t="s">
         <v>1312</v>
       </c>
       <c r="D545" s="11" t="s">
         <v>1313</v>
       </c>
-      <c r="E545" s="23" t="s">
+      <c r="E545" s="22" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="546" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A546" s="21" t="s">
+      <c r="A546" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B546" s="11" t="s">
         <v>1315</v>
       </c>
-      <c r="C546" s="23" t="s">
+      <c r="C546" s="22" t="s">
         <v>1316</v>
       </c>
       <c r="D546" s="11" t="s">
         <v>1317</v>
       </c>
-      <c r="E546" s="23" t="s">
+      <c r="E546" s="22" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="547" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A547" s="21" t="s">
+      <c r="A547" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B547" s="11" t="s">
         <v>1319</v>
       </c>
-      <c r="C547" s="23" t="s">
+      <c r="C547" s="22" t="s">
         <v>1320</v>
       </c>
       <c r="D547" s="11" t="s">
         <v>1321</v>
       </c>
-      <c r="E547" s="23" t="s">
+      <c r="E547" s="22" t="s">
         <v>1322</v>
       </c>
     </row>
     <row r="548" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A548" s="21" t="s">
+      <c r="A548" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B548" s="11" t="s">
         <v>1323</v>
       </c>
-      <c r="C548" s="23" t="s">
+      <c r="C548" s="22" t="s">
         <v>1324</v>
       </c>
       <c r="D548" s="11" t="s">
         <v>1325</v>
       </c>
-      <c r="E548" s="23" t="s">
+      <c r="E548" s="22" t="s">
         <v>1326</v>
       </c>
     </row>
     <row r="549" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A549" s="21" t="s">
+      <c r="A549" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B549" s="11" t="s">
         <v>1327</v>
       </c>
-      <c r="C549" s="23" t="s">
+      <c r="C549" s="22" t="s">
         <v>1328</v>
       </c>
       <c r="D549" s="11" t="s">
         <v>1329</v>
       </c>
-      <c r="E549" s="23" t="s">
+      <c r="E549" s="22" t="s">
         <v>1330</v>
       </c>
     </row>
     <row r="550" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A550" s="21" t="s">
+      <c r="A550" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B550" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="C550" s="23" t="s">
+      <c r="C550" s="22" t="s">
         <v>1332</v>
       </c>
       <c r="D550" s="11" t="s">
         <v>1333</v>
       </c>
-      <c r="E550" s="23" t="s">
+      <c r="E550" s="22" t="s">
         <v>1334</v>
       </c>
     </row>
     <row r="551" spans="1:33" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A551" s="21" t="s">
+      <c r="A551" s="20" t="s">
         <v>822</v>
       </c>
       <c r="B551" s="11" t="s">
         <v>1335</v>
       </c>
-      <c r="C551" s="23" t="s">
+      <c r="C551" s="22" t="s">
         <v>1336</v>
       </c>
       <c r="D551" s="11" t="s">
         <v>1337</v>
       </c>
-      <c r="E551" s="23" t="s">
+      <c r="E551" s="22" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="552" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A552" s="14" t="s">
+    <row r="552" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="13" t="s">
         <v>1339</v>
       </c>
-      <c r="B552" s="33" t="s">
+      <c r="B552" s="32" t="s">
         <v>1340</v>
       </c>
-      <c r="C552" s="31" t="s">
+      <c r="C552" s="30" t="s">
         <v>1959</v>
       </c>
-      <c r="D552" s="30" t="s">
+      <c r="D552" s="29" t="s">
         <v>1958</v>
       </c>
-      <c r="E552" s="17"/>
-      <c r="F552" s="32" t="s">
+      <c r="E552" s="16"/>
+      <c r="F552" s="31" t="s">
         <v>1953</v>
       </c>
       <c r="G552" s="10"/>
@@ -15936,10 +15945,10 @@
       <c r="A553" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B553" s="35" t="s">
+      <c r="B553" s="34" t="s">
         <v>1341</v>
       </c>
-      <c r="C553" s="34" t="s">
+      <c r="C553" s="33" t="s">
         <v>1960</v>
       </c>
       <c r="D553" s="6" t="s">
@@ -16020,11 +16029,11 @@
       <c r="AF554" s="10"/>
       <c r="AG554" s="10"/>
     </row>
-    <row r="555" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A555" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B555" s="36" t="s">
+      <c r="B555" s="35" t="s">
         <v>1346</v>
       </c>
       <c r="C555" s="4" t="s">
@@ -16382,11 +16391,11 @@
       <c r="AF562" s="10"/>
       <c r="AG562" s="10"/>
     </row>
-    <row r="563" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A563" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B563" s="36" t="s">
+      <c r="B563" s="35" t="s">
         <v>1376</v>
       </c>
       <c r="C563" s="4" t="s">
@@ -16429,11 +16438,11 @@
       <c r="AF563" s="10"/>
       <c r="AG563" s="10"/>
     </row>
-    <row r="564" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A564" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B564" s="36" t="s">
+      <c r="B564" s="35" t="s">
         <v>1380</v>
       </c>
       <c r="C564" s="6" t="s">
@@ -16611,17 +16620,17 @@
       <c r="AF567" s="10"/>
       <c r="AG567" s="10"/>
     </row>
-    <row r="568" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A568" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B568" s="36" t="s">
+      <c r="B568" s="35" t="s">
         <v>1395</v>
       </c>
       <c r="C568" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="D568" s="37" t="s">
+      <c r="D568" s="36" t="s">
         <v>1397</v>
       </c>
       <c r="E568" s="9" t="s">
@@ -16748,11 +16757,11 @@
       <c r="AF570" s="10"/>
       <c r="AG570" s="10"/>
     </row>
-    <row r="571" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A571" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B571" s="36" t="s">
+      <c r="B571" s="35" t="s">
         <v>1407</v>
       </c>
       <c r="C571" s="6" t="s">
@@ -17065,17 +17074,17 @@
       <c r="AF577" s="10"/>
       <c r="AG577" s="10"/>
     </row>
-    <row r="578" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A578" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B578" s="36" t="s">
+      <c r="B578" s="35" t="s">
         <v>1434</v>
       </c>
       <c r="C578" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="D578" s="37" t="s">
+      <c r="D578" s="36" t="s">
         <v>1436</v>
       </c>
       <c r="E578" s="9" t="s">
@@ -17112,11 +17121,11 @@
       <c r="AF578" s="10"/>
       <c r="AG578" s="10"/>
     </row>
-    <row r="579" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A579" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B579" s="36" t="s">
+      <c r="B579" s="35" t="s">
         <v>1438</v>
       </c>
       <c r="C579" s="4" t="s">
@@ -17204,17 +17213,17 @@
       <c r="AF580" s="10"/>
       <c r="AG580" s="10"/>
     </row>
-    <row r="581" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A581" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B581" s="36" t="s">
+      <c r="B581" s="35" t="s">
         <v>1446</v>
       </c>
       <c r="C581" s="4" t="s">
         <v>1447</v>
       </c>
-      <c r="D581" s="37" t="s">
+      <c r="D581" s="36" t="s">
         <v>1448</v>
       </c>
       <c r="E581" s="9" t="s">
@@ -17298,11 +17307,11 @@
       <c r="AF582" s="10"/>
       <c r="AG582" s="10"/>
     </row>
-    <row r="583" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A583" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B583" s="13" t="s">
+      <c r="B583" s="42" t="s">
         <v>1454</v>
       </c>
       <c r="C583" s="4" t="s">
@@ -17314,7 +17323,9 @@
       <c r="E583" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="F583" s="10"/>
+      <c r="F583" s="12" t="s">
+        <v>1953</v>
+      </c>
       <c r="G583" s="10"/>
       <c r="H583" s="10"/>
       <c r="I583" s="10"/>
@@ -17748,17 +17759,17 @@
       <c r="AF592" s="10"/>
       <c r="AG592" s="10"/>
     </row>
-    <row r="593" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A593" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B593" s="36" t="s">
+      <c r="B593" s="35" t="s">
         <v>1494</v>
       </c>
       <c r="C593" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="D593" s="37" t="s">
+      <c r="D593" s="36" t="s">
         <v>1496</v>
       </c>
       <c r="E593" s="9" t="s">
@@ -17795,11 +17806,11 @@
       <c r="AF593" s="10"/>
       <c r="AG593" s="10"/>
     </row>
-    <row r="594" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A594" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B594" s="36" t="s">
+      <c r="B594" s="35" t="s">
         <v>1498</v>
       </c>
       <c r="C594" s="4" t="s">
@@ -17842,11 +17853,11 @@
       <c r="AF594" s="10"/>
       <c r="AG594" s="10"/>
     </row>
-    <row r="595" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A595" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B595" s="3" t="s">
+      <c r="B595" s="42" t="s">
         <v>1502</v>
       </c>
       <c r="C595" s="4" t="s">
@@ -17858,7 +17869,9 @@
       <c r="E595" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="F595" s="10"/>
+      <c r="F595" s="12" t="s">
+        <v>1953</v>
+      </c>
       <c r="G595" s="10"/>
       <c r="H595" s="10"/>
       <c r="I595" s="10"/>
@@ -17887,11 +17900,11 @@
       <c r="AF595" s="10"/>
       <c r="AG595" s="10"/>
     </row>
-    <row r="596" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A596" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B596" s="36" t="s">
+      <c r="B596" s="35" t="s">
         <v>1506</v>
       </c>
       <c r="C596" s="6" t="s">
@@ -17934,11 +17947,11 @@
       <c r="AF596" s="10"/>
       <c r="AG596" s="10"/>
     </row>
-    <row r="597" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A597" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B597" s="13" t="s">
+      <c r="B597" s="42" t="s">
         <v>1510</v>
       </c>
       <c r="C597" s="4" t="s">
@@ -17950,7 +17963,9 @@
       <c r="E597" s="9" t="s">
         <v>1513</v>
       </c>
-      <c r="F597" s="10"/>
+      <c r="F597" s="12" t="s">
+        <v>1953</v>
+      </c>
       <c r="G597" s="10"/>
       <c r="H597" s="10"/>
       <c r="I597" s="10"/>
@@ -18159,11 +18174,11 @@
       <c r="AF601" s="10"/>
       <c r="AG601" s="10"/>
     </row>
-    <row r="602" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A602" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B602" s="36" t="s">
+      <c r="B602" s="35" t="s">
         <v>1530</v>
       </c>
       <c r="C602" s="6" t="s">
@@ -18206,11 +18221,11 @@
       <c r="AF602" s="10"/>
       <c r="AG602" s="10"/>
     </row>
-    <row r="603" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A603" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B603" s="36" t="s">
+      <c r="B603" s="35" t="s">
         <v>1533</v>
       </c>
       <c r="C603" s="6" t="s">
@@ -18302,7 +18317,7 @@
       <c r="A605" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B605" s="36" t="s">
+      <c r="B605" s="35" t="s">
         <v>1541</v>
       </c>
       <c r="C605" s="6" t="s">
@@ -18343,11 +18358,11 @@
       <c r="AF605" s="10"/>
       <c r="AG605" s="10"/>
     </row>
-    <row r="606" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A606" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B606" s="36" t="s">
+      <c r="B606" s="35" t="s">
         <v>1545</v>
       </c>
       <c r="C606" s="6" t="s">
@@ -18435,11 +18450,11 @@
       <c r="AF607" s="10"/>
       <c r="AG607" s="10"/>
     </row>
-    <row r="608" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A608" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B608" s="36" t="s">
+      <c r="B608" s="35" t="s">
         <v>1553</v>
       </c>
       <c r="C608" s="6" t="s">
@@ -18482,11 +18497,11 @@
       <c r="AF608" s="10"/>
       <c r="AG608" s="10"/>
     </row>
-    <row r="609" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A609" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B609" s="36" t="s">
+      <c r="B609" s="35" t="s">
         <v>1557</v>
       </c>
       <c r="C609" s="6" t="s">
@@ -18578,7 +18593,7 @@
       <c r="A611" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B611" s="36" t="s">
+      <c r="B611" s="35" t="s">
         <v>1565</v>
       </c>
       <c r="C611" s="4" t="s">
@@ -18709,11 +18724,11 @@
       <c r="AF613" s="10"/>
       <c r="AG613" s="10"/>
     </row>
-    <row r="614" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A614" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B614" s="36" t="s">
+      <c r="B614" s="35" t="s">
         <v>1577</v>
       </c>
       <c r="C614" s="4" t="s">
@@ -18891,11 +18906,11 @@
       <c r="AF617" s="10"/>
       <c r="AG617" s="10"/>
     </row>
-    <row r="618" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A618" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B618" s="36" t="s">
+      <c r="B618" s="35" t="s">
         <v>1592</v>
       </c>
       <c r="C618" s="4" t="s">
@@ -19028,17 +19043,17 @@
       <c r="AF620" s="10"/>
       <c r="AG620" s="10"/>
     </row>
-    <row r="621" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="621" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A621" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B621" s="36" t="s">
+      <c r="B621" s="35" t="s">
         <v>1604</v>
       </c>
       <c r="C621" s="6" t="s">
         <v>1605</v>
       </c>
-      <c r="D621" s="37" t="s">
+      <c r="D621" s="36" t="s">
         <v>1606</v>
       </c>
       <c r="E621" s="9" t="s">
@@ -19165,11 +19180,11 @@
       <c r="AF623" s="10"/>
       <c r="AG623" s="10"/>
     </row>
-    <row r="624" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="624" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A624" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B624" s="13" t="s">
+      <c r="B624" s="43" t="s">
         <v>1616</v>
       </c>
       <c r="C624" s="6" t="s">
@@ -19181,7 +19196,9 @@
       <c r="E624" s="9" t="s">
         <v>1619</v>
       </c>
-      <c r="F624" s="10"/>
+      <c r="F624" s="12" t="s">
+        <v>1953</v>
+      </c>
       <c r="G624" s="10"/>
       <c r="H624" s="10"/>
       <c r="I624" s="10"/>
@@ -19300,11 +19317,11 @@
       <c r="AF626" s="10"/>
       <c r="AG626" s="10"/>
     </row>
-    <row r="627" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="627" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A627" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B627" s="36" t="s">
+      <c r="B627" s="35" t="s">
         <v>1627</v>
       </c>
       <c r="C627" s="4" t="s">
@@ -19347,11 +19364,11 @@
       <c r="AF627" s="10"/>
       <c r="AG627" s="10"/>
     </row>
-    <row r="628" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="628" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A628" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B628" s="36" t="s">
+      <c r="B628" s="35" t="s">
         <v>1630</v>
       </c>
       <c r="C628" s="6" t="s">
@@ -19484,17 +19501,17 @@
       <c r="AF630" s="10"/>
       <c r="AG630" s="10"/>
     </row>
-    <row r="631" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="631" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A631" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B631" s="36" t="s">
+      <c r="B631" s="35" t="s">
         <v>1642</v>
       </c>
       <c r="C631" s="4" t="s">
         <v>1643</v>
       </c>
-      <c r="D631" s="37" t="s">
+      <c r="D631" s="36" t="s">
         <v>1644</v>
       </c>
       <c r="E631" s="9" t="s">
@@ -19666,11 +19683,11 @@
       <c r="AF634" s="10"/>
       <c r="AG634" s="10"/>
     </row>
-    <row r="635" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="635" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A635" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B635" s="36" t="s">
+      <c r="B635" s="35" t="s">
         <v>1657</v>
       </c>
       <c r="C635" s="4" t="s">
@@ -19987,7 +20004,7 @@
       <c r="A642" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B642" s="38" t="s">
+      <c r="B642" s="37" t="s">
         <v>1684</v>
       </c>
       <c r="C642" s="6" t="s">
@@ -20077,7 +20094,7 @@
       <c r="A644" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B644" s="38" t="s">
+      <c r="B644" s="37" t="s">
         <v>1692</v>
       </c>
       <c r="C644" s="4" t="s">
@@ -20163,11 +20180,11 @@
       <c r="AF645" s="10"/>
       <c r="AG645" s="10"/>
     </row>
-    <row r="646" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="646" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A646" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B646" s="36" t="s">
+      <c r="B646" s="35" t="s">
         <v>1700</v>
       </c>
       <c r="C646" s="4" t="s">
@@ -20210,11 +20227,11 @@
       <c r="AF646" s="10"/>
       <c r="AG646" s="10"/>
     </row>
-    <row r="647" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="647" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A647" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B647" s="36" t="s">
+      <c r="B647" s="35" t="s">
         <v>1704</v>
       </c>
       <c r="C647" s="6" t="s">
@@ -20257,11 +20274,11 @@
       <c r="AF647" s="10"/>
       <c r="AG647" s="10"/>
     </row>
-    <row r="648" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="648" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A648" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B648" s="36" t="s">
+      <c r="B648" s="35" t="s">
         <v>1707</v>
       </c>
       <c r="C648" s="4" t="s">
@@ -20304,11 +20321,11 @@
       <c r="AF648" s="10"/>
       <c r="AG648" s="10"/>
     </row>
-    <row r="649" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="649" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A649" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B649" s="36" t="s">
+      <c r="B649" s="35" t="s">
         <v>1711</v>
       </c>
       <c r="C649" s="6" t="s">
@@ -20576,11 +20593,11 @@
       <c r="AF654" s="10"/>
       <c r="AG654" s="10"/>
     </row>
-    <row r="655" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="655" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A655" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B655" s="36" t="s">
+      <c r="B655" s="35" t="s">
         <v>1733</v>
       </c>
       <c r="C655" s="4" t="s">
@@ -20627,7 +20644,7 @@
       <c r="A656" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B656" s="36" t="s">
+      <c r="B656" s="35" t="s">
         <v>1737</v>
       </c>
       <c r="C656" s="4" t="s">
@@ -20668,11 +20685,11 @@
       <c r="AF656" s="10"/>
       <c r="AG656" s="10"/>
     </row>
-    <row r="657" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="657" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A657" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B657" s="40" t="s">
+      <c r="B657" s="39" t="s">
         <v>1741</v>
       </c>
       <c r="C657" s="4" t="s">
@@ -20715,14 +20732,14 @@
       <c r="AF657" s="10"/>
       <c r="AG657" s="10"/>
     </row>
-    <row r="658" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="658" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A658" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="B658" s="39" t="s">
+      <c r="B658" s="38" t="s">
         <v>1745</v>
       </c>
-      <c r="C658" s="37" t="s">
+      <c r="C658" s="36" t="s">
         <v>1962</v>
       </c>
       <c r="D658" s="4" t="s">
@@ -20776,11 +20793,11 @@
       <c r="E659" s="8"/>
       <c r="F659" s="10"/>
     </row>
-    <row r="660" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="660" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A660" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B660" s="3" t="s">
+      <c r="B660" s="42" t="s">
         <v>1751</v>
       </c>
       <c r="C660" s="4" t="s">
@@ -20792,7 +20809,9 @@
       <c r="E660" s="9" t="s">
         <v>1754</v>
       </c>
-      <c r="F660" s="10"/>
+      <c r="F660" s="12" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="661" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A661" s="2" t="s">
@@ -20938,11 +20957,11 @@
       </c>
       <c r="F668" s="10"/>
     </row>
-    <row r="669" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="669" spans="1:33" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A669" s="2" t="s">
-        <v>1748</v>
-      </c>
-      <c r="B669" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B669" s="42" t="s">
         <v>891</v>
       </c>
       <c r="C669" s="4" t="s">
@@ -20954,7 +20973,9 @@
       <c r="E669" s="9" t="s">
         <v>1787</v>
       </c>
-      <c r="F669" s="10"/>
+      <c r="F669" s="12" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="670" spans="1:33" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A670" s="2" t="s">
@@ -21010,11 +21031,11 @@
       </c>
       <c r="F672" s="10"/>
     </row>
-    <row r="673" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="673" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A673" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B673" s="3" t="s">
+      <c r="B673" s="42" t="s">
         <v>1799</v>
       </c>
       <c r="C673" s="4" t="s">
@@ -21026,7 +21047,9 @@
       <c r="E673" s="9" t="s">
         <v>1802</v>
       </c>
-      <c r="F673" s="10"/>
+      <c r="F673" s="12" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="674" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A674" s="2" t="s">
@@ -21100,11 +21123,11 @@
       </c>
       <c r="F677" s="10"/>
     </row>
-    <row r="678" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="678" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B678" s="3" t="s">
+      <c r="B678" s="42" t="s">
         <v>1818</v>
       </c>
       <c r="C678" s="4" t="s">
@@ -21116,7 +21139,9 @@
       <c r="E678" s="9" t="s">
         <v>1821</v>
       </c>
-      <c r="F678" s="10"/>
+      <c r="F678" s="12" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="679" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A679" s="2" t="s">
@@ -21190,11 +21215,11 @@
       </c>
       <c r="F682" s="10"/>
     </row>
-    <row r="683" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="683" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A683" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B683" s="3" t="s">
+      <c r="B683" s="42" t="s">
         <v>1838</v>
       </c>
       <c r="C683" s="4" t="s">
@@ -21206,7 +21231,9 @@
       <c r="E683" s="9" t="s">
         <v>1841</v>
       </c>
-      <c r="F683" s="10"/>
+      <c r="F683" s="12" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="684" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A684" s="2" t="s">
@@ -21568,11 +21595,11 @@
       </c>
       <c r="F703" s="10"/>
     </row>
-    <row r="704" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="704" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A704" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B704" s="3" t="s">
+      <c r="B704" s="42" t="s">
         <v>1917</v>
       </c>
       <c r="C704" s="4" t="s">
@@ -21584,13 +21611,15 @@
       <c r="E704" s="9" t="s">
         <v>1920</v>
       </c>
-      <c r="F704" s="10"/>
-    </row>
-    <row r="705" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F704" s="12" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A705" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="B705" s="3" t="s">
+      <c r="B705" s="42" t="s">
         <v>1921</v>
       </c>
       <c r="C705" s="4" t="s">
@@ -21602,7 +21631,9 @@
       <c r="E705" s="9" t="s">
         <v>1924</v>
       </c>
-      <c r="F705" s="10"/>
+      <c r="F705" s="12" t="s">
+        <v>1953</v>
+      </c>
     </row>
     <row r="706" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A706" s="2" t="s">
@@ -21620,7 +21651,6 @@
       <c r="E706" s="9" t="s">
         <v>1928</v>
       </c>
-      <c r="F706" s="10"/>
     </row>
     <row r="707" spans="1:6" s="1" customFormat="1" ht="20" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A707" s="2" t="s">
@@ -21732,10 +21762,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G712" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="N1"/>
-      </filters>
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
